--- a/Models/ABNB.xlsx
+++ b/Models/ABNB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1284" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5DE45C-2FF6-D440-A319-36EC7691FB0C}"/>
+  <xr:revisionPtr revIDLastSave="1400" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F1325B-9640-D245-81C0-FA189DD837D4}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="33040" windowHeight="21380" activeTab="1" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
+    <workbookView xWindow="1000" yWindow="860" windowWidth="33200" windowHeight="21380" activeTab="1" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -184,9 +184,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>Cost of revenue</t>
-  </si>
-  <si>
     <t>R&amp;D</t>
   </si>
   <si>
@@ -347,6 +344,27 @@
   </si>
   <si>
     <t xml:space="preserve">Based on FCF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO </t>
+  </si>
+  <si>
+    <t>Brian Chesky</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Ellie Mertz</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Revenue </t>
+  </si>
+  <si>
+    <t>Airbnb has market share of 28.07% in reservation-and-online-booking market.</t>
   </si>
 </sst>
 </file>
@@ -385,18 +403,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -412,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,20 +442,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,8 +470,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>824831</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1871</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
@@ -490,8 +494,313 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25633928" y="17640"/>
-          <a:ext cx="9408" cy="8956440"/>
+          <a:off x="25635551" y="17640"/>
+          <a:ext cx="3340" cy="8690939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E462714F-09EE-D0EC-C646-574F0873825F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18227040" y="0"/>
+          <a:ext cx="0" cy="8636000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257F5702-06B0-8F49-A75B-684C94D1CF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935200" y="0"/>
+          <a:ext cx="0" cy="8636000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8549889-25D5-7841-9C4C-79B299D0C743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11684000" y="0"/>
+          <a:ext cx="0" cy="8636000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84272230-DEFC-B24F-9D93-890BF3D00B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8514080" y="0"/>
+          <a:ext cx="0" cy="8636000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C693AEC7-770D-8740-B82E-6541A44F2F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="0"/>
+          <a:ext cx="0" cy="8636000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>820856</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>824196</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF15AB0-D94E-474E-B5DF-8BE4F12199C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30583030" y="0"/>
+          <a:ext cx="3340" cy="8854824"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -852,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4F1930-5923-2449-86A0-05B4A5E86FA6}">
-  <dimension ref="B2:K45"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -949,392 +1258,451 @@
         <v>75641.399999999994</v>
       </c>
     </row>
+    <row r="9" spans="2:11">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="5" t="s">
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="10" t="s">
+    <row r="29" spans="2:5">
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>2023</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>2024</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>448</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>492</v>
       </c>
-      <c r="E27" s="7">
-        <f>(D27-C27)/C27</f>
+      <c r="E30" s="7">
+        <f>(D30-C30)/C30</f>
         <v>9.8214285714285712E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>73252</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D31" s="2">
         <v>81784</v>
       </c>
-      <c r="E28" s="7">
-        <f>(D28-C28)/C28</f>
+      <c r="E31" s="7">
+        <f>(D31-C31)/C31</f>
         <v>0.11647463550483263</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="11">
-        <f>C28/C27</f>
+    <row r="32" spans="2:5">
+      <c r="C32" s="11">
+        <f>C31/C30</f>
         <v>163.50892857142858</v>
       </c>
-      <c r="D29" s="11">
-        <f>D28/D27</f>
+      <c r="D32" s="11">
+        <f>D31/D30</f>
         <v>166.22764227642276</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="5" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>2023</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>2024</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
+      <c r="F35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>146</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>154</v>
       </c>
-      <c r="E33" s="7">
-        <f>(D33-C33)/C33</f>
+      <c r="E36" s="7">
+        <f>(D36-C36)/C36</f>
         <v>5.4794520547945202E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
+      <c r="F36" s="6">
+        <f>D36/$D$40</f>
+        <v>0.31300813008130079</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>187</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>201</v>
       </c>
-      <c r="E34" s="7">
-        <f t="shared" ref="E34:E37" si="0">(D34-C34)/C34</f>
+      <c r="E37" s="7">
+        <f>(D37-C37)/C37</f>
         <v>7.4866310160427801E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:F40" si="0">D37/$D$40</f>
+        <v>0.40853658536585363</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>64</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>76</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E38" s="7">
+        <f>(D38-C38)/C38</f>
+        <v>0.1875</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
+        <v>0.15447154471544716</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <v>51</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>61</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E39" s="7">
+        <f>(D39-C39)/C39</f>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
-        <v>0.19607843137254902</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" s="5" customFormat="1">
-      <c r="B37" s="5" t="s">
+        <v>0.12398373983739837</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="5" customFormat="1">
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
-        <f>SUM(C33:C36)</f>
+      <c r="C40" s="5">
+        <f>SUM(C36:C39)</f>
         <v>448</v>
       </c>
-      <c r="D37" s="5">
-        <f>SUM(D33:D36)</f>
+      <c r="D40" s="5">
+        <f>SUM(D36:D39)</f>
         <v>492</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E40" s="9">
+        <f>(D40-C40)/C40</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
-        <v>9.8214285714285712E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C40">
+      <c r="C43">
         <v>2023</v>
       </c>
-      <c r="D40">
+      <c r="D43">
         <v>2024</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="2" t="s">
+      <c r="F43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C44" s="2">
         <v>34941</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D44" s="2">
         <v>37816</v>
       </c>
-      <c r="E41" s="7">
-        <f>(D41-C41)/C41</f>
+      <c r="E44" s="7">
+        <f>(D44-C44)/C44</f>
         <v>8.2281560344580867E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2" t="s">
+      <c r="F44" s="6">
+        <f>D44/$D$48</f>
+        <v>0.46238873129218427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C45" s="2">
         <v>26241</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D45" s="2">
         <v>29750</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" ref="E42:E45" si="1">(D42-C42)/C42</f>
+      <c r="E45" s="7">
+        <f t="shared" ref="E45:E48" si="1">(D45-C45)/C45</f>
         <v>0.13372203803208718</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="2" t="s">
+      <c r="F45" s="6">
+        <f t="shared" ref="F45:F48" si="2">D45/$D$48</f>
+        <v>0.36376308324366624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C46" s="2">
         <v>6054</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D46" s="2">
         <v>7092</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E46" s="7">
         <f t="shared" si="1"/>
         <v>0.17145688800792863</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" s="5" customFormat="1">
-      <c r="B44" s="2" t="s">
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>8.6716228113078359E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="5" customFormat="1">
+      <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C47" s="2">
         <v>6016</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D47" s="2">
         <v>7126</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E47" s="7">
         <f t="shared" si="1"/>
         <v>0.18450797872340424</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="8" t="s">
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
+        <v>8.7131957351071113E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="8">
-        <f>SUM(C41:C44)</f>
+      <c r="C48" s="8">
+        <f>SUM(C44:C47)</f>
         <v>73252</v>
       </c>
-      <c r="D45" s="8">
-        <f>SUM(D41:D44)</f>
+      <c r="D48" s="8">
+        <f>SUM(D44:D47)</f>
         <v>81784</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E48" s="9">
         <f t="shared" si="1"/>
         <v>0.11647463550483263</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C37:D37" formulaRange="1"/>
+    <ignoredError sqref="C40:D40" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8C7F3-F2C1-7648-A25C-50F3C2F80138}">
-  <dimension ref="A1:BO49"/>
+  <dimension ref="A1:CJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
-    <col min="10" max="12" width="10.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="14" width="10.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="13"/>
-    <col min="18" max="20" width="10.83203125" style="2"/>
-    <col min="21" max="21" width="10.83203125" style="13"/>
-    <col min="22" max="16384" width="10.83203125" style="2"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:37">
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:67" customFormat="1">
+    <row r="2" spans="1:37" customFormat="1">
       <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>60</v>
+      <c r="M2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>37</v>
@@ -1342,7 +1710,7 @@
       <c r="T2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1392,130 +1760,10 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AL2">
-        <f>AK2+1</f>
-        <v>2031</v>
-      </c>
-      <c r="AM2">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AN2">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AO2">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AP2">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AQ2">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AR2">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AS2">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AT2">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AU2">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AV2">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="AW2">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="AX2">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="AY2">
-        <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="AZ2">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="BA2">
-        <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="BB2">
-        <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="BC2">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="BD2">
-        <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="BE2">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="BF2">
-        <f t="shared" si="0"/>
-        <v>2051</v>
-      </c>
-      <c r="BG2">
-        <f t="shared" si="0"/>
-        <v>2052</v>
-      </c>
-      <c r="BH2">
-        <f t="shared" si="0"/>
-        <v>2053</v>
-      </c>
-      <c r="BI2">
-        <f t="shared" si="0"/>
-        <v>2054</v>
-      </c>
-      <c r="BJ2">
-        <f t="shared" si="0"/>
-        <v>2055</v>
-      </c>
-      <c r="BK2">
-        <f t="shared" si="0"/>
-        <v>2056</v>
-      </c>
-      <c r="BL2">
-        <f t="shared" si="0"/>
-        <v>2057</v>
-      </c>
-      <c r="BM2">
-        <f t="shared" si="0"/>
-        <v>2058</v>
-      </c>
-      <c r="BN2">
-        <f t="shared" si="0"/>
-        <v>2059</v>
-      </c>
-      <c r="BO2">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:67">
+    </row>
+    <row r="3" spans="1:37">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3">
         <v>57.1</v>
@@ -1523,7 +1771,7 @@
       <c r="D3" s="3">
         <v>28</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="3">
         <v>61.8</v>
       </c>
       <c r="F3" s="3">
@@ -1535,7 +1783,7 @@
       <c r="H3" s="3">
         <v>83.1</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="3">
         <v>79.900000000000006</v>
       </c>
       <c r="J3" s="3">
@@ -1547,7 +1795,7 @@
       <c r="L3" s="3">
         <v>103.7</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="3">
         <v>99.7</v>
       </c>
       <c r="N3" s="3">
@@ -1559,7 +1807,7 @@
       <c r="P3" s="3">
         <v>115.1</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="3">
         <v>113.2</v>
       </c>
       <c r="R3" s="3">
@@ -1571,7 +1819,7 @@
       <c r="T3" s="3">
         <v>125.1</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="3">
         <v>125.1</v>
       </c>
       <c r="V3" s="3">
@@ -1601,9 +1849,9 @@
         <v>505.59999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:37">
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3">
         <v>6766</v>
@@ -1611,7 +1859,7 @@
       <c r="D4" s="3">
         <v>3200</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="3">
         <v>8000</v>
       </c>
       <c r="F4" s="3">
@@ -1623,7 +1871,7 @@
       <c r="H4" s="3">
         <v>13400</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="3">
         <v>11900</v>
       </c>
       <c r="J4" s="3">
@@ -1635,7 +1883,7 @@
       <c r="L4" s="3">
         <v>16900</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="3">
         <v>15600</v>
       </c>
       <c r="N4" s="3">
@@ -1647,7 +1895,7 @@
       <c r="P4" s="3">
         <v>19100</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="3">
         <v>18300</v>
       </c>
       <c r="R4" s="3">
@@ -1659,7 +1907,7 @@
       <c r="T4" s="3">
         <v>21200</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="3">
         <v>21200</v>
       </c>
       <c r="V4" s="3">
@@ -1681,7 +1929,7 @@
         <v>63200</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" ref="AD4:AD19" si="3">SUM(O4:R4)</f>
+        <f t="shared" ref="AD4:AD15" si="3">SUM(O4:R4)</f>
         <v>73300</v>
       </c>
       <c r="AE4" s="2">
@@ -1689,9 +1937,9 @@
         <v>85400</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:37">
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3">
         <f>C4/C3</f>
@@ -1701,7 +1949,7 @@
         <f t="shared" ref="D5:W5" si="5">D4/D3</f>
         <v>114.28571428571429</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="3">
         <f t="shared" si="5"/>
         <v>129.44983818770228</v>
       </c>
@@ -1717,7 +1965,7 @@
         <f t="shared" ref="H5" si="6">H4/H3</f>
         <v>161.25150421179302</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="3">
         <f t="shared" ref="I5" si="7">I4/I3</f>
         <v>148.93617021276594</v>
       </c>
@@ -1733,7 +1981,7 @@
         <f t="shared" ref="L5" si="9">L4/L3</f>
         <v>162.97010607521696</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="3">
         <f t="shared" ref="M5" si="10">M4/M3</f>
         <v>156.46940822467403</v>
       </c>
@@ -1749,7 +1997,7 @@
         <f t="shared" si="5"/>
         <v>165.94265855777584</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="3">
         <f t="shared" si="5"/>
         <v>161.66077738515901</v>
       </c>
@@ -1765,7 +2013,7 @@
         <f t="shared" si="5"/>
         <v>169.46442845723422</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="3">
         <f t="shared" si="5"/>
         <v>169.46442845723422</v>
       </c>
@@ -1798,7 +2046,7 @@
         <v>168.82737196096588</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="8" customFormat="1">
+    <row r="6" spans="1:37" s="8" customFormat="1">
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1808,7 +2056,7 @@
       <c r="D6" s="8">
         <v>334.774</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="8">
         <v>1342.3309999999999</v>
       </c>
       <c r="F6" s="8">
@@ -1820,7 +2068,7 @@
       <c r="H6" s="8">
         <v>1335</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="8">
         <v>2237.4319999999998</v>
       </c>
       <c r="J6" s="8">
@@ -1832,7 +2080,7 @@
       <c r="L6" s="8">
         <v>2104</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="8">
         <v>2884</v>
       </c>
       <c r="N6" s="8">
@@ -1845,7 +2093,7 @@
       <c r="P6" s="8">
         <v>2484</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="8">
         <v>3397</v>
       </c>
       <c r="R6" s="8">
@@ -1858,7 +2106,7 @@
       <c r="T6" s="8">
         <v>2748</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="8">
         <v>3732</v>
       </c>
       <c r="V6" s="8">
@@ -1885,13 +2133,37 @@
         <v>9917</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" ref="AE6:AE19" si="14">SUM(S6:V6)</f>
+        <f t="shared" ref="AE6:AF15" si="14">SUM(S6:V6)</f>
         <v>11102</v>
       </c>
-    </row>
-    <row r="7" spans="1:67">
+      <c r="AF6" s="8">
+        <f>AE6*1.15</f>
+        <v>12767.3</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" ref="AG6:AK6" si="15">AF6*1.15</f>
+        <v>14682.394999999999</v>
+      </c>
+      <c r="AH6" s="8">
+        <f t="shared" si="15"/>
+        <v>16884.754249999998</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" si="15"/>
+        <v>19417.467387499997</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f t="shared" si="15"/>
+        <v>22330.087495624994</v>
+      </c>
+      <c r="AK6" s="8">
+        <f t="shared" si="15"/>
+        <v>25679.60061996874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>277.77199999999999</v>
@@ -1899,7 +2171,7 @@
       <c r="D7" s="2">
         <v>161.19800000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="2">
         <v>227.32499999999999</v>
       </c>
       <c r="F7" s="2">
@@ -1911,7 +2183,7 @@
       <c r="H7" s="2">
         <v>294.42700000000002</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="2">
         <v>311.58</v>
       </c>
       <c r="J7" s="2">
@@ -1923,7 +2195,7 @@
       <c r="L7" s="2">
         <v>390</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="2">
         <v>401</v>
       </c>
       <c r="N7" s="2">
@@ -1936,7 +2208,7 @@
       <c r="P7" s="2">
         <v>432</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="2">
         <v>459</v>
       </c>
       <c r="R7" s="2">
@@ -1949,7 +2221,7 @@
       <c r="T7" s="2">
         <v>506</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="2">
         <v>465</v>
       </c>
       <c r="V7" s="2">
@@ -1980,92 +2252,92 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:37">
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:W8" si="15">C6-C7</f>
+        <f t="shared" ref="C8:W8" si="16">C6-C7</f>
         <v>564.05799999999999</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>173.57599999999999</v>
       </c>
-      <c r="E8" s="13">
-        <f t="shared" si="15"/>
+      <c r="E8" s="2">
+        <f t="shared" si="16"/>
         <v>1115.0059999999999</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>649.51700000000005</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>632.42100000000005</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1040.5729999999999</v>
       </c>
-      <c r="I8" s="13">
-        <f t="shared" si="15"/>
+      <c r="I8" s="2">
+        <f t="shared" si="16"/>
         <v>1925.8519999999999</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1236.885</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1146</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1714</v>
       </c>
-      <c r="M8" s="13">
-        <f t="shared" si="15"/>
+      <c r="M8" s="2">
+        <f t="shared" si="16"/>
         <v>2483</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1557</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1390</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2052</v>
       </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="15"/>
+      <c r="Q8" s="2">
+        <f t="shared" si="16"/>
         <v>2938</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1834</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1662</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2242</v>
       </c>
-      <c r="U8" s="13">
-        <f t="shared" si="15"/>
+      <c r="U8" s="2">
+        <f t="shared" si="16"/>
         <v>3267</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2053</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1766</v>
       </c>
       <c r="AA8" s="2">
@@ -2089,9 +2361,9 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:37">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>221.78700000000001</v>
@@ -2099,7 +2371,7 @@
       <c r="D9" s="2">
         <v>160.476</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="2">
         <v>166.10599999999999</v>
       </c>
       <c r="F9" s="2">
@@ -2111,7 +2383,7 @@
       <c r="H9" s="2">
         <v>208.125</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="2">
         <v>228.33</v>
       </c>
       <c r="J9" s="2">
@@ -2123,7 +2395,7 @@
       <c r="L9" s="2">
         <v>258</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="2">
         <v>290</v>
       </c>
       <c r="N9" s="2">
@@ -2136,7 +2408,7 @@
       <c r="P9" s="2">
         <v>317</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="2">
         <v>316</v>
       </c>
       <c r="R9" s="2">
@@ -2149,7 +2421,7 @@
       <c r="T9" s="2">
         <v>338</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="2">
         <v>369</v>
       </c>
       <c r="V9" s="2">
@@ -2180,9 +2452,9 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:37">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>258.81900000000002</v>
@@ -2190,7 +2462,7 @@
       <c r="D10" s="2">
         <v>217.93799999999999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="2">
         <v>213.92</v>
       </c>
       <c r="F10" s="2">
@@ -2202,7 +2474,7 @@
       <c r="H10" s="2">
         <v>349.73399999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="2">
         <v>344.41</v>
       </c>
       <c r="J10" s="2">
@@ -2214,7 +2486,7 @@
       <c r="L10" s="2">
         <v>375</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="2">
         <v>366</v>
       </c>
       <c r="N10" s="2">
@@ -2227,7 +2499,7 @@
       <c r="P10" s="2">
         <v>451</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="2">
         <v>419</v>
       </c>
       <c r="R10" s="2">
@@ -2240,7 +2512,7 @@
       <c r="T10" s="2">
         <v>519</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="2">
         <v>524</v>
       </c>
       <c r="V10" s="2">
@@ -2271,9 +2543,9 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:37">
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>317.17899999999997</v>
@@ -2281,7 +2553,7 @@
       <c r="D11" s="2">
         <v>114.837</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="2">
         <v>113.494</v>
       </c>
       <c r="F11" s="2">
@@ -2293,7 +2565,7 @@
       <c r="H11" s="2">
         <v>315.32299999999998</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="2">
         <v>290.85599999999999</v>
       </c>
       <c r="J11" s="2">
@@ -2305,7 +2577,7 @@
       <c r="L11" s="2">
         <v>379</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="2">
         <v>384</v>
       </c>
       <c r="N11" s="2">
@@ -2318,7 +2590,7 @@
       <c r="P11" s="2">
         <v>486</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="2">
         <v>403</v>
       </c>
       <c r="R11" s="2">
@@ -2331,7 +2603,7 @@
       <c r="T11" s="2">
         <v>573</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="2">
         <v>514</v>
       </c>
       <c r="V11" s="2">
@@ -2362,9 +2634,9 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:37">
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>91.762</v>
@@ -2373,7 +2645,7 @@
         <f>149.299+114.241</f>
         <v>263.54000000000002</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="2">
         <f>180.021+22.728</f>
         <v>202.749</v>
       </c>
@@ -2388,7 +2660,7 @@
       <c r="H12" s="2">
         <v>218.303</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="2">
         <f>210.748-0.465</f>
         <v>210.28299999999999</v>
       </c>
@@ -2403,7 +2675,7 @@
         <f>244+89</f>
         <v>333</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="2">
         <v>240</v>
       </c>
       <c r="N12" s="2">
@@ -2416,7 +2688,7 @@
       <c r="P12" s="2">
         <v>275</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="2">
         <v>304</v>
       </c>
       <c r="R12" s="2">
@@ -2429,7 +2701,7 @@
       <c r="T12" s="2">
         <v>315</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="2">
         <v>335</v>
       </c>
       <c r="V12" s="2">
@@ -2460,92 +2732,92 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:37">
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:W13" si="16">C7+C12+C11+C10+C9</f>
+        <f t="shared" ref="C13:W13" si="17">C7+C12+C11+C10+C9</f>
         <v>1167.319</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>917.98900000000003</v>
       </c>
-      <c r="E13" s="13">
-        <f t="shared" si="16"/>
+      <c r="E13" s="2">
+        <f t="shared" si="17"/>
         <v>923.59399999999994</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3959.4440000000004</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1333.8809999999999</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1385.912</v>
       </c>
-      <c r="I13" s="13">
-        <f t="shared" si="16"/>
+      <c r="I13" s="2">
+        <f t="shared" si="17"/>
         <v>1385.4589999999998</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1456.6289999999999</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1514</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1735</v>
       </c>
-      <c r="M13" s="13">
-        <f t="shared" si="16"/>
+      <c r="M13" s="2">
+        <f t="shared" si="17"/>
         <v>1681</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1667</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1823</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1961</v>
       </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="16"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="17"/>
         <v>1901</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2714</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2041</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2251</v>
       </c>
-      <c r="U13" s="13">
-        <f t="shared" si="16"/>
+      <c r="U13" s="2">
+        <f t="shared" si="17"/>
         <v>2207</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2050</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2234</v>
       </c>
       <c r="AA13" s="2">
@@ -2569,92 +2841,92 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:37">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:W14" si="17">C6-C13</f>
+        <f t="shared" ref="C14:W14" si="18">C6-C13</f>
         <v>-325.48899999999992</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-583.21500000000003</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" si="17"/>
+      <c r="E14" s="2">
+        <f t="shared" si="18"/>
         <v>418.73699999999997</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3100.1800000000003</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-446.94499999999982</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-50.912000000000035</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="17"/>
+      <c r="I14" s="2">
+        <f t="shared" si="18"/>
         <v>851.97299999999996</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>75.567000000000007</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>369</v>
       </c>
-      <c r="M14" s="13">
-        <f t="shared" si="17"/>
+      <c r="M14" s="2">
+        <f t="shared" si="18"/>
         <v>1203</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>235</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>523</v>
       </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="17"/>
+      <c r="Q14" s="2">
+        <f t="shared" si="18"/>
         <v>1496</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-496</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>101</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>497</v>
       </c>
-      <c r="U14" s="13">
-        <f t="shared" si="17"/>
+      <c r="U14" s="2">
+        <f t="shared" si="18"/>
         <v>1525</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="AA14" s="2">
@@ -2678,9 +2950,9 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:37">
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2">
         <f>13.649+1.51</f>
@@ -2690,7 +2962,7 @@
         <f>5.856-49.191</f>
         <v>-43.335000000000001</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="2">
         <f>4.325-59.143</f>
         <v>-54.817999999999998</v>
       </c>
@@ -2706,7 +2978,7 @@
         <f>2.942-6.52</f>
         <v>-3.5779999999999994</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="2">
         <f>2.962-6.649</f>
         <v>-3.6869999999999998</v>
       </c>
@@ -2721,7 +2993,7 @@
         <f>20-8</f>
         <v>12</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="2">
         <f>59-5</f>
         <v>54</v>
       </c>
@@ -2735,7 +3007,7 @@
       <c r="P15" s="2">
         <v>191</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="2">
         <v>192</v>
       </c>
       <c r="R15" s="2">
@@ -2748,7 +3020,7 @@
       <c r="T15" s="2">
         <v>226</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="2">
         <v>207</v>
       </c>
       <c r="V15" s="2">
@@ -2779,9 +3051,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:37">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
         <v>-46.76</v>
@@ -2789,7 +3061,7 @@
       <c r="D16" s="2">
         <v>-12.848000000000001</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="2">
         <v>-56.143000000000001</v>
       </c>
       <c r="F16" s="2">
@@ -2801,7 +3073,7 @@
       <c r="H16" s="2">
         <v>-2.1280000000000001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="2">
         <v>2.1720000000000002</v>
       </c>
       <c r="J16" s="2">
@@ -2813,7 +3085,7 @@
       <c r="L16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="2">
         <v>13</v>
       </c>
       <c r="N16" s="2">
@@ -2826,7 +3098,7 @@
       <c r="P16" s="2">
         <v>-38</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="2">
         <v>-9</v>
       </c>
       <c r="R16" s="2">
@@ -2839,7 +3111,7 @@
       <c r="T16" s="2">
         <v>-42</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="2">
         <v>3</v>
       </c>
       <c r="V16" s="2">
@@ -2862,100 +3134,100 @@
         <v>25</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(O16:R16)</f>
         <v>-137</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="14"/>
+        <f>SUM(S16:V16)</f>
         <v>-40</v>
       </c>
     </row>
-    <row r="17" spans="2:67">
+    <row r="17" spans="2:88">
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:W17" si="18">C14+C15+C16</f>
+        <f t="shared" ref="C17:Q17" si="19">C14+C15+C16</f>
         <v>-357.08999999999992</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-639.39800000000002</v>
       </c>
-      <c r="E17" s="13">
-        <f t="shared" si="18"/>
+      <c r="E17" s="2">
+        <f t="shared" si="19"/>
         <v>307.77599999999995</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3992.5020000000004</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1165.9019999999998</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-56.618000000000038</v>
       </c>
-      <c r="I17" s="13">
-        <f t="shared" si="18"/>
+      <c r="I17" s="2">
+        <f t="shared" si="19"/>
         <v>850.45799999999997</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>72.221000000000004</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-8</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>383</v>
       </c>
-      <c r="M17" s="13">
-        <f t="shared" si="18"/>
+      <c r="M17" s="2">
+        <f t="shared" si="19"/>
         <v>1270</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>344</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>676</v>
       </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="18"/>
+      <c r="Q17" s="2">
+        <f t="shared" si="19"/>
         <v>1679</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="R17:W17" si="20">R14+R15+R16</f>
         <v>-383</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>293</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>681</v>
       </c>
-      <c r="U17" s="13">
-        <f t="shared" si="18"/>
+      <c r="U17" s="2">
+        <f t="shared" si="20"/>
         <v>1735</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>622</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>173</v>
       </c>
       <c r="AA17" s="2">
@@ -2971,17 +3243,17 @@
         <v>1989</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(O17:R17)</f>
         <v>2102</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="14"/>
+        <f>SUM(S17:V17)</f>
         <v>3331</v>
       </c>
     </row>
-    <row r="18" spans="2:67">
+    <row r="18" spans="2:88">
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>-16.484999999999999</v>
@@ -2989,7 +3261,7 @@
       <c r="D18" s="2">
         <v>-63.81</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="2">
         <v>87.724000000000004</v>
       </c>
       <c r="F18" s="2">
@@ -3002,7 +3274,7 @@
       <c r="H18" s="2">
         <v>11.233000000000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="2">
         <v>16.565000000000001</v>
       </c>
       <c r="J18" s="2">
@@ -3014,7 +3286,7 @@
       <c r="L18" s="2">
         <v>4</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="2">
         <v>56</v>
       </c>
       <c r="N18" s="2">
@@ -3027,7 +3299,7 @@
       <c r="P18" s="2">
         <v>26</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="2">
         <v>-2695</v>
       </c>
       <c r="R18" s="2">
@@ -3040,7 +3312,7 @@
       <c r="T18" s="2">
         <v>126</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="2">
         <v>367</v>
       </c>
       <c r="V18" s="2">
@@ -3063,100 +3335,100 @@
         <v>96</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(O18:R18)</f>
         <v>-2690</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="14"/>
+        <f>SUM(S18:V18)</f>
         <v>683</v>
       </c>
     </row>
-    <row r="19" spans="2:67" s="8" customFormat="1">
+    <row r="19" spans="2:88" s="8" customFormat="1">
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:W19" si="19">C17-C18</f>
+        <f t="shared" ref="C19:Q19" si="21">C17-C18</f>
         <v>-340.6049999999999</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-575.58799999999997</v>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" si="19"/>
+      <c r="E19" s="8">
+        <f t="shared" si="21"/>
         <v>220.05199999999996</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-3887.8510000000006</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1172.2109999999998</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-67.851000000000042</v>
       </c>
-      <c r="I19" s="16">
-        <f t="shared" si="19"/>
+      <c r="I19" s="8">
+        <f t="shared" si="21"/>
         <v>833.89299999999992</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>54.501000000000005</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-19</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>379</v>
       </c>
-      <c r="M19" s="16">
-        <f t="shared" si="19"/>
+      <c r="M19" s="8">
+        <f t="shared" si="21"/>
         <v>1214</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>319</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>117</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>650</v>
       </c>
-      <c r="Q19" s="16">
-        <f t="shared" si="19"/>
+      <c r="Q19" s="8">
+        <f t="shared" si="21"/>
         <v>4374</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="R19:W19" si="22">R17-R18</f>
         <v>-349</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>264</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>555</v>
       </c>
-      <c r="U19" s="16">
-        <f t="shared" si="19"/>
+      <c r="U19" s="8">
+        <f t="shared" si="22"/>
         <v>1368</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>461</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>154</v>
       </c>
       <c r="AA19" s="8">
@@ -3172,159 +3444,243 @@
         <v>1893</v>
       </c>
       <c r="AD19" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(O19:R19)</f>
         <v>4792</v>
       </c>
       <c r="AE19" s="8">
-        <f t="shared" si="14"/>
+        <f>SUM(S19:V19)</f>
         <v>2648</v>
       </c>
       <c r="AF19" s="8">
-        <f>AE19*1.15</f>
+        <f>AF6*$AE$35</f>
         <v>3045.2</v>
       </c>
       <c r="AG19" s="8">
-        <f t="shared" ref="AG19:AK19" si="20">AF19*1.15</f>
+        <f t="shared" ref="AG19:AK19" si="23">AG6*$AE$35</f>
         <v>3501.9799999999996</v>
       </c>
       <c r="AH19" s="8">
-        <f t="shared" si="20"/>
-        <v>4027.2769999999991</v>
+        <f t="shared" si="23"/>
+        <v>4027.2769999999996</v>
       </c>
       <c r="AI19" s="8">
-        <f t="shared" si="20"/>
-        <v>4631.3685499999983</v>
+        <f t="shared" si="23"/>
+        <v>4631.3685499999992</v>
       </c>
       <c r="AJ19" s="8">
-        <f>AI19*1.15</f>
-        <v>5326.0738324999975</v>
+        <f t="shared" si="23"/>
+        <v>5326.0738324999984</v>
       </c>
       <c r="AK19" s="8">
-        <f t="shared" si="20"/>
-        <v>6124.9849073749965</v>
+        <f t="shared" si="23"/>
+        <v>6124.9849073749974</v>
       </c>
       <c r="AL19" s="8">
-        <f>AK19*(1+$AH$42)</f>
-        <v>6247.4846055224962</v>
+        <f t="shared" ref="AL19:BO19" si="24">AK19*(1+$AH$42)</f>
+        <v>6186.2347564487472</v>
       </c>
       <c r="AM19" s="8">
-        <f>AL19*(1+$AH$42)</f>
-        <v>6372.4342976329463</v>
+        <f t="shared" si="24"/>
+        <v>6248.0971040132345</v>
       </c>
       <c r="AN19" s="8">
-        <f>AM19*(1+$AH$42)</f>
-        <v>6499.882983585605</v>
+        <f t="shared" si="24"/>
+        <v>6310.5780750533668</v>
       </c>
       <c r="AO19" s="8">
-        <f>AN19*(1+$AH$42)</f>
-        <v>6629.8806432573174</v>
+        <f t="shared" si="24"/>
+        <v>6373.6838558039008</v>
       </c>
       <c r="AP19" s="8">
-        <f>AO19*(1+$AH$42)</f>
-        <v>6762.4782561224638</v>
+        <f t="shared" si="24"/>
+        <v>6437.4206943619401</v>
       </c>
       <c r="AQ19" s="8">
-        <f>AP19*(1+$AH$42)</f>
-        <v>6897.7278212449128</v>
+        <f t="shared" si="24"/>
+        <v>6501.7949013055595</v>
       </c>
       <c r="AR19" s="8">
-        <f>AQ19*(1+$AH$42)</f>
-        <v>7035.6823776698111</v>
+        <f t="shared" si="24"/>
+        <v>6566.8128503186153</v>
       </c>
       <c r="AS19" s="8">
-        <f>AR19*(1+$AH$42)</f>
-        <v>7176.3960252232073</v>
+        <f t="shared" si="24"/>
+        <v>6632.4809788218017</v>
       </c>
       <c r="AT19" s="8">
-        <f>AS19*(1+$AH$42)</f>
-        <v>7319.9239457276717</v>
+        <f t="shared" si="24"/>
+        <v>6698.8057886100196</v>
       </c>
       <c r="AU19" s="8">
-        <f>AT19*(1+$AH$42)</f>
-        <v>7466.3224246422251</v>
+        <f t="shared" si="24"/>
+        <v>6765.7938464961198</v>
       </c>
       <c r="AV19" s="8">
-        <f>AU19*(1+$AH$42)</f>
-        <v>7615.6488731350701</v>
+        <f t="shared" si="24"/>
+        <v>6833.4517849610811</v>
       </c>
       <c r="AW19" s="8">
-        <f>AV19*(1+$AH$42)</f>
-        <v>7767.9618505977714</v>
+        <f t="shared" si="24"/>
+        <v>6901.7863028106922</v>
       </c>
       <c r="AX19" s="8">
-        <f>AW19*(1+$AH$42)</f>
-        <v>7923.3210876097273</v>
+        <f t="shared" si="24"/>
+        <v>6970.8041658387992</v>
       </c>
       <c r="AY19" s="8">
-        <f>AX19*(1+$AH$42)</f>
-        <v>8081.7875093619223</v>
+        <f t="shared" si="24"/>
+        <v>7040.5122074971869</v>
       </c>
       <c r="AZ19" s="8">
-        <f>AY19*(1+$AH$42)</f>
-        <v>8243.4232595491612</v>
+        <f t="shared" si="24"/>
+        <v>7110.9173295721585</v>
       </c>
       <c r="BA19" s="8">
-        <f>AZ19*(1+$AH$42)</f>
-        <v>8408.2917247401438</v>
+        <f t="shared" si="24"/>
+        <v>7182.0265028678805</v>
       </c>
       <c r="BB19" s="8">
-        <f>BA19*(1+$AH$42)</f>
-        <v>8576.4575592349465</v>
+        <f t="shared" si="24"/>
+        <v>7253.846767896559</v>
       </c>
       <c r="BC19" s="8">
-        <f>BB19*(1+$AH$42)</f>
-        <v>8747.9867104196455</v>
+        <f t="shared" si="24"/>
+        <v>7326.3852355755243</v>
       </c>
       <c r="BD19" s="8">
-        <f>BC19*(1+$AH$42)</f>
-        <v>8922.9464446280381</v>
+        <f t="shared" si="24"/>
+        <v>7399.6490879312796</v>
       </c>
       <c r="BE19" s="8">
-        <f>BD19*(1+$AH$42)</f>
-        <v>9101.4053735205998</v>
+        <f t="shared" si="24"/>
+        <v>7473.6455788105923</v>
       </c>
       <c r="BF19" s="8">
-        <f>BE19*(1+$AH$42)</f>
-        <v>9283.4334809910124</v>
+        <f t="shared" si="24"/>
+        <v>7548.3820345986978</v>
       </c>
       <c r="BG19" s="8">
-        <f>BF19*(1+$AH$42)</f>
-        <v>9469.1021506108336</v>
+        <f t="shared" si="24"/>
+        <v>7623.8658549446845</v>
       </c>
       <c r="BH19" s="8">
-        <f>BG19*(1+$AH$42)</f>
-        <v>9658.4841936230496</v>
+        <f t="shared" si="24"/>
+        <v>7700.1045134941314</v>
       </c>
       <c r="BI19" s="8">
-        <f>BH19*(1+$AH$42)</f>
-        <v>9851.6538774955116</v>
+        <f t="shared" si="24"/>
+        <v>7777.1055586290731</v>
       </c>
       <c r="BJ19" s="8">
-        <f>BI19*(1+$AH$42)</f>
-        <v>10048.686955045421</v>
+        <f t="shared" si="24"/>
+        <v>7854.8766142153636</v>
       </c>
       <c r="BK19" s="8">
-        <f>BJ19*(1+$AH$42)</f>
-        <v>10249.660694146331</v>
+        <f t="shared" si="24"/>
+        <v>7933.4253803575175</v>
       </c>
       <c r="BL19" s="8">
-        <f>BK19*(1+$AH$42)</f>
-        <v>10454.653908029257</v>
+        <f t="shared" si="24"/>
+        <v>8012.7596341610924</v>
       </c>
       <c r="BM19" s="8">
-        <f>BL19*(1+$AH$42)</f>
-        <v>10663.746986189843</v>
+        <f t="shared" si="24"/>
+        <v>8092.8872305027035</v>
       </c>
       <c r="BN19" s="8">
-        <f>BM19*(1+$AH$42)</f>
-        <v>10877.021925913639</v>
+        <f t="shared" si="24"/>
+        <v>8173.8161028077302</v>
       </c>
       <c r="BO19" s="8">
-        <f>BN19*(1+$AH$42)</f>
-        <v>11094.562364431913</v>
-      </c>
-    </row>
-    <row r="20" spans="2:67">
+        <f t="shared" si="24"/>
+        <v>8255.5542638358074</v>
+      </c>
+      <c r="BP19" s="8">
+        <f t="shared" ref="BP19" si="25">BO19*(1+$AH$42)</f>
+        <v>8338.1098064741655</v>
+      </c>
+      <c r="BQ19" s="8">
+        <f t="shared" ref="BQ19" si="26">BP19*(1+$AH$42)</f>
+        <v>8421.4909045389068</v>
+      </c>
+      <c r="BR19" s="8">
+        <f t="shared" ref="BR19" si="27">BQ19*(1+$AH$42)</f>
+        <v>8505.7058135842963</v>
+      </c>
+      <c r="BS19" s="8">
+        <f t="shared" ref="BS19" si="28">BR19*(1+$AH$42)</f>
+        <v>8590.7628717201387</v>
+      </c>
+      <c r="BT19" s="8">
+        <f t="shared" ref="BT19" si="29">BS19*(1+$AH$42)</f>
+        <v>8676.6705004373398</v>
+      </c>
+      <c r="BU19" s="8">
+        <f t="shared" ref="BU19" si="30">BT19*(1+$AH$42)</f>
+        <v>8763.4372054417126</v>
+      </c>
+      <c r="BV19" s="8">
+        <f t="shared" ref="BV19" si="31">BU19*(1+$AH$42)</f>
+        <v>8851.07157749613</v>
+      </c>
+      <c r="BW19" s="8">
+        <f t="shared" ref="BW19" si="32">BV19*(1+$AH$42)</f>
+        <v>8939.5822932710907</v>
+      </c>
+      <c r="BX19" s="8">
+        <f t="shared" ref="BX19" si="33">BW19*(1+$AH$42)</f>
+        <v>9028.9781162038016</v>
+      </c>
+      <c r="BY19" s="8">
+        <f t="shared" ref="BY19" si="34">BX19*(1+$AH$42)</f>
+        <v>9119.2678973658403</v>
+      </c>
+      <c r="BZ19" s="8">
+        <f t="shared" ref="BZ19" si="35">BY19*(1+$AH$42)</f>
+        <v>9210.4605763394993</v>
+      </c>
+      <c r="CA19" s="8">
+        <f t="shared" ref="CA19" si="36">BZ19*(1+$AH$42)</f>
+        <v>9302.5651821028951</v>
+      </c>
+      <c r="CB19" s="8">
+        <f t="shared" ref="CB19" si="37">CA19*(1+$AH$42)</f>
+        <v>9395.5908339239249</v>
+      </c>
+      <c r="CC19" s="8">
+        <f t="shared" ref="CC19" si="38">CB19*(1+$AH$42)</f>
+        <v>9489.5467422631646</v>
+      </c>
+      <c r="CD19" s="8">
+        <f t="shared" ref="CD19" si="39">CC19*(1+$AH$42)</f>
+        <v>9584.4422096857961</v>
+      </c>
+      <c r="CE19" s="8">
+        <f t="shared" ref="CE19" si="40">CD19*(1+$AH$42)</f>
+        <v>9680.2866317826538</v>
+      </c>
+      <c r="CF19" s="8">
+        <f t="shared" ref="CF19" si="41">CE19*(1+$AH$42)</f>
+        <v>9777.0894981004803</v>
+      </c>
+      <c r="CG19" s="8">
+        <f t="shared" ref="CG19" si="42">CF19*(1+$AH$42)</f>
+        <v>9874.8603930814861</v>
+      </c>
+      <c r="CH19" s="8">
+        <f t="shared" ref="CH19" si="43">CG19*(1+$AH$42)</f>
+        <v>9973.6089970123012</v>
+      </c>
+      <c r="CI19" s="8">
+        <f t="shared" ref="CI19" si="44">CH19*(1+$AH$42)</f>
+        <v>10073.345086982425</v>
+      </c>
+      <c r="CJ19" s="8">
+        <f t="shared" ref="CJ19" si="45">CI19*(1+$AH$42)</f>
+        <v>10174.078537852249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:88">
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3690,7 @@
       <c r="D20" s="2">
         <v>263.517</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="2">
         <v>299.20600000000002</v>
       </c>
       <c r="F20" s="2">
@@ -3346,7 +3702,7 @@
       <c r="H20" s="2">
         <v>611.73900000000003</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="2">
         <v>681.91600000000005</v>
       </c>
       <c r="J20" s="2">
@@ -3358,7 +3714,7 @@
       <c r="L20" s="2">
         <v>684</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="2">
         <v>683</v>
       </c>
       <c r="N20" s="2">
@@ -3370,7 +3726,7 @@
       <c r="P20" s="2">
         <v>665</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="2">
         <v>660</v>
       </c>
       <c r="R20" s="2">
@@ -3382,7 +3738,7 @@
       <c r="T20" s="2">
         <v>649</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="2">
         <v>642</v>
       </c>
       <c r="V20" s="2">
@@ -3408,9 +3764,9 @@
       </c>
       <c r="AM20" s="8"/>
     </row>
-    <row r="22" spans="2:67">
+    <row r="22" spans="2:88">
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2">
         <v>-562.9</v>
@@ -3418,7 +3774,7 @@
       <c r="D22" s="2">
         <v>-256.89999999999998</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="2">
         <v>338.3</v>
       </c>
       <c r="F22" s="2">
@@ -3430,7 +3786,7 @@
       <c r="H22" s="2">
         <v>790</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="2">
         <v>527.79999999999995</v>
       </c>
       <c r="J22" s="2">
@@ -3442,7 +3798,7 @@
       <c r="L22" s="2">
         <v>800</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="2">
         <v>965</v>
       </c>
       <c r="N22" s="2">
@@ -3454,7 +3810,7 @@
       <c r="P22" s="2">
         <v>909</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="2">
         <v>1325</v>
       </c>
       <c r="R22" s="2">
@@ -3466,7 +3822,7 @@
       <c r="T22" s="2">
         <v>1051</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="2">
         <v>1078</v>
       </c>
       <c r="V22" s="2">
@@ -3496,9 +3852,9 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="23" spans="2:67">
+    <row r="23" spans="2:88">
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>15.7</v>
@@ -3506,7 +3862,7 @@
       <c r="D23" s="2">
         <v>6.2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="2">
         <v>7.6</v>
       </c>
       <c r="F23" s="2">
@@ -3518,7 +3874,7 @@
       <c r="H23" s="2">
         <v>7.6</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="2">
         <v>5.6</v>
       </c>
       <c r="J23" s="2">
@@ -3530,7 +3886,7 @@
       <c r="L23" s="2">
         <v>5</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="2">
         <v>6</v>
       </c>
       <c r="N23" s="2">
@@ -3542,7 +3898,7 @@
       <c r="P23" s="2">
         <v>9</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="2">
         <v>15</v>
       </c>
       <c r="R23" s="2">
@@ -3554,7 +3910,7 @@
       <c r="T23" s="2">
         <v>8</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="2">
         <v>4</v>
       </c>
       <c r="V23" s="2">
@@ -3564,132 +3920,132 @@
         <v>8</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AA24" si="21">SUM(C23:F23)</f>
+        <f t="shared" ref="AA23:AA24" si="46">SUM(C23:F23)</f>
         <v>37.4</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AB24" si="22">SUM(G23:J23)</f>
+        <f t="shared" ref="AB23:AB24" si="47">SUM(G23:J23)</f>
         <v>25.299999999999997</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" ref="AC23:AC24" si="23">SUM(K23:N23)</f>
+        <f t="shared" ref="AC23:AC24" si="48">SUM(K23:N23)</f>
         <v>25</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" ref="AD23:AD24" si="24">SUM(O23:R23)</f>
+        <f>SUM(O23:R23)</f>
         <v>47</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" ref="AE23:AE24" si="25">SUM(S23:V23)</f>
+        <f>SUM(S23:V23)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:67" s="8" customFormat="1">
+    <row r="24" spans="2:88" s="8" customFormat="1">
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8">
         <f>C22-C23</f>
         <v>-578.6</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:W24" si="26">D22-D23</f>
+        <f t="shared" ref="D24:N24" si="49">D22-D23</f>
         <v>-263.09999999999997</v>
       </c>
-      <c r="E24" s="16">
-        <f t="shared" si="26"/>
+      <c r="E24" s="8">
+        <f t="shared" si="49"/>
         <v>330.7</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>-272.5</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>610.29999999999995</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>782.4</v>
       </c>
-      <c r="I24" s="16">
-        <f t="shared" si="26"/>
+      <c r="I24" s="8">
+        <f t="shared" si="49"/>
         <v>522.19999999999993</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>377.6</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>1196</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>795</v>
       </c>
-      <c r="M24" s="16">
-        <f t="shared" si="26"/>
+      <c r="M24" s="8">
+        <f t="shared" si="49"/>
         <v>959</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>455</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="O24:W24" si="50">O22-O23</f>
         <v>1581</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>900</v>
       </c>
-      <c r="Q24" s="16">
-        <f t="shared" si="26"/>
+      <c r="Q24" s="8">
+        <f t="shared" si="50"/>
         <v>1310</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>46</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>1909</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>1043</v>
       </c>
-      <c r="U24" s="16">
-        <f t="shared" si="26"/>
+      <c r="U24" s="8">
+        <f t="shared" si="50"/>
         <v>1074</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>458</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>1781</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>-783.5</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2292.4999999999995</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>3405</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="24"/>
+        <f>SUM(O24:R24)</f>
         <v>3837</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="25"/>
+        <f>SUM(S24:V24)</f>
         <v>4484</v>
       </c>
       <c r="AF24" s="8">
@@ -3697,227 +4053,390 @@
         <v>5156.5999999999995</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" ref="AG24:AJ24" si="27">AF24*1.15</f>
+        <f t="shared" ref="AG24:AK24" si="51">AF24*1.15</f>
         <v>5930.0899999999992</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>6819.6034999999983</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>7842.5440249999974</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>9018.9256287499957</v>
       </c>
       <c r="AK24" s="8">
-        <f>AJ24*(1+$AK$42)</f>
-        <v>9199.3041413249957</v>
+        <f t="shared" si="51"/>
+        <v>10371.764473062494</v>
       </c>
       <c r="AL24" s="8">
-        <f>AK24*(1+$AK$42)</f>
-        <v>9383.2902241514967</v>
+        <f t="shared" ref="AK24:AU24" si="52">AK24*(1+$AK$42)</f>
+        <v>10268.04682833187</v>
       </c>
       <c r="AM24" s="8">
-        <f>AL24*(1+$AK$42)</f>
-        <v>9570.9560286345259</v>
+        <f t="shared" si="52"/>
+        <v>10165.366360048551</v>
       </c>
       <c r="AN24" s="8">
-        <f>AM24*(1+$AK$42)</f>
-        <v>9762.375149207217</v>
+        <f t="shared" si="52"/>
+        <v>10063.712696448065</v>
       </c>
       <c r="AO24" s="8">
-        <f>AN24*(1+$AK$42)</f>
-        <v>9957.6226521913613</v>
+        <f t="shared" si="52"/>
+        <v>9963.0755694835843</v>
       </c>
       <c r="AP24" s="8">
-        <f>AO24*(1+$AK$42)</f>
-        <v>10156.775105235189</v>
+        <f t="shared" si="52"/>
+        <v>9863.4448137887484</v>
       </c>
       <c r="AQ24" s="8">
-        <f>AP24*(1+$AK$42)</f>
-        <v>10359.910607339893</v>
+        <f t="shared" si="52"/>
+        <v>9764.8103656508611</v>
       </c>
       <c r="AR24" s="8">
-        <f>AQ24*(1+$AK$42)</f>
-        <v>10567.10881948669</v>
+        <f t="shared" si="52"/>
+        <v>9667.1622619943519</v>
       </c>
       <c r="AS24" s="8">
-        <f>AR24*(1+$AK$42)</f>
-        <v>10778.450995876423</v>
+        <f t="shared" si="52"/>
+        <v>9570.4906393744077</v>
       </c>
       <c r="AT24" s="8">
-        <f>AS24*(1+$AK$42)</f>
-        <v>10994.020015793951</v>
+        <f t="shared" si="52"/>
+        <v>9474.7857329806629</v>
       </c>
       <c r="AU24" s="8">
-        <f>AT24*(1+$AK$42)</f>
-        <v>11213.900416109829</v>
-      </c>
-    </row>
-    <row r="26" spans="2:67" s="8" customFormat="1">
+        <f t="shared" si="52"/>
+        <v>9380.0378756508562</v>
+      </c>
+      <c r="AV24" s="8">
+        <f t="shared" ref="AV24" si="53">AU24*(1+$AK$42)</f>
+        <v>9286.2374968943477</v>
+      </c>
+      <c r="AW24" s="8">
+        <f t="shared" ref="AW24" si="54">AV24*(1+$AK$42)</f>
+        <v>9193.3751219254045</v>
+      </c>
+      <c r="AX24" s="8">
+        <f t="shared" ref="AX24" si="55">AW24*(1+$AK$42)</f>
+        <v>9101.4413707061503</v>
+      </c>
+      <c r="AY24" s="8">
+        <f t="shared" ref="AY24" si="56">AX24*(1+$AK$42)</f>
+        <v>9010.4269569990884</v>
+      </c>
+      <c r="AZ24" s="8">
+        <f t="shared" ref="AZ24" si="57">AY24*(1+$AK$42)</f>
+        <v>8920.3226874290976</v>
+      </c>
+      <c r="BA24" s="8">
+        <f t="shared" ref="BA24" si="58">AZ24*(1+$AK$42)</f>
+        <v>8831.1194605548062</v>
+      </c>
+      <c r="BB24" s="8">
+        <f t="shared" ref="BB24" si="59">BA24*(1+$AK$42)</f>
+        <v>8742.8082659492575</v>
+      </c>
+      <c r="BC24" s="8">
+        <f t="shared" ref="BC24" si="60">BB24*(1+$AK$42)</f>
+        <v>8655.3801832897643</v>
+      </c>
+      <c r="BD24" s="8">
+        <f t="shared" ref="BD24" si="61">BC24*(1+$AK$42)</f>
+        <v>8568.8263814568672</v>
+      </c>
+      <c r="BE24" s="8">
+        <f t="shared" ref="BE24" si="62">BD24*(1+$AK$42)</f>
+        <v>8483.1381176422983</v>
+      </c>
+      <c r="BF24" s="8">
+        <f t="shared" ref="BF24" si="63">BE24*(1+$AK$42)</f>
+        <v>8398.3067364658746</v>
+      </c>
+      <c r="BG24" s="8">
+        <f t="shared" ref="BG24" si="64">BF24*(1+$AK$42)</f>
+        <v>8314.3236691012153</v>
+      </c>
+      <c r="BH24" s="8">
+        <f t="shared" ref="BH24" si="65">BG24*(1+$AK$42)</f>
+        <v>8231.1804324102031</v>
+      </c>
+      <c r="BI24" s="8">
+        <f t="shared" ref="BI24" si="66">BH24*(1+$AK$42)</f>
+        <v>8148.8686280861011</v>
+      </c>
+      <c r="BJ24" s="8">
+        <f t="shared" ref="BJ24" si="67">BI24*(1+$AK$42)</f>
+        <v>8067.3799418052404</v>
+      </c>
+      <c r="BK24" s="8">
+        <f t="shared" ref="BK24" si="68">BJ24*(1+$AK$42)</f>
+        <v>7986.7061423871883</v>
+      </c>
+      <c r="BL24" s="8">
+        <f t="shared" ref="BL24" si="69">BK24*(1+$AK$42)</f>
+        <v>7906.8390809633165</v>
+      </c>
+      <c r="BM24" s="8">
+        <f t="shared" ref="BM24" si="70">BL24*(1+$AK$42)</f>
+        <v>7827.7706901536831</v>
+      </c>
+      <c r="BN24" s="8">
+        <f t="shared" ref="BN24" si="71">BM24*(1+$AK$42)</f>
+        <v>7749.4929832521466</v>
+      </c>
+      <c r="BO24" s="8">
+        <f t="shared" ref="BO24" si="72">BN24*(1+$AK$42)</f>
+        <v>7671.9980534196247</v>
+      </c>
+      <c r="BP24" s="8">
+        <f t="shared" ref="BP24" si="73">BO24*(1+$AK$42)</f>
+        <v>7595.2780728854286</v>
+      </c>
+      <c r="BQ24" s="8">
+        <f t="shared" ref="BQ24" si="74">BP24*(1+$AK$42)</f>
+        <v>7519.3252921565745</v>
+      </c>
+      <c r="BR24" s="8">
+        <f t="shared" ref="BR24" si="75">BQ24*(1+$AK$42)</f>
+        <v>7444.132039235009</v>
+      </c>
+      <c r="BS24" s="8">
+        <f t="shared" ref="BS24" si="76">BR24*(1+$AK$42)</f>
+        <v>7369.6907188426585</v>
+      </c>
+      <c r="BT24" s="8">
+        <f t="shared" ref="BT24" si="77">BS24*(1+$AK$42)</f>
+        <v>7295.9938116542316</v>
+      </c>
+      <c r="BU24" s="8">
+        <f t="shared" ref="BU24" si="78">BT24*(1+$AK$42)</f>
+        <v>7223.033873537689</v>
+      </c>
+      <c r="BV24" s="8">
+        <f t="shared" ref="BV24" si="79">BU24*(1+$AK$42)</f>
+        <v>7150.8035348023122</v>
+      </c>
+      <c r="BW24" s="8">
+        <f t="shared" ref="BW24" si="80">BV24*(1+$AK$42)</f>
+        <v>7079.2954994542888</v>
+      </c>
+      <c r="BX24" s="8">
+        <f t="shared" ref="BX24" si="81">BW24*(1+$AK$42)</f>
+        <v>7008.5025444597459</v>
+      </c>
+      <c r="BY24" s="8">
+        <f t="shared" ref="BY24" si="82">BX24*(1+$AK$42)</f>
+        <v>6938.4175190151482</v>
+      </c>
+      <c r="BZ24" s="8">
+        <f t="shared" ref="BZ24" si="83">BY24*(1+$AK$42)</f>
+        <v>6869.0333438249963</v>
+      </c>
+      <c r="CA24" s="8">
+        <f t="shared" ref="CA24" si="84">BZ24*(1+$AK$42)</f>
+        <v>6800.3430103867468</v>
+      </c>
+      <c r="CB24" s="8">
+        <f t="shared" ref="CB24" si="85">CA24*(1+$AK$42)</f>
+        <v>6732.3395802828791</v>
+      </c>
+      <c r="CC24" s="8">
+        <f t="shared" ref="CC24" si="86">CB24*(1+$AK$42)</f>
+        <v>6665.0161844800505</v>
+      </c>
+      <c r="CD24" s="8">
+        <f t="shared" ref="CD24" si="87">CC24*(1+$AK$42)</f>
+        <v>6598.3660226352495</v>
+      </c>
+      <c r="CE24" s="8">
+        <f t="shared" ref="CE24" si="88">CD24*(1+$AK$42)</f>
+        <v>6532.3823624088973</v>
+      </c>
+      <c r="CF24" s="8">
+        <f t="shared" ref="CF24" si="89">CE24*(1+$AK$42)</f>
+        <v>6467.0585387848087</v>
+      </c>
+      <c r="CG24" s="8">
+        <f t="shared" ref="CG24" si="90">CF24*(1+$AK$42)</f>
+        <v>6402.3879533969603</v>
+      </c>
+      <c r="CH24" s="8">
+        <f t="shared" ref="CH24" si="91">CG24*(1+$AK$42)</f>
+        <v>6338.3640738629902</v>
+      </c>
+      <c r="CI24" s="8">
+        <f t="shared" ref="CI24" si="92">CH24*(1+$AK$42)</f>
+        <v>6274.9804331243604</v>
+      </c>
+      <c r="CJ24" s="8">
+        <f t="shared" ref="CJ24" si="93">CI24*(1+$AK$42)</f>
+        <v>6212.2306287931169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:88" s="8" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="G26" s="19">
-        <f t="shared" ref="G26:H26" si="28">(G6-C6)/C6</f>
+        <v>66</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" ref="G26:H26" si="94">(G6-C6)/C6</f>
         <v>5.358088925317462E-2</v>
       </c>
-      <c r="H26" s="19">
-        <f t="shared" si="28"/>
+      <c r="H26" s="13">
+        <f t="shared" si="94"/>
         <v>2.9877648801878283</v>
       </c>
-      <c r="I26" s="20">
-        <f t="shared" ref="I26" si="29">(I6-E6)/E6</f>
+      <c r="I26" s="13">
+        <f t="shared" ref="I26" si="95">(I6-E6)/E6</f>
         <v>0.66682584250829335</v>
       </c>
-      <c r="J26" s="19">
-        <f t="shared" ref="J26" si="30">(J6-F6)/F6</f>
+      <c r="J26" s="13">
+        <f t="shared" ref="J26" si="96">(J6-F6)/F6</f>
         <v>0.78314929986593163</v>
       </c>
-      <c r="K26" s="19">
-        <f t="shared" ref="K26" si="31">(K6-G6)/G6</f>
+      <c r="K26" s="13">
+        <f t="shared" ref="K26" si="97">(K6-G6)/G6</f>
         <v>0.70136289427873033</v>
       </c>
-      <c r="L26" s="19">
-        <f t="shared" ref="L26" si="32">(L6-H6)/H6</f>
+      <c r="L26" s="13">
+        <f t="shared" ref="L26" si="98">(L6-H6)/H6</f>
         <v>0.57602996254681649</v>
       </c>
-      <c r="M26" s="20">
-        <f t="shared" ref="M26" si="33">(M6-I6)/I6</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26" si="99">(M6-I6)/I6</f>
         <v>0.28897772088716006</v>
       </c>
-      <c r="N26" s="19">
-        <f t="shared" ref="N26" si="34">(N6-J6)/J6</f>
+      <c r="N26" s="13">
+        <f t="shared" ref="N26" si="100">(N6-J6)/J6</f>
         <v>0.24135554459090097</v>
       </c>
-      <c r="O26" s="19">
-        <f t="shared" ref="O26" si="35">(O6-K6)/K6</f>
+      <c r="O26" s="13">
+        <f t="shared" ref="O26" si="101">(O6-K6)/K6</f>
         <v>0.2047713717693837</v>
       </c>
-      <c r="P26" s="19">
-        <f t="shared" ref="P26" si="36">(P6-L6)/L6</f>
+      <c r="P26" s="13">
+        <f t="shared" ref="P26" si="102">(P6-L6)/L6</f>
         <v>0.1806083650190114</v>
       </c>
-      <c r="Q26" s="20">
-        <f t="shared" ref="Q26:V26" si="37">(Q6-M6)/M6</f>
+      <c r="Q26" s="13">
+        <f t="shared" ref="Q26" si="103">(Q6-M6)/M6</f>
         <v>0.17787794729542303</v>
       </c>
-      <c r="R26" s="19">
-        <f t="shared" si="37"/>
+      <c r="R26" s="13">
+        <f t="shared" ref="R26:W26" si="104">(R6-N6)/N6</f>
         <v>0.16614090431125131</v>
       </c>
-      <c r="S26" s="19">
-        <f t="shared" si="37"/>
+      <c r="S26" s="13">
+        <f t="shared" si="104"/>
         <v>0.17821782178217821</v>
       </c>
-      <c r="T26" s="19">
-        <f t="shared" si="37"/>
+      <c r="T26" s="13">
+        <f t="shared" si="104"/>
         <v>0.10628019323671498</v>
       </c>
-      <c r="U26" s="20">
-        <f t="shared" si="37"/>
+      <c r="U26" s="13">
+        <f t="shared" si="104"/>
         <v>9.8616426258463355E-2</v>
       </c>
-      <c r="V26" s="19">
-        <f t="shared" si="37"/>
+      <c r="V26" s="13">
+        <f t="shared" si="104"/>
         <v>0.11812443642921551</v>
       </c>
-      <c r="W26" s="19">
-        <f>(W6-S6)/S6</f>
+      <c r="W26" s="13">
+        <f t="shared" si="104"/>
         <v>6.069094304388422E-2</v>
       </c>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19">
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13">
         <f>(AB6-AA6)/AA6</f>
         <v>0.77359711491241345</v>
       </c>
-      <c r="AC26" s="19">
-        <f t="shared" ref="AC26:AE26" si="38">(AC6-AB6)/AB6</f>
+      <c r="AC26" s="13">
+        <f t="shared" ref="AC26:AE26" si="105">(AC6-AB6)/AB6</f>
         <v>0.40180427013714609</v>
       </c>
-      <c r="AD26" s="19">
-        <f t="shared" si="38"/>
+      <c r="AD26" s="13">
+        <f t="shared" si="105"/>
         <v>0.18073580188117633</v>
       </c>
-      <c r="AE26" s="19">
-        <f t="shared" si="38"/>
+      <c r="AE26" s="13">
+        <f t="shared" si="105"/>
         <v>0.11949178178884744</v>
       </c>
     </row>
-    <row r="27" spans="2:67">
+    <row r="27" spans="2:88">
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:H27" si="39">(G19-C19)/C19</f>
+        <f t="shared" ref="G27:H27" si="106">(G19-C19)/C19</f>
         <v>2.4415554674769897</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="106"/>
         <v>-0.88211880720237379</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" ref="I27" si="40">(I19-E19)/E19</f>
+      <c r="I27" s="6">
+        <f t="shared" ref="I27" si="107">(I19-E19)/E19</f>
         <v>2.7895270208859726</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ref="J27" si="41">(J19-F19)/F19</f>
+        <f t="shared" ref="J27" si="108">(J19-F19)/F19</f>
         <v>-1.0140182841369179</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ref="K27" si="42">(K19-G19)/G19</f>
+        <f t="shared" ref="K27" si="109">(K19-G19)/G19</f>
         <v>-0.98379131402111053</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27" si="43">(L19-H19)/H19</f>
+        <f t="shared" ref="L27" si="110">(L19-H19)/H19</f>
         <v>-6.5857688169665849</v>
       </c>
-      <c r="M27" s="17">
-        <f t="shared" ref="M27" si="44">(M19-I19)/I19</f>
+      <c r="M27" s="6">
+        <f t="shared" ref="M27" si="111">(M19-I19)/I19</f>
         <v>0.45582226976362689</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" ref="N27" si="45">(N19-J19)/J19</f>
+        <f t="shared" ref="N27" si="112">(N19-J19)/J19</f>
         <v>4.8531036127777476</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27" si="46">(O19-K19)/K19</f>
+        <f t="shared" ref="O27" si="113">(O19-K19)/K19</f>
         <v>-7.1578947368421053</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27" si="47">(P19-L19)/L19</f>
+        <f t="shared" ref="P27" si="114">(P19-L19)/L19</f>
         <v>0.71503957783641159</v>
       </c>
-      <c r="Q27" s="17">
-        <f t="shared" ref="Q27:V27" si="48">(Q19-M19)/M19</f>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27" si="115">(Q19-M19)/M19</f>
         <v>2.6029654036243821</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="R27:W27" si="116">(R19-N19)/N19</f>
         <v>-2.0940438871473352</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="116"/>
         <v>1.2564102564102564</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="116"/>
         <v>-0.14615384615384616</v>
       </c>
-      <c r="U27" s="17">
-        <f t="shared" si="48"/>
+      <c r="U27" s="6">
+        <f t="shared" si="116"/>
         <v>-0.68724279835390945</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="116"/>
         <v>-2.3209169054441259</v>
       </c>
       <c r="W27" s="6">
-        <f>(W19-S19)/S19</f>
+        <f t="shared" si="116"/>
         <v>-0.41666666666666669</v>
       </c>
       <c r="AA27" s="6"/>
@@ -3926,108 +4445,108 @@
         <v>-0.92328346122768112</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" ref="AC27:AE27" si="49">(AC19-AB19)/AB19</f>
+        <f t="shared" ref="AC27:AE27" si="117">(AC19-AB19)/AB19</f>
         <v>-6.3829179794578979</v>
       </c>
       <c r="AD27" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="117"/>
         <v>1.5314315900686741</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="117"/>
         <v>-0.44741235392320533</v>
       </c>
     </row>
-    <row r="28" spans="2:67">
+    <row r="28" spans="2:88">
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="17"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" spans="2:67">
+    <row r="29" spans="2:88">
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:H31" si="50">(G3-C3)/C3</f>
+        <f t="shared" ref="G29:H31" si="118">(G3-C3)/C3</f>
         <v>0.12784588441331005</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="118"/>
         <v>1.9678571428571427</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" ref="I29:I31" si="51">(I3-E3)/E3</f>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I31" si="119">(I3-E3)/E3</f>
         <v>0.2928802588996765</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:J31" si="52">(J3-F3)/F3</f>
+        <f t="shared" ref="J29:J31" si="120">(J3-F3)/F3</f>
         <v>0.58531317494600454</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ref="K29:K31" si="53">(K3-G3)/G3</f>
+        <f t="shared" ref="K29:K31" si="121">(K3-G3)/G3</f>
         <v>0.58540372670807428</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ref="L29:L31" si="54">(L3-H3)/H3</f>
+        <f t="shared" ref="L29:L31" si="122">(L3-H3)/H3</f>
         <v>0.24789410348977148</v>
       </c>
-      <c r="M29" s="17">
-        <f t="shared" ref="M29:M31" si="55">(M3-I3)/I3</f>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29:M31" si="123">(M3-I3)/I3</f>
         <v>0.24780976220275339</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ref="N29:N31" si="56">(N3-J3)/J3</f>
+        <f t="shared" ref="N29:N31" si="124">(N3-J3)/J3</f>
         <v>0.20163487738419614</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" ref="O29:O31" si="57">(O3-K3)/K3</f>
+        <f t="shared" ref="O29:O31" si="125">(O3-K3)/K3</f>
         <v>0.1860920666013712</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ref="P29:P31" si="58">(P3-L3)/L3</f>
+        <f t="shared" ref="P29:P31" si="126">(P3-L3)/L3</f>
         <v>0.10993249758919953</v>
       </c>
-      <c r="Q29" s="17">
-        <f t="shared" ref="Q29:Q31" si="59">(Q3-M3)/M3</f>
+      <c r="Q29" s="6">
+        <f t="shared" ref="Q29:Q31" si="127">(Q3-M3)/M3</f>
         <v>0.13540621865596789</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:R31" si="60">(R3-N3)/N3</f>
+        <f t="shared" ref="R29:R31" si="128">(R3-N3)/N3</f>
         <v>0.12018140589569154</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" ref="S29:S31" si="61">(S3-O3)/O3</f>
+        <f t="shared" ref="S29:S31" si="129">(S3-O3)/O3</f>
         <v>9.4962840627580522E-2</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" ref="T29:T31" si="62">(T3-P3)/P3</f>
+        <f t="shared" ref="T29:T31" si="130">(T3-P3)/P3</f>
         <v>8.6880973066898348E-2</v>
       </c>
-      <c r="U29" s="17">
-        <f t="shared" ref="U29:U31" si="63">(U3-Q3)/Q3</f>
+      <c r="U29" s="6">
+        <f t="shared" ref="U29:U31" si="131">(U3-Q3)/Q3</f>
         <v>0.10512367491166071</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29:V31" si="64">(V3-R3)/R3</f>
+        <f t="shared" ref="V29:V31" si="132">(V3-R3)/R3</f>
         <v>0.24291497975708504</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" ref="W29" si="65">(W3-S3)/S3</f>
+        <f t="shared" ref="W29" si="133">(W3-S3)/S3</f>
         <v>-0.16289592760180993</v>
       </c>
       <c r="AA29" s="6"/>
@@ -4036,179 +4555,178 @@
         <v>0.55693581780538315</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" ref="AC29:AE29" si="66">(AC3-AB3)/AB3</f>
+        <f t="shared" ref="AC29:AE29" si="134">(AC3-AB3)/AB3</f>
         <v>0.30884308510638286</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="134"/>
         <v>0.13843027686055373</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="134"/>
         <v>0.12806782686300755</v>
       </c>
     </row>
-    <row r="30" spans="2:67" s="8" customFormat="1">
+    <row r="30" spans="2:88" s="8" customFormat="1">
       <c r="B30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="G30" s="19">
-        <f t="shared" si="50"/>
+        <v>72</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="118"/>
         <v>0.52069169376293234</v>
       </c>
-      <c r="H30" s="19">
-        <f t="shared" si="50"/>
+      <c r="H30" s="13">
+        <f t="shared" si="118"/>
         <v>3.1875</v>
       </c>
-      <c r="I30" s="20">
-        <f t="shared" si="51"/>
+      <c r="I30" s="13">
+        <f t="shared" si="119"/>
         <v>0.48749999999999999</v>
       </c>
-      <c r="J30" s="19">
-        <f t="shared" si="52"/>
+      <c r="J30" s="13">
+        <f t="shared" si="120"/>
         <v>0.91067796610169494</v>
       </c>
-      <c r="K30" s="19">
-        <f t="shared" si="53"/>
+      <c r="K30" s="13">
+        <f t="shared" si="121"/>
         <v>0.67168821071046747</v>
       </c>
-      <c r="L30" s="19">
-        <f t="shared" si="54"/>
+      <c r="L30" s="13">
+        <f t="shared" si="122"/>
         <v>0.26119402985074625</v>
       </c>
-      <c r="M30" s="20">
-        <f t="shared" si="55"/>
+      <c r="M30" s="13">
+        <f t="shared" si="123"/>
         <v>0.31092436974789917</v>
       </c>
-      <c r="N30" s="19">
-        <f t="shared" si="56"/>
+      <c r="N30" s="13">
+        <f t="shared" si="124"/>
         <v>0.19755167213696442</v>
       </c>
-      <c r="O30" s="19">
-        <f t="shared" si="57"/>
+      <c r="O30" s="13">
+        <f t="shared" si="125"/>
         <v>0.18604651162790697</v>
       </c>
-      <c r="P30" s="19">
-        <f t="shared" si="58"/>
+      <c r="P30" s="13">
+        <f t="shared" si="126"/>
         <v>0.13017751479289941</v>
       </c>
-      <c r="Q30" s="20">
-        <f t="shared" si="59"/>
+      <c r="Q30" s="13">
+        <f t="shared" si="127"/>
         <v>0.17307692307692307</v>
       </c>
-      <c r="R30" s="19">
-        <f t="shared" si="60"/>
+      <c r="R30" s="13">
+        <f t="shared" si="128"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="S30" s="19">
-        <f t="shared" si="61"/>
+      <c r="S30" s="13">
+        <f t="shared" si="129"/>
         <v>0.12254901960784313</v>
       </c>
-      <c r="T30" s="19">
-        <f t="shared" si="62"/>
+      <c r="T30" s="13">
+        <f t="shared" si="130"/>
         <v>0.1099476439790576</v>
       </c>
-      <c r="U30" s="20">
-        <f t="shared" si="63"/>
+      <c r="U30" s="13">
+        <f t="shared" si="131"/>
         <v>0.15846994535519127</v>
       </c>
-      <c r="V30" s="19">
-        <f t="shared" si="64"/>
+      <c r="V30" s="13">
+        <f t="shared" si="132"/>
         <v>0.29677419354838708</v>
       </c>
-      <c r="W30" s="19">
-        <f t="shared" ref="W30" si="67">(W4-S4)/S4</f>
+      <c r="W30" s="13">
+        <f t="shared" ref="W30" si="135">(W4-S4)/S4</f>
         <v>-0.23144104803493451</v>
       </c>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6">
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13">
         <f>(AB4-AA4)/AA4</f>
         <v>0.96354646777842956</v>
       </c>
-      <c r="AC30" s="6">
-        <f t="shared" ref="AC30:AE30" si="68">(AC4-AB4)/AB4</f>
+      <c r="AC30" s="13">
+        <f t="shared" ref="AC30:AE30" si="136">(AC4-AB4)/AB4</f>
         <v>0.34864068968460588</v>
       </c>
-      <c r="AD30" s="6">
-        <f t="shared" si="68"/>
+      <c r="AD30" s="13">
+        <f t="shared" si="136"/>
         <v>0.15981012658227847</v>
       </c>
-      <c r="AE30" s="6">
-        <f t="shared" si="68"/>
+      <c r="AE30" s="13">
+        <f t="shared" si="136"/>
         <v>0.165075034106412</v>
       </c>
     </row>
-    <row r="31" spans="2:67">
+    <row r="31" spans="2:88">
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="118"/>
         <v>0.34831515083638848</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="118"/>
         <v>0.41095066185318885</v>
       </c>
-      <c r="I31" s="17">
-        <f t="shared" si="51"/>
+      <c r="I31" s="6">
+        <f t="shared" si="119"/>
         <v>0.15053191489361675</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="120"/>
         <v>0.20523691867177743</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="121"/>
         <v>5.4424297451068936E-2</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="122"/>
         <v>1.0657896630636534E-2</v>
       </c>
-      <c r="M31" s="17">
-        <f t="shared" si="55"/>
+      <c r="M31" s="6">
+        <f t="shared" si="123"/>
         <v>5.058031236566856E-2</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="124"/>
         <v>-3.3980415549525237E-3</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="125"/>
         <v>-3.8407620071875675E-5</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="126"/>
         <v>1.8239863458068408E-2</v>
       </c>
-      <c r="Q31" s="17">
-        <f t="shared" si="59"/>
+      <c r="Q31" s="6">
+        <f t="shared" si="127"/>
         <v>3.3178173416689272E-2</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="128"/>
         <v>2.4966261808367186E-2</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="129"/>
         <v>2.5193712477449413E-2</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="130"/>
         <v>2.1222812326055458E-2</v>
       </c>
-      <c r="U31" s="17">
-        <f t="shared" si="63"/>
+      <c r="U31" s="6">
+        <f t="shared" si="131"/>
         <v>4.8271765101580003E-2</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="132"/>
         <v>4.3332983082904314E-2</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" ref="W31" si="69">(W5-S5)/S5</f>
+        <f t="shared" ref="W31" si="137">(W5-S5)/S5</f>
         <v>-8.1883630355246054E-2</v>
       </c>
       <c r="AA31" s="6"/>
@@ -4217,100 +4735,100 @@
         <v>0.27341184471806901</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" ref="AC31:AE31" si="70">(AC5-AB5)/AB5</f>
+        <f t="shared" ref="AC31:AE31" si="138">(AC5-AB5)/AB5</f>
         <v>2.794564741155459E-2</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="138"/>
         <v>1.8688781470470681E-2</v>
       </c>
       <c r="AE31" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="138"/>
         <v>3.4256709411908226E-2</v>
       </c>
     </row>
     <row r="33" spans="2:37">
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33:J33" si="71">C8/C6</f>
+        <f t="shared" ref="C33:J33" si="139">C8/C6</f>
         <v>0.67003789363648236</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="139"/>
         <v>0.51848709875916288</v>
       </c>
-      <c r="E33" s="17">
-        <f t="shared" si="71"/>
+      <c r="E33" s="6">
+        <f t="shared" si="139"/>
         <v>0.83064907239719554</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="139"/>
         <v>0.75589923469387765</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="139"/>
         <v>0.71304017426285549</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="139"/>
         <v>0.77945543071161039</v>
       </c>
-      <c r="I33" s="17">
-        <f t="shared" si="71"/>
+      <c r="I33" s="6">
+        <f t="shared" si="139"/>
         <v>0.86074213652079712</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="139"/>
         <v>0.80726290892287933</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ref="K33:N33" si="72">K8/K6</f>
+        <f t="shared" ref="K33:N33" si="140">K8/K6</f>
         <v>0.75944333996023861</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="140"/>
         <v>0.81463878326996197</v>
       </c>
-      <c r="M33" s="17">
-        <f t="shared" si="72"/>
+      <c r="M33" s="6">
+        <f t="shared" si="140"/>
         <v>0.86095700416088761</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="140"/>
         <v>0.81861198738170349</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:V33" si="73">O8/O6</f>
+        <f t="shared" ref="O33:V33" si="141">O8/O6</f>
         <v>0.76457645764576454</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="141"/>
         <v>0.82608695652173914</v>
       </c>
-      <c r="Q33" s="17">
-        <f t="shared" si="73"/>
+      <c r="Q33" s="6">
+        <f t="shared" si="141"/>
         <v>0.8648807771563144</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="141"/>
         <v>0.82687105500450853</v>
       </c>
       <c r="S33" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="141"/>
         <v>0.77591036414565828</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="141"/>
         <v>0.81586608442503639</v>
       </c>
-      <c r="U33" s="17">
-        <f t="shared" si="73"/>
+      <c r="U33" s="6">
+        <f t="shared" si="141"/>
         <v>0.87540192926045013</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="141"/>
         <v>0.82782258064516134</v>
       </c>
       <c r="W33" s="6">
@@ -4322,104 +4840,104 @@
         <v>0.74067779902841724</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" ref="AB33:AE33" si="74">AB8/AB6</f>
+        <f t="shared" ref="AB33:AE33" si="142">AB8/AB6</f>
         <v>0.80708993511543892</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="142"/>
         <v>0.82152637218716518</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="142"/>
         <v>0.82827467984269432</v>
       </c>
       <c r="AE33" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="142"/>
         <v>0.83084128985768335</v>
       </c>
     </row>
     <row r="34" spans="2:37">
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:J34" si="75">C14/C6</f>
+        <f t="shared" ref="C34:J34" si="143">C14/C6</f>
         <v>-0.38664457194445423</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="143"/>
         <v>-1.7421155764784602</v>
       </c>
-      <c r="E34" s="17">
-        <f t="shared" si="75"/>
+      <c r="E34" s="6">
+        <f t="shared" si="143"/>
         <v>0.31194764927577473</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="143"/>
         <v>-3.6079481975271865</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="143"/>
         <v>-0.50392023776236372</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="143"/>
         <v>-3.8136329588015008E-2</v>
       </c>
-      <c r="I34" s="17">
-        <f t="shared" si="75"/>
+      <c r="I34" s="6">
+        <f t="shared" si="143"/>
         <v>0.38078162822378514</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="143"/>
         <v>4.931940822192462E-2</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:N34" si="76">K14/K6</f>
+        <f t="shared" ref="K34:N34" si="144">K14/K6</f>
         <v>-3.3134526176275677E-3</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="144"/>
         <v>0.17538022813688212</v>
       </c>
-      <c r="M34" s="17">
-        <f t="shared" si="76"/>
+      <c r="M34" s="6">
+        <f t="shared" si="144"/>
         <v>0.41712898751733701</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="144"/>
         <v>0.12355415352260778</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:V34" si="77">O14/O6</f>
+        <f t="shared" ref="O34:V34" si="145">O14/O6</f>
         <v>-2.7502750275027505E-3</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="145"/>
         <v>0.21054750402576489</v>
       </c>
-      <c r="Q34" s="17">
-        <f t="shared" si="77"/>
+      <c r="Q34" s="6">
+        <f t="shared" si="145"/>
         <v>0.44038857815719751</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="145"/>
         <v>-0.22362488728584309</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="145"/>
         <v>4.7152194211017739E-2</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="145"/>
         <v>0.18085880640465793</v>
       </c>
-      <c r="U34" s="17">
-        <f t="shared" si="77"/>
+      <c r="U34" s="6">
+        <f t="shared" si="145"/>
         <v>0.40862808145766344</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="145"/>
         <v>0.17338709677419356</v>
       </c>
       <c r="W34" s="6">
@@ -4431,108 +4949,108 @@
         <v>-1.062739939239814</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" ref="AB34:AE34" si="78">AB14/AB6</f>
+        <f t="shared" ref="AB34:AE34" si="146">AB14/AB6</f>
         <v>7.1714664151129842E-2</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.21454935111322776</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.15307048502571341</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.2299585660241398</v>
       </c>
     </row>
     <row r="35" spans="2:37">
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:J35" si="79">C19/C6</f>
+        <f t="shared" ref="C35:J35" si="147">C19/C6</f>
         <v>-0.4046006913509852</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>-1.7193330425899263</v>
       </c>
-      <c r="E35" s="17">
-        <f t="shared" si="79"/>
+      <c r="E35" s="6">
+        <f t="shared" si="147"/>
         <v>0.16393274088134743</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>-4.5246292175629383</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>-1.3216410203216464</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>-5.0824719101123628E-2</v>
       </c>
-      <c r="I35" s="17">
-        <f t="shared" si="79"/>
+      <c r="I35" s="6">
+        <f t="shared" si="147"/>
         <v>0.37270093571558821</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>3.5570514477260097E-2</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K35:N35" si="80">K19/K6</f>
+        <f t="shared" ref="K35:N35" si="148">K19/K6</f>
         <v>-1.2591119946984758E-2</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="148"/>
         <v>0.18013307984790874</v>
       </c>
-      <c r="M35" s="17">
-        <f t="shared" si="80"/>
+      <c r="M35" s="6">
+        <f t="shared" si="148"/>
         <v>0.42094313453536752</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="148"/>
         <v>0.16771819137749738</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35:V35" si="81">O19/O6</f>
+        <f t="shared" ref="O35:Q35" si="149">O19/O6</f>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="149"/>
         <v>0.26167471819645732</v>
       </c>
-      <c r="Q35" s="17">
-        <f t="shared" si="81"/>
+      <c r="Q35" s="6">
+        <f t="shared" si="149"/>
         <v>1.2876067118045333</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="R35:W35" si="150">R19/R6</f>
         <v>-0.15734896302975654</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="150"/>
         <v>0.12324929971988796</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="150"/>
         <v>0.20196506550218341</v>
       </c>
-      <c r="U35" s="17">
-        <f t="shared" si="81"/>
+      <c r="U35" s="6">
+        <f t="shared" si="150"/>
         <v>0.36655948553054662</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="150"/>
         <v>0.18588709677419354</v>
       </c>
       <c r="W35" s="6">
-        <f>W19/W6</f>
+        <f t="shared" si="150"/>
         <v>6.7781690140845077E-2</v>
       </c>
       <c r="AA35" s="6">
@@ -4540,165 +5058,165 @@
         <v>-1.3569336797506601</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" ref="AB35:AE35" si="82">AB19/AB6</f>
+        <f t="shared" ref="AB35:AD35" si="151">AB19/AB6</f>
         <v>-5.8693856896129291E-2</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="151"/>
         <v>0.22538397428265269</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="151"/>
         <v>0.48321064838156702</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="82"/>
+        <f>AE19/AE6</f>
         <v>0.23851558277787785</v>
       </c>
     </row>
     <row r="36" spans="2:37" s="8" customFormat="1">
       <c r="B36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="19">
-        <f t="shared" ref="C36:J36" si="83">C6/C4</f>
+        <v>77</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" ref="C36:J36" si="152">C6/C4</f>
         <v>0.1244206325746379</v>
       </c>
-      <c r="D36" s="19">
-        <f t="shared" si="83"/>
+      <c r="D36" s="13">
+        <f t="shared" si="152"/>
         <v>0.104616875</v>
       </c>
-      <c r="E36" s="20">
-        <f t="shared" si="83"/>
+      <c r="E36" s="13">
+        <f t="shared" si="152"/>
         <v>0.16779137499999999</v>
       </c>
-      <c r="F36" s="19">
-        <f t="shared" si="83"/>
+      <c r="F36" s="13">
+        <f t="shared" si="152"/>
         <v>0.14563796610169491</v>
       </c>
-      <c r="G36" s="19">
-        <f t="shared" si="83"/>
+      <c r="G36" s="13">
+        <f t="shared" si="152"/>
         <v>8.6202352026436002E-2</v>
       </c>
-      <c r="H36" s="19">
-        <f t="shared" si="83"/>
+      <c r="H36" s="13">
+        <f t="shared" si="152"/>
         <v>9.9626865671641793E-2</v>
       </c>
-      <c r="I36" s="20">
-        <f t="shared" si="83"/>
+      <c r="I36" s="13">
+        <f t="shared" si="152"/>
         <v>0.18801949579831931</v>
       </c>
-      <c r="J36" s="19">
-        <f t="shared" si="83"/>
+      <c r="J36" s="13">
+        <f t="shared" si="152"/>
         <v>0.1359173245808569</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="13">
         <f>K6/K4</f>
         <v>8.7732558139534886E-2</v>
       </c>
-      <c r="L36" s="19">
-        <f t="shared" ref="L36:N36" si="84">L6/L4</f>
+      <c r="L36" s="13">
+        <f t="shared" ref="L36:N36" si="153">L6/L4</f>
         <v>0.12449704142011835</v>
       </c>
-      <c r="M36" s="20">
-        <f t="shared" si="84"/>
+      <c r="M36" s="13">
+        <f t="shared" si="153"/>
         <v>0.18487179487179486</v>
       </c>
-      <c r="N36" s="19">
-        <f t="shared" si="84"/>
+      <c r="N36" s="13">
+        <f t="shared" si="153"/>
         <v>0.1408888888888889</v>
       </c>
-      <c r="O36" s="19">
-        <f t="shared" ref="O36:W36" si="85">O6/O4</f>
+      <c r="O36" s="13">
+        <f t="shared" ref="O36:W36" si="154">O6/O4</f>
         <v>8.9117647058823524E-2</v>
       </c>
-      <c r="P36" s="19">
-        <f t="shared" si="85"/>
+      <c r="P36" s="13">
+        <f t="shared" si="154"/>
         <v>0.13005235602094239</v>
       </c>
-      <c r="Q36" s="20">
-        <f t="shared" si="85"/>
+      <c r="Q36" s="13">
+        <f t="shared" si="154"/>
         <v>0.18562841530054644</v>
       </c>
-      <c r="R36" s="19">
-        <f t="shared" si="85"/>
+      <c r="R36" s="13">
+        <f t="shared" si="154"/>
         <v>0.14309677419354838</v>
       </c>
-      <c r="S36" s="19">
-        <f t="shared" si="85"/>
+      <c r="S36" s="13">
+        <f t="shared" si="154"/>
         <v>9.3537117903930128E-2</v>
       </c>
-      <c r="T36" s="19">
-        <f t="shared" si="85"/>
+      <c r="T36" s="13">
+        <f t="shared" si="154"/>
         <v>0.12962264150943395</v>
       </c>
-      <c r="U36" s="20">
-        <f t="shared" si="85"/>
+      <c r="U36" s="13">
+        <f t="shared" si="154"/>
         <v>0.1760377358490566</v>
       </c>
-      <c r="V36" s="19">
-        <f t="shared" si="85"/>
+      <c r="V36" s="13">
+        <f t="shared" si="154"/>
         <v>0.12338308457711443</v>
       </c>
-      <c r="W36" s="19">
-        <f t="shared" si="85"/>
+      <c r="W36" s="13">
+        <f t="shared" si="154"/>
         <v>0.12909090909090909</v>
       </c>
-      <c r="AA36" s="19">
-        <f t="shared" ref="AA36:AE36" si="86">AA6/AA4</f>
+      <c r="AA36" s="13">
+        <f t="shared" ref="AA36:AD36" si="155">AA6/AA4</f>
         <v>0.14154860470962877</v>
       </c>
-      <c r="AB36" s="19">
-        <f t="shared" si="86"/>
+      <c r="AB36" s="13">
+        <f t="shared" si="155"/>
         <v>0.12785549058939014</v>
       </c>
-      <c r="AC36" s="19">
-        <f t="shared" si="86"/>
+      <c r="AC36" s="13">
+        <f t="shared" si="155"/>
         <v>0.13289556962025317</v>
       </c>
-      <c r="AD36" s="19">
-        <f t="shared" si="86"/>
+      <c r="AD36" s="13">
+        <f t="shared" si="155"/>
         <v>0.13529331514324694</v>
       </c>
-      <c r="AE36" s="19">
-        <f t="shared" si="86"/>
+      <c r="AE36" s="13">
+        <f>AE6/AE4</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="38" spans="2:37">
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:J38" si="87">C19/C20</f>
+        <f t="shared" ref="C38:J38" si="156">C19/C20</f>
         <v>-1.2974983714844057</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="156"/>
         <v>-2.18425376730913</v>
       </c>
-      <c r="E38" s="18">
-        <f t="shared" si="87"/>
+      <c r="E38" s="1">
+        <f t="shared" si="156"/>
         <v>0.73545316604613531</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="156"/>
         <v>-11.244525748000754</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="156"/>
         <v>-1.950564097444089</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="156"/>
         <v>-0.11091494902237725</v>
       </c>
-      <c r="I38" s="18">
-        <f t="shared" si="87"/>
+      <c r="I38" s="1">
+        <f t="shared" si="156"/>
         <v>1.2228676259246005</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="156"/>
         <v>8.0043060907980079E-2</v>
       </c>
       <c r="K38" s="1">
@@ -4709,74 +5227,74 @@
         <f>L19/L20</f>
         <v>0.55409356725146197</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="1">
         <f>M19/M20</f>
         <v>1.7774524158125915</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" ref="N38" si="88">N19/N20</f>
+        <f t="shared" ref="N38" si="157">N19/N20</f>
         <v>0.46911764705882353</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" ref="O38:W38" si="89">O19/O20</f>
+        <f t="shared" ref="O38:Q38" si="158">O19/O20</f>
         <v>0.17462686567164179</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="158"/>
         <v>0.97744360902255634</v>
       </c>
-      <c r="Q38" s="18">
-        <f t="shared" si="89"/>
+      <c r="Q38" s="1">
+        <f t="shared" si="158"/>
         <v>6.627272727272727</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="R38:W38" si="159">R19/R20</f>
         <v>-0.52719033232628398</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="159"/>
         <v>0.40366972477064222</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="159"/>
         <v>0.85516178736517723</v>
       </c>
-      <c r="U38" s="18">
-        <f t="shared" si="89"/>
+      <c r="U38" s="1">
+        <f t="shared" si="159"/>
         <v>2.1308411214953269</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="159"/>
         <v>0.71472868217054264</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="159"/>
         <v>0.24367088607594936</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" ref="AA38:AE38" si="90">AA19/AA20</f>
+        <f t="shared" ref="AA38:AD38" si="160">AA19/AA20</f>
         <v>-13.25791962516811</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="160"/>
         <v>-0.51647828743302948</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="160"/>
         <v>2.7838235294117646</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="160"/>
         <v>7.238670694864048</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="90"/>
+        <f>AE19/AE20</f>
         <v>4.1054263565891471</v>
       </c>
     </row>
     <row r="39" spans="2:37">
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1">
         <f>Main!$J$5/Model!C19</f>
@@ -4786,7 +5304,7 @@
         <f>Main!$J$5/Model!D19</f>
         <v>-147.91552290874722</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="1">
         <f>Main!$J$5/Model!E19</f>
         <v>386.90127787977389</v>
       </c>
@@ -4802,7 +5320,7 @@
         <f>Main!$J$5/Model!H19</f>
         <v>-1254.7847489351659</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="1">
         <f>Main!$J$5/Model!I19</f>
         <v>102.09751131140327</v>
       </c>
@@ -4818,7 +5336,7 @@
         <f>Main!$J$5/Model!L19</f>
         <v>224.6395778364116</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="1">
         <f>Main!$J$5/Model!M19</f>
         <v>70.130477759472811</v>
       </c>
@@ -4834,7 +5352,7 @@
         <f>Main!$J$5/Model!P19</f>
         <v>130.98215384615384</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="1">
         <f>Main!$J$5/Model!Q19</f>
         <v>19.464654778235023</v>
       </c>
@@ -4850,7 +5368,7 @@
         <f>Main!$J$5/Model!T19</f>
         <v>153.4025225225225</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="1">
         <f>Main!$J$5/Model!U19</f>
         <v>62.235672514619878</v>
       </c>
@@ -4885,21 +5403,21 @@
     </row>
     <row r="40" spans="2:37">
       <c r="AG40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="AJ40" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:37">
       <c r="AG41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH41" s="6">
         <v>0.09</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK41" s="6">
         <v>0.09</v>
@@ -4907,60 +5425,60 @@
     </row>
     <row r="42" spans="2:37">
       <c r="AG42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH42" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK42" s="6">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43" spans="2:37">
-      <c r="AG43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH43" s="21">
-        <f>NPV(AH41, AF19:BO19)</f>
-        <v>65197.140906073262</v>
-      </c>
-      <c r="AJ43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK43" s="21">
-        <f>NPV(AK41, AF24:AU24)</f>
-        <v>70662.519253953724</v>
+      <c r="AG43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH43" s="14">
+        <f>NPV(AH41, AF19:CJ19)</f>
+        <v>64408.948882616336</v>
+      </c>
+      <c r="AJ43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK43" s="14">
+        <f>NPV(AK41, AF24:CJ24)</f>
+        <v>93362.488464213617</v>
       </c>
     </row>
     <row r="44" spans="2:37">
       <c r="AG44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH44" s="8">
         <f>AH43/Main!J4</f>
-        <v>105.15667888076332</v>
+        <v>103.88540142357473</v>
       </c>
       <c r="AJ44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK44" s="8">
         <f>AK43/Main!J4</f>
-        <v>113.97180524831246</v>
+        <v>150.58465881324776</v>
       </c>
     </row>
     <row r="45" spans="2:37">
       <c r="AG45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH45" s="2">
         <f>Main!J3</f>
         <v>137.32</v>
       </c>
       <c r="AJ45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK45" s="2">
         <f>Main!J3</f>
@@ -4968,20 +5486,20 @@
       </c>
     </row>
     <row r="46" spans="2:37">
-      <c r="AG46" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH46" s="22">
+      <c r="AG46" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH46" s="15">
         <f>(AH44-AH45)/AH45</f>
-        <v>-0.23422168015756387</v>
-      </c>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK46" s="22">
+        <v>-0.24347945365879159</v>
+      </c>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK46" s="15">
         <f>(AK44-AK45)/AK45</f>
-        <v>-0.17002763436999366</v>
+        <v>9.6596699776054201E-2</v>
       </c>
     </row>
     <row r="49" spans="15:15">

--- a/Models/ABNB.xlsx
+++ b/Models/ABNB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1400" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F1325B-9640-D245-81C0-FA189DD837D4}"/>
+  <xr:revisionPtr revIDLastSave="1675" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F886CBE-C049-4E38-BEA6-7E508607BF9B}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="860" windowWidth="33200" windowHeight="21380" activeTab="1" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="WACC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,14 +45,10 @@
   <commentList>
     <comment ref="Q18" authorId="0" shapeId="0" xr:uid="{24CCC076-5D4C-2A4F-9C4F-AFCAB3F9A7EE}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Net income in Q3 2024 was $1.4 billion, which was down compared to net income of $4.4 billion in Q3 2023, 
-primarily due to the prior year’s valuation allowance release of our U.S. deferred tax assets of $2.8 billion, 
-and the recognition of non-cash tax expense related to the utilization of some of those assets in the 
-current year. 
-</t>
+    «due to the prior year’s valuation allowance release of our U.S. deferred tax assets of $2.8 billion, and the recognition of non-cash tax expense related to the utilization of some of those assets in the current year.»</t>
       </text>
     </comment>
   </commentList>
@@ -59,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -76,302 +73,392 @@
     <t>Debt</t>
   </si>
   <si>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>NASDAQ</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Airbnb, Inc.</t>
+  </si>
+  <si>
+    <t>Founded 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO 2020 </t>
+  </si>
+  <si>
+    <t>Platform for Hosts</t>
+  </si>
+  <si>
+    <t>AirBNB is a global marketplace where hosts offer guests stays and experiences</t>
+  </si>
+  <si>
+    <t>Sector: Consumer Cyclical (hospitality and entertainment)</t>
+  </si>
+  <si>
+    <t>We partner with hosts throughout the process of setting up their listing</t>
+  </si>
+  <si>
+    <t>and provide them with a robust suite of tools to successfully manage their listings.</t>
+  </si>
+  <si>
+    <t>Platform for Guests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our website and mobile app provide our guests with an engaging way to </t>
+  </si>
+  <si>
+    <t>explore and easily book a wide variety of unique homes and experiences.</t>
+  </si>
+  <si>
+    <t>System of Trust</t>
+  </si>
+  <si>
+    <t>AirCover for Hosts includes, among other features, guest property damage protection</t>
+  </si>
+  <si>
+    <t>host and guest reviews, account protection, risk scoring, secure payments, [...] urgent safety line</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
+  </si>
+  <si>
+    <t>First, second, and third quarters have higher Nights and Experiences Booked than the fourth quarter.</t>
+  </si>
+  <si>
+    <t>Nights and Experiences Booked</t>
+  </si>
+  <si>
+    <t>Gross Booking Value</t>
+  </si>
+  <si>
+    <t>Gross Booking Value (GBV)</t>
+  </si>
+  <si>
+    <t>y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Business Metrics </t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia Pacific </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S&amp;A</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net income </t>
+  </si>
+  <si>
+    <t>Ops &amp; Support</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/E </t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpEx </t>
+  </si>
+  <si>
+    <t>OpInc (EBIT)</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income y/y </t>
+  </si>
+  <si>
+    <t>Nights booked</t>
+  </si>
+  <si>
+    <t>GBV</t>
+  </si>
+  <si>
+    <t>GBV per Night</t>
+  </si>
+  <si>
+    <t>Nights booked y/y</t>
+  </si>
+  <si>
+    <t>GBV y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBV per night y/y </t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share </t>
+  </si>
+  <si>
+    <t>Revenue/GBV</t>
+  </si>
+  <si>
+    <t>* Strong Net Cash position</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>G&amp;A (+restructuring charges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretax  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCF </t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO </t>
+  </si>
+  <si>
+    <t>Brian Chesky</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Ellie Mertz</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Revenue </t>
+  </si>
+  <si>
+    <t>Airbnb has market share of 28.07% in reservation-and-online-booking market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCF y/y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WACC </t>
+  </si>
+  <si>
+    <t>Cost of Debt = (Total Interest Expense / Total Debt) x (1 - Tax Rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Equity </t>
+  </si>
+  <si>
+    <t>Total Debt = Short-Term Debt + Long-Term Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk free rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Tax Rate = Income Tax Expense / Earnings Before Taxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market return </t>
+  </si>
+  <si>
+    <t>Pre-tax Cost of Debt = Interest Expense / Total Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WACC = (E/V * Re) + (D/V * Rd * (1-Tc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E = total value of company's equity = market cap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = total value of a debt = Total Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V = E + D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re = Cost of Equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd = Cost of Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tc = Tax Rate </t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Employees 7300</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other income </t>
+  </si>
+  <si>
+    <t>*The company has no interest expense</t>
+  </si>
+  <si>
+    <t>DCF Model</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q225 </t>
+  </si>
+  <si>
+    <t>Shares q/q</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Liabilities </t>
+  </si>
+  <si>
+    <t>Stockholders' Equity</t>
+  </si>
+  <si>
+    <t>*all in millions</t>
+  </si>
+  <si>
+    <t>NAVPS</t>
+  </si>
+  <si>
     <t>EV</t>
   </si>
   <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>NASDAQ</t>
-  </si>
-  <si>
-    <t>Q125</t>
-  </si>
-  <si>
-    <t>Airbnb, Inc.</t>
-  </si>
-  <si>
-    <t>Founded 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPO 2020 </t>
-  </si>
-  <si>
-    <t>Platform for Hosts</t>
-  </si>
-  <si>
-    <t>AirBNB is a global marketplace where hosts offer guests stays and experiences</t>
-  </si>
-  <si>
-    <t>Sector: Consumer Cyclical (hospitality and entertainment)</t>
-  </si>
-  <si>
-    <t>We partner with hosts throughout the process of setting up their listing</t>
-  </si>
-  <si>
-    <t>and provide them with a robust suite of tools to successfully manage their listings.</t>
-  </si>
-  <si>
-    <t>Platform for Guests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our website and mobile app provide our guests with an engaging way to </t>
-  </si>
-  <si>
-    <t>explore and easily book a wide variety of unique homes and experiences.</t>
-  </si>
-  <si>
-    <t>System of Trust</t>
-  </si>
-  <si>
-    <t>AirCover for Hosts includes, among other features, guest property damage protection</t>
-  </si>
-  <si>
-    <t>host and guest reviews, account protection, risk scoring, secure payments, [...] urgent safety line</t>
-  </si>
-  <si>
-    <t>Seasonality</t>
-  </si>
-  <si>
-    <t>First, second, and third quarters have higher Nights and Experiences Booked than the fourth quarter.</t>
-  </si>
-  <si>
-    <t>Nights and Experiences Booked</t>
-  </si>
-  <si>
-    <t>Gross Booking Value</t>
-  </si>
-  <si>
-    <t>Gross Booking Value (GBV)</t>
-  </si>
-  <si>
-    <t>y/y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Business Metrics </t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>EMEA</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia Pacific </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>Q224</t>
-  </si>
-  <si>
-    <t>Q324</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>S&amp;A</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net income </t>
-  </si>
-  <si>
-    <t>Ops &amp; Support</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Margin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Margin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Margin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/E </t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpEx </t>
-  </si>
-  <si>
-    <t>OpInc (EBIT)</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q121</t>
-  </si>
-  <si>
-    <t>Revenue y/y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Income y/y </t>
-  </si>
-  <si>
-    <t>Nights booked</t>
-  </si>
-  <si>
-    <t>GBV</t>
-  </si>
-  <si>
-    <t>GBV per Night</t>
-  </si>
-  <si>
-    <t>Nights booked y/y</t>
-  </si>
-  <si>
-    <t>GBV y/y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBV per night y/y </t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share </t>
-  </si>
-  <si>
-    <t>Revenue/GBV</t>
-  </si>
-  <si>
-    <t>* Strong Net Cash position</t>
-  </si>
-  <si>
-    <t>Q120</t>
-  </si>
-  <si>
-    <t>Q220</t>
-  </si>
-  <si>
-    <t>Q320</t>
-  </si>
-  <si>
-    <t>Q420</t>
-  </si>
-  <si>
-    <t>G&amp;A (+restructuring charges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretax  </t>
-  </si>
-  <si>
-    <t>Other income (expense)</t>
-  </si>
-  <si>
-    <t>Interest income (expense)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current </t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCF </t>
-  </si>
-  <si>
-    <t>CFFO</t>
-  </si>
-  <si>
-    <t>CapEx</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on net income </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on FCF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEO </t>
-  </si>
-  <si>
-    <t>Brian Chesky</t>
-  </si>
-  <si>
-    <t>CFO</t>
-  </si>
-  <si>
-    <t>Ellie Mertz</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost of Revenue </t>
-  </si>
-  <si>
-    <t>Airbnb has market share of 28.07% in reservation-and-online-booking market.</t>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -402,13 +489,25 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -448,6 +547,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,15 +590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>1871</xdr:colOff>
+      <xdr:colOff>11396</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>5211</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>92899</xdr:rowOff>
+      <xdr:colOff>14736</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -494,216 +613,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25635551" y="17640"/>
-          <a:ext cx="3340" cy="8690939"/>
+          <a:off x="22604696" y="0"/>
+          <a:ext cx="3340" cy="9143059"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E462714F-09EE-D0EC-C646-574F0873825F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18227040" y="0"/>
-          <a:ext cx="0" cy="8636000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257F5702-06B0-8F49-A75B-684C94D1CF3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14935200" y="0"/>
-          <a:ext cx="0" cy="8636000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8549889-25D5-7841-9C4C-79B299D0C743}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11684000" y="0"/>
-          <a:ext cx="0" cy="8636000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84272230-DEFC-B24F-9D93-890BF3D00B63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8514080" y="0"/>
-          <a:ext cx="0" cy="8636000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -732,7 +647,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -783,7 +698,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>824196</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>75259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1150,64 +1065,60 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="Q18" dT="2025-06-17T17:56:27.92" personId="{BD028A8A-28B1-F140-ADEE-F089599B65DB}" id="{24CCC076-5D4C-2A4F-9C4F-AFCAB3F9A7EE}">
-    <text xml:space="preserve">Net income in Q3 2024 was $1.4 billion, which was down compared to net income of $4.4 billion in Q3 2023, _x000D_
-primarily due to the prior year’s valuation allowance release of our U.S. deferred tax assets of $2.8 billion, _x000D_
-and the recognition of non-cash tax expense related to the utilization of some of those assets in the _x000D_
-current year. 
-</text>
+    <text>«due to the prior year’s valuation allowance release of our U.S. deferred tax assets of $2.8 billion, and the recognition of non-cash tax expense related to the utilization of some of those assets in the current year.»</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4F1930-5923-2449-86A0-05B4A5E86FA6}">
-  <dimension ref="B2:K48"/>
+  <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" s="5" customFormat="1">
       <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>137.32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <f>432+188</f>
-        <v>620</v>
+        <f>429+183+9</f>
+        <v>621</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1216,405 +1127,420 @@
       </c>
       <c r="J5" s="2">
         <f>J4*J3</f>
-        <v>85138.4</v>
+        <v>80109</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <f>7600+3892</f>
-        <v>11492</v>
+        <f>7402+3954</f>
+        <v>11356</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="2">
-        <v>1995</v>
+        <f>1997</f>
+        <v>1997</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2">
+        <f>J6-J7</f>
+        <v>9359</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="I9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="2">
         <f>J5+J7-J6</f>
-        <v>75641.399999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>70750</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="14">
-      <c r="B15" t="s">
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="5" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
+    <row r="30" spans="2:5">
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
         <v>2023</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>2024</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>448</v>
-      </c>
-      <c r="D30">
-        <v>492</v>
-      </c>
-      <c r="E30" s="7">
-        <f>(D30-C30)/C30</f>
-        <v>9.8214285714285712E-2</v>
+      <c r="E30" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2">
-        <v>73252</v>
-      </c>
-      <c r="D31" s="2">
-        <v>81784</v>
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>448</v>
+      </c>
+      <c r="D31">
+        <v>492</v>
       </c>
       <c r="E31" s="7">
         <f>(D31-C31)/C31</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>73252</v>
+      </c>
+      <c r="D32" s="2">
+        <v>81784</v>
+      </c>
+      <c r="E32" s="7">
+        <f>(D32-C32)/C32</f>
         <v>0.11647463550483263</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="11">
-        <f>C31/C30</f>
+    <row r="33" spans="2:6">
+      <c r="C33" s="11">
+        <f>C32/C31</f>
         <v>163.50892857142858</v>
       </c>
-      <c r="D32" s="11">
-        <f>D31/D30</f>
+      <c r="D33" s="11">
+        <f>D32/D31</f>
         <v>166.22764227642276</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35">
+    <row r="36" spans="2:6">
+      <c r="B36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
         <v>2023</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>2024</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>146</v>
-      </c>
-      <c r="D36">
-        <v>154</v>
-      </c>
-      <c r="E36" s="7">
-        <f>(D36-C36)/C36</f>
-        <v>5.4794520547945202E-2</v>
-      </c>
-      <c r="F36" s="6">
-        <f>D36/$D$40</f>
-        <v>0.31300813008130079</v>
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="D37">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="E37" s="7">
         <f>(D37-C37)/C37</f>
-        <v>7.4866310160427801E-2</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:F40" si="0">D37/$D$40</f>
-        <v>0.40853658536585363</v>
+        <f>D37/$D$41</f>
+        <v>0.31300813008130079</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="D38">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="E38" s="7">
         <f>(D38-C38)/C38</f>
+        <v>7.4866310160427801E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F41" si="0">D38/$D$41</f>
+        <v>0.40853658536585363</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+      <c r="E39" s="7">
+        <f>(D39-C39)/C39</f>
         <v>0.1875</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>0.15447154471544716</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39">
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
         <v>51</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>61</v>
       </c>
-      <c r="E39" s="7">
-        <f>(D39-C39)/C39</f>
+      <c r="E40" s="7">
+        <f>(D40-C40)/C40</f>
         <v>0.19607843137254902</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>0.12398373983739837</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="5" customFormat="1">
-      <c r="B40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5">
-        <f>SUM(C36:C39)</f>
+    <row r="41" spans="2:6" s="5" customFormat="1">
+      <c r="B41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5">
+        <f>SUM(C37:C40)</f>
         <v>448</v>
       </c>
-      <c r="D40" s="5">
-        <f>SUM(D36:D39)</f>
+      <c r="D41" s="5">
+        <f>SUM(D37:D40)</f>
         <v>492</v>
       </c>
-      <c r="E40" s="9">
-        <f>(D40-C40)/C40</f>
+      <c r="E41" s="9">
+        <f>(D41-C41)/C41</f>
         <v>9.8214285714285712E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43">
+    <row r="44" spans="2:6">
+      <c r="B44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
         <v>2023</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>2024</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="2">
-        <v>34941</v>
-      </c>
-      <c r="D44" s="2">
-        <v>37816</v>
-      </c>
-      <c r="E44" s="7">
-        <f>(D44-C44)/C44</f>
-        <v>8.2281560344580867E-2</v>
-      </c>
-      <c r="F44" s="6">
-        <f>D44/$D$48</f>
-        <v>0.46238873129218427</v>
+      <c r="E44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2">
-        <v>26241</v>
+        <v>34941</v>
       </c>
       <c r="D45" s="2">
-        <v>29750</v>
+        <v>37816</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" ref="E45:E48" si="1">(D45-C45)/C45</f>
-        <v>0.13372203803208718</v>
+        <f>(D45-C45)/C45</f>
+        <v>8.2281560344580867E-2</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" ref="F45:F48" si="2">D45/$D$48</f>
-        <v>0.36376308324366624</v>
+        <f>D45/$D$49</f>
+        <v>0.46238873129218427</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2">
+        <v>26241</v>
+      </c>
+      <c r="D46" s="2">
+        <v>29750</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" ref="E46:E49" si="1">(D46-C46)/C46</f>
+        <v>0.13372203803208718</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46:F49" si="2">D46/$D$49</f>
+        <v>0.36376308324366624</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2">
         <v>6054</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>7092</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <f t="shared" si="1"/>
         <v>0.17145688800792863</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
         <v>8.6716228113078359E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="5" customFormat="1">
-      <c r="B47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="2">
+    <row r="48" spans="2:6" s="5" customFormat="1">
+      <c r="B48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2">
         <v>6016</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>7126</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <f t="shared" si="1"/>
         <v>0.18450797872340424</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>8.7131957351071113E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="8">
-        <f>SUM(C44:C47)</f>
+    <row r="49" spans="2:6">
+      <c r="B49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="8">
+        <f>SUM(C45:C48)</f>
         <v>73252</v>
       </c>
-      <c r="D48" s="8">
-        <f>SUM(D44:D47)</f>
+      <c r="D49" s="8">
+        <f>SUM(D45:D48)</f>
         <v>81784</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <f t="shared" si="1"/>
         <v>0.11647463550483263</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1622,102 +1548,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C40:D40" formulaRange="1"/>
+    <ignoredError sqref="C41:D41" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8C7F3-F2C1-7648-A25C-50F3C2F80138}">
-  <dimension ref="A1:CJ49"/>
+  <dimension ref="A1:VG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="14" width="10.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
+    <col min="7" max="14" width="10.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="2" customWidth="1"/>
+    <col min="17" max="22" width="10.85546875" style="2"/>
+    <col min="23" max="24" width="10.85546875" style="21"/>
+    <col min="25" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" customFormat="1">
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>8</v>
+      <c r="W2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="AA2">
         <v>2020</v>
@@ -1737,7 +1671,7 @@
         <v>2024</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:BO2" si="0">AE2+1</f>
+        <f t="shared" ref="AF2:AK2" si="0">AE2+1</f>
         <v>2025</v>
       </c>
       <c r="AG2">
@@ -1761,9 +1695,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3">
         <v>57.1</v>
@@ -1825,8 +1759,11 @@
       <c r="V3" s="3">
         <v>122.8</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="23">
         <v>111</v>
+      </c>
+      <c r="X3" s="21">
+        <v>134.4</v>
       </c>
       <c r="AA3" s="2">
         <f>SUM(C3:F3)</f>
@@ -1849,9 +1786,9 @@
         <v>505.59999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>6766</v>
@@ -1913,8 +1850,11 @@
       <c r="V4" s="3">
         <v>20100</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="23">
         <v>17600</v>
+      </c>
+      <c r="X4" s="21">
+        <v>23500</v>
       </c>
       <c r="AA4" s="2">
         <f>SUM(C4:F4)</f>
@@ -1937,16 +1877,16 @@
         <v>85400</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3">
         <f>C4/C3</f>
         <v>118.4938704028021</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:W5" si="5">D4/D3</f>
+        <f t="shared" ref="D5:X5" si="5">D4/D3</f>
         <v>114.28571428571429</v>
       </c>
       <c r="E5" s="3">
@@ -2021,9 +1961,13 @@
         <f t="shared" si="5"/>
         <v>163.68078175895766</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="23">
         <f t="shared" si="5"/>
         <v>158.55855855855856</v>
+      </c>
+      <c r="X5" s="23">
+        <f t="shared" si="5"/>
+        <v>174.85119047619048</v>
       </c>
       <c r="AA5" s="2">
         <f>AVERAGE(C5:F5)</f>
@@ -2046,9 +1990,9 @@
         <v>168.82737196096588</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="8" customFormat="1">
+    <row r="6" spans="1:40" s="8" customFormat="1">
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <v>841.83</v>
@@ -2113,8 +2057,11 @@
         <f>11102-8622</f>
         <v>2480</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="24">
         <v>2272</v>
+      </c>
+      <c r="X6" s="24">
+        <v>3096</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" ref="AA6:AA19" si="12">SUM(C6:F6)</f>
@@ -2133,7 +2080,7 @@
         <v>9917</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" ref="AE6:AF15" si="14">SUM(S6:V6)</f>
+        <f t="shared" ref="AE6:AE15" si="14">SUM(S6:V6)</f>
         <v>11102</v>
       </c>
       <c r="AF6" s="8">
@@ -2161,9 +2108,9 @@
         <v>25679.60061996874</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2">
         <v>277.77199999999999</v>
@@ -2228,8 +2175,11 @@
         <f>1878-1451</f>
         <v>427</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="21">
         <v>506</v>
+      </c>
+      <c r="X7" s="21">
+        <v>544</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="12"/>
@@ -2252,9 +2202,9 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:W8" si="16">C6-C7</f>
@@ -2336,9 +2286,13 @@
         <f t="shared" si="16"/>
         <v>2053</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="21">
         <f t="shared" si="16"/>
         <v>1766</v>
+      </c>
+      <c r="X8" s="21">
+        <f t="shared" ref="X8" si="17">X6-X7</f>
+        <v>2552</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="12"/>
@@ -2361,9 +2315,9 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>221.78700000000001</v>
@@ -2428,8 +2382,11 @@
         <f>1282-992</f>
         <v>290</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="21">
         <v>303</v>
+      </c>
+      <c r="X9" s="21">
+        <v>332</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="12"/>
@@ -2452,9 +2409,9 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>258.81900000000002</v>
@@ -2519,8 +2476,11 @@
         <f>2056-1518</f>
         <v>538</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="21">
         <v>568</v>
+      </c>
+      <c r="X10" s="21">
+        <v>610</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="12"/>
@@ -2543,9 +2503,9 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>317.17899999999997</v>
@@ -2610,8 +2570,11 @@
         <f>2148-1601</f>
         <v>547</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="21">
         <v>563</v>
+      </c>
+      <c r="X11" s="21">
+        <v>691</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="12"/>
@@ -2634,9 +2597,9 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>91.762</v>
@@ -2708,8 +2671,11 @@
         <f>1185-937</f>
         <v>248</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="21">
         <v>294</v>
+      </c>
+      <c r="X12" s="21">
+        <v>307</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="12"/>
@@ -2732,93 +2698,97 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:W13" si="17">C7+C12+C11+C10+C9</f>
+        <f t="shared" ref="C13:W13" si="18">C7+C12+C11+C10+C9</f>
         <v>1167.319</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>917.98900000000003</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>923.59399999999994</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3959.4440000000004</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1333.8809999999999</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1385.912</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1385.4589999999998</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1456.6289999999999</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1514</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1735</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1681</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1667</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1823</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1961</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1901</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2714</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2041</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2251</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2207</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2050</v>
       </c>
-      <c r="W13" s="2">
-        <f t="shared" si="17"/>
+      <c r="W13" s="21">
+        <f t="shared" si="18"/>
         <v>2234</v>
+      </c>
+      <c r="X13" s="21">
+        <f t="shared" ref="X13" si="19">X7+X12+X11+X10+X9</f>
+        <v>2484</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="12"/>
@@ -2840,94 +2810,101 @@
         <f t="shared" si="14"/>
         <v>8549</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AM13" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:W14" si="18">C6-C13</f>
+        <f t="shared" ref="C14:W14" si="20">C6-C13</f>
         <v>-325.48899999999992</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-583.21500000000003</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>418.73699999999997</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3100.1800000000003</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-446.94499999999982</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-50.912000000000035</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>851.97299999999996</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75.567000000000007</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-5</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>369</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1203</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>235</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-5</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>523</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1496</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-496</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>497</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1525</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>430</v>
       </c>
-      <c r="W14" s="2">
-        <f t="shared" si="18"/>
+      <c r="W14" s="21">
+        <f t="shared" si="20"/>
         <v>38</v>
+      </c>
+      <c r="X14" s="21">
+        <f t="shared" ref="X14" si="21">X6-X13</f>
+        <v>612</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="12"/>
@@ -2949,10 +2926,17 @@
         <f t="shared" si="14"/>
         <v>2553</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AM14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN14" s="6">
+        <f>WACC!C3</f>
+        <v>0.11237200000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2">
         <f>13.649+1.51</f>
@@ -3027,8 +3011,11 @@
         <f>818-635</f>
         <v>183</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="21">
         <v>173</v>
+      </c>
+      <c r="X15" s="21">
+        <v>190</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="12"/>
@@ -3050,10 +3037,16 @@
         <f t="shared" si="14"/>
         <v>818</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AM15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2">
         <v>-46.76</v>
@@ -3118,8 +3111,11 @@
         <f>-40+49</f>
         <v>9</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="21">
         <v>-38</v>
+      </c>
+      <c r="X16" s="21">
+        <v>-23</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="12"/>
@@ -3141,94 +3137,105 @@
         <f>SUM(S16:V16)</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="17" spans="2:88">
+      <c r="AM16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="14">
+        <f>IFERROR(NPV(AN14, AF26:AHB26), "ERROR")</f>
+        <v>90727.256091229836</v>
+      </c>
+    </row>
+    <row r="17" spans="2:579">
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:Q17" si="19">C14+C15+C16</f>
+        <f t="shared" ref="C17:Q17" si="22">C14+C15+C16</f>
         <v>-357.08999999999992</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-639.39800000000002</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>307.77599999999995</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-3992.5020000000004</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1165.9019999999998</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-56.618000000000038</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>850.45799999999997</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>72.221000000000004</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>383</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1270</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>344</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>130</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>676</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1679</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:W17" si="20">R14+R15+R16</f>
+        <f t="shared" ref="R17:W17" si="23">R14+R15+R16</f>
         <v>-383</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>293</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>681</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1735</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>622</v>
       </c>
-      <c r="W17" s="2">
-        <f t="shared" si="20"/>
+      <c r="W17" s="21">
+        <f t="shared" si="23"/>
         <v>173</v>
+      </c>
+      <c r="X17" s="21">
+        <f t="shared" ref="X17" si="24">X14+X15+X16</f>
+        <v>779</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="12"/>
@@ -3250,10 +3257,17 @@
         <f>SUM(S17:V17)</f>
         <v>3331</v>
       </c>
-    </row>
-    <row r="18" spans="2:88">
+      <c r="AM17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" s="8">
+        <f>AN16/Main!J4</f>
+        <v>146.0986410486793</v>
+      </c>
+    </row>
+    <row r="18" spans="2:579">
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>-16.484999999999999</v>
@@ -3319,8 +3333,11 @@
         <f>683-522</f>
         <v>161</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="21">
         <v>19</v>
+      </c>
+      <c r="X18" s="21">
+        <v>137</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="12"/>
@@ -3342,94 +3359,105 @@
         <f>SUM(S18:V18)</f>
         <v>683</v>
       </c>
-    </row>
-    <row r="19" spans="2:88" s="8" customFormat="1">
+      <c r="AM18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" s="2">
+        <f>Main!J3</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:579" s="8" customFormat="1">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:Q19" si="21">C17-C18</f>
+        <f t="shared" ref="C19:Q19" si="25">C17-C18</f>
         <v>-340.6049999999999</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-575.58799999999997</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>220.05199999999996</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-3887.8510000000006</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1172.2109999999998</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-67.851000000000042</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>833.89299999999992</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>54.501000000000005</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-19</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>379</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1214</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>319</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>117</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>650</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4374</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" ref="R19:W19" si="22">R17-R18</f>
+        <f t="shared" ref="R19:W19" si="26">R17-R18</f>
         <v>-349</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>264</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>555</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1368</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>461</v>
       </c>
-      <c r="W19" s="8">
-        <f t="shared" si="22"/>
+      <c r="W19" s="24">
+        <f t="shared" si="26"/>
         <v>154</v>
+      </c>
+      <c r="X19" s="24">
+        <f t="shared" ref="X19" si="27">X17-X18</f>
+        <v>642</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" si="12"/>
@@ -3452,2058 +3480,4035 @@
         <v>2648</v>
       </c>
       <c r="AF19" s="8">
-        <f>AF6*$AE$35</f>
+        <f>AF6*$AE$38</f>
         <v>3045.2</v>
       </c>
       <c r="AG19" s="8">
-        <f t="shared" ref="AG19:AK19" si="23">AG6*$AE$35</f>
+        <f>AG6*$AE$38</f>
         <v>3501.9799999999996</v>
       </c>
       <c r="AH19" s="8">
-        <f t="shared" si="23"/>
+        <f>AH6*$AE$38</f>
         <v>4027.2769999999996</v>
       </c>
       <c r="AI19" s="8">
-        <f t="shared" si="23"/>
+        <f>AI6*$AE$38</f>
         <v>4631.3685499999992</v>
       </c>
       <c r="AJ19" s="8">
-        <f t="shared" si="23"/>
+        <f>AJ6*$AE$38</f>
         <v>5326.0738324999984</v>
       </c>
       <c r="AK19" s="8">
-        <f t="shared" si="23"/>
+        <f>AK6*$AE$38</f>
         <v>6124.9849073749974</v>
       </c>
-      <c r="AL19" s="8">
-        <f t="shared" ref="AL19:BO19" si="24">AK19*(1+$AH$42)</f>
-        <v>6186.2347564487472</v>
-      </c>
-      <c r="AM19" s="8">
-        <f t="shared" si="24"/>
-        <v>6248.0971040132345</v>
-      </c>
-      <c r="AN19" s="8">
-        <f t="shared" si="24"/>
-        <v>6310.5780750533668</v>
-      </c>
-      <c r="AO19" s="8">
-        <f t="shared" si="24"/>
-        <v>6373.6838558039008</v>
-      </c>
-      <c r="AP19" s="8">
-        <f t="shared" si="24"/>
-        <v>6437.4206943619401</v>
-      </c>
-      <c r="AQ19" s="8">
-        <f t="shared" si="24"/>
-        <v>6501.7949013055595</v>
-      </c>
-      <c r="AR19" s="8">
-        <f t="shared" si="24"/>
-        <v>6566.8128503186153</v>
-      </c>
-      <c r="AS19" s="8">
-        <f t="shared" si="24"/>
-        <v>6632.4809788218017</v>
-      </c>
-      <c r="AT19" s="8">
-        <f t="shared" si="24"/>
-        <v>6698.8057886100196</v>
-      </c>
-      <c r="AU19" s="8">
-        <f t="shared" si="24"/>
-        <v>6765.7938464961198</v>
-      </c>
-      <c r="AV19" s="8">
-        <f t="shared" si="24"/>
-        <v>6833.4517849610811</v>
-      </c>
-      <c r="AW19" s="8">
-        <f t="shared" si="24"/>
-        <v>6901.7863028106922</v>
-      </c>
-      <c r="AX19" s="8">
-        <f t="shared" si="24"/>
-        <v>6970.8041658387992</v>
-      </c>
-      <c r="AY19" s="8">
-        <f t="shared" si="24"/>
-        <v>7040.5122074971869</v>
-      </c>
-      <c r="AZ19" s="8">
-        <f t="shared" si="24"/>
-        <v>7110.9173295721585</v>
-      </c>
-      <c r="BA19" s="8">
-        <f t="shared" si="24"/>
-        <v>7182.0265028678805</v>
-      </c>
-      <c r="BB19" s="8">
-        <f t="shared" si="24"/>
-        <v>7253.846767896559</v>
-      </c>
-      <c r="BC19" s="8">
-        <f t="shared" si="24"/>
-        <v>7326.3852355755243</v>
-      </c>
-      <c r="BD19" s="8">
-        <f t="shared" si="24"/>
-        <v>7399.6490879312796</v>
-      </c>
-      <c r="BE19" s="8">
-        <f t="shared" si="24"/>
-        <v>7473.6455788105923</v>
-      </c>
-      <c r="BF19" s="8">
-        <f t="shared" si="24"/>
-        <v>7548.3820345986978</v>
-      </c>
-      <c r="BG19" s="8">
-        <f t="shared" si="24"/>
-        <v>7623.8658549446845</v>
-      </c>
-      <c r="BH19" s="8">
-        <f t="shared" si="24"/>
-        <v>7700.1045134941314</v>
-      </c>
-      <c r="BI19" s="8">
-        <f t="shared" si="24"/>
-        <v>7777.1055586290731</v>
-      </c>
-      <c r="BJ19" s="8">
-        <f t="shared" si="24"/>
-        <v>7854.8766142153636</v>
-      </c>
-      <c r="BK19" s="8">
-        <f t="shared" si="24"/>
-        <v>7933.4253803575175</v>
-      </c>
-      <c r="BL19" s="8">
-        <f t="shared" si="24"/>
-        <v>8012.7596341610924</v>
-      </c>
-      <c r="BM19" s="8">
-        <f t="shared" si="24"/>
-        <v>8092.8872305027035</v>
-      </c>
-      <c r="BN19" s="8">
-        <f t="shared" si="24"/>
-        <v>8173.8161028077302</v>
-      </c>
-      <c r="BO19" s="8">
-        <f t="shared" si="24"/>
-        <v>8255.5542638358074</v>
-      </c>
-      <c r="BP19" s="8">
-        <f t="shared" ref="BP19" si="25">BO19*(1+$AH$42)</f>
-        <v>8338.1098064741655</v>
-      </c>
-      <c r="BQ19" s="8">
-        <f t="shared" ref="BQ19" si="26">BP19*(1+$AH$42)</f>
-        <v>8421.4909045389068</v>
-      </c>
-      <c r="BR19" s="8">
-        <f t="shared" ref="BR19" si="27">BQ19*(1+$AH$42)</f>
-        <v>8505.7058135842963</v>
-      </c>
-      <c r="BS19" s="8">
-        <f t="shared" ref="BS19" si="28">BR19*(1+$AH$42)</f>
-        <v>8590.7628717201387</v>
-      </c>
-      <c r="BT19" s="8">
-        <f t="shared" ref="BT19" si="29">BS19*(1+$AH$42)</f>
-        <v>8676.6705004373398</v>
-      </c>
-      <c r="BU19" s="8">
-        <f t="shared" ref="BU19" si="30">BT19*(1+$AH$42)</f>
-        <v>8763.4372054417126</v>
-      </c>
-      <c r="BV19" s="8">
-        <f t="shared" ref="BV19" si="31">BU19*(1+$AH$42)</f>
-        <v>8851.07157749613</v>
-      </c>
-      <c r="BW19" s="8">
-        <f t="shared" ref="BW19" si="32">BV19*(1+$AH$42)</f>
-        <v>8939.5822932710907</v>
-      </c>
-      <c r="BX19" s="8">
-        <f t="shared" ref="BX19" si="33">BW19*(1+$AH$42)</f>
-        <v>9028.9781162038016</v>
-      </c>
-      <c r="BY19" s="8">
-        <f t="shared" ref="BY19" si="34">BX19*(1+$AH$42)</f>
-        <v>9119.2678973658403</v>
-      </c>
-      <c r="BZ19" s="8">
-        <f t="shared" ref="BZ19" si="35">BY19*(1+$AH$42)</f>
-        <v>9210.4605763394993</v>
-      </c>
-      <c r="CA19" s="8">
-        <f t="shared" ref="CA19" si="36">BZ19*(1+$AH$42)</f>
-        <v>9302.5651821028951</v>
-      </c>
-      <c r="CB19" s="8">
-        <f t="shared" ref="CB19" si="37">CA19*(1+$AH$42)</f>
-        <v>9395.5908339239249</v>
-      </c>
-      <c r="CC19" s="8">
-        <f t="shared" ref="CC19" si="38">CB19*(1+$AH$42)</f>
-        <v>9489.5467422631646</v>
-      </c>
-      <c r="CD19" s="8">
-        <f t="shared" ref="CD19" si="39">CC19*(1+$AH$42)</f>
-        <v>9584.4422096857961</v>
-      </c>
-      <c r="CE19" s="8">
-        <f t="shared" ref="CE19" si="40">CD19*(1+$AH$42)</f>
-        <v>9680.2866317826538</v>
-      </c>
-      <c r="CF19" s="8">
-        <f t="shared" ref="CF19" si="41">CE19*(1+$AH$42)</f>
-        <v>9777.0894981004803</v>
-      </c>
-      <c r="CG19" s="8">
-        <f t="shared" ref="CG19" si="42">CF19*(1+$AH$42)</f>
-        <v>9874.8603930814861</v>
-      </c>
-      <c r="CH19" s="8">
-        <f t="shared" ref="CH19" si="43">CG19*(1+$AH$42)</f>
-        <v>9973.6089970123012</v>
-      </c>
-      <c r="CI19" s="8">
-        <f t="shared" ref="CI19" si="44">CH19*(1+$AH$42)</f>
-        <v>10073.345086982425</v>
-      </c>
-      <c r="CJ19" s="8">
-        <f t="shared" ref="CJ19" si="45">CI19*(1+$AH$42)</f>
-        <v>10174.078537852249</v>
-      </c>
-    </row>
-    <row r="20" spans="2:88">
-      <c r="B20" s="2" t="s">
+      <c r="AM19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN19" s="13">
+        <f>(AN17-AN18)/AN18</f>
+        <v>0.1325476050285217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:579" s="8" customFormat="1">
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+    </row>
+    <row r="21" spans="2:579">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>262.50900000000001</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>263.517</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>299.20600000000002</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>345.755</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>600.96</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>611.73900000000003</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <v>681.91600000000005</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="2">
         <v>680.89599999999996</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>635</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="2">
         <v>684</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="2">
         <v>683</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="2">
         <v>680</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="2">
         <v>670</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="2">
         <v>665</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
         <v>660</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R21" s="2">
         <v>662</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S21" s="2">
         <v>654</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T21" s="2">
         <v>649</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U21" s="2">
         <v>642</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V21" s="2">
         <v>645</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W21" s="21">
         <v>632</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="X21" s="21">
+        <v>621</v>
+      </c>
+      <c r="AA21" s="2">
         <v>345.755</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB21" s="2">
         <v>680.89599999999996</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC21" s="2">
         <v>680</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD21" s="2">
         <v>662</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE21" s="2">
         <v>645</v>
       </c>
-      <c r="AM20" s="8"/>
-    </row>
-    <row r="22" spans="2:88">
-      <c r="B22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="AM21" s="8"/>
+    </row>
+    <row r="22" spans="2:579" s="17" customFormat="1">
+      <c r="B22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="17">
+        <f>(D21-C21)/D21</f>
+        <v>3.8251801591547467E-3</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" ref="E22:W22" si="28">(E21-D21)/E21</f>
+        <v>0.11927902515323897</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="28"/>
+        <v>0.13463001258116289</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="28"/>
+        <v>0.42466220713525032</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="28"/>
+        <v>1.7620259620524433E-2</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="28"/>
+        <v>0.10291150229647056</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="28"/>
+        <v>-1.4980261302755423E-3</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="28"/>
+        <v>-7.2277165354330639E-2</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="28"/>
+        <v>7.1637426900584791E-2</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="28"/>
+        <v>-1.4641288433382138E-3</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="28"/>
+        <v>-4.4117647058823529E-3</v>
+      </c>
+      <c r="O22" s="17">
+        <f t="shared" si="28"/>
+        <v>-1.4925373134328358E-2</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="28"/>
+        <v>-7.5187969924812026E-3</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="28"/>
+        <v>-7.575757575757576E-3</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="28"/>
+        <v>3.0211480362537764E-3</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="28"/>
+        <v>-1.2232415902140673E-2</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="28"/>
+        <v>-7.7041602465331279E-3</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="28"/>
+        <v>-1.0903426791277258E-2</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="28"/>
+        <v>4.6511627906976744E-3</v>
+      </c>
+      <c r="W22" s="25">
+        <f t="shared" si="28"/>
+        <v>-2.0569620253164556E-2</v>
+      </c>
+      <c r="X22" s="25">
+        <f>(X21-W21)/X21</f>
+        <v>-1.7713365539452495E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:579">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2">
         <v>-562.9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>-256.89999999999998</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <v>338.3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F24" s="2">
         <v>-264.60000000000002</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>618</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>790</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <v>527.79999999999995</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J24" s="2">
         <v>382</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K24" s="2">
         <v>1202</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L24" s="2">
         <v>800</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M24" s="2">
         <v>965</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N24" s="2">
         <v>463</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O24" s="2">
         <v>1587</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P24" s="2">
         <v>909</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q24" s="2">
         <v>1325</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R24" s="2">
         <v>63</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S24" s="2">
         <v>1923</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T24" s="2">
         <v>1051</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U24" s="2">
         <v>1078</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V24" s="2">
         <v>466</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W24" s="21">
         <v>1789</v>
       </c>
-      <c r="AA22" s="2">
-        <f>SUM(C22:F22)</f>
+      <c r="X24" s="21">
+        <f>2764-1789</f>
+        <v>975</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>SUM(C24:F24)</f>
         <v>-746.09999999999991</v>
       </c>
-      <c r="AB22" s="2">
-        <f>SUM(G22:J22)</f>
+      <c r="AB24" s="2">
+        <f>SUM(G24:J24)</f>
         <v>2317.8000000000002</v>
       </c>
-      <c r="AC22" s="2">
-        <f>SUM(K22:N22)</f>
+      <c r="AC24" s="2">
+        <f>SUM(K24:N24)</f>
         <v>3430</v>
       </c>
-      <c r="AD22" s="2">
-        <f>SUM(O22:R22)</f>
+      <c r="AD24" s="2">
+        <f>SUM(O24:R24)</f>
         <v>3884</v>
       </c>
-      <c r="AE22" s="2">
-        <f>SUM(S22:V22)</f>
+      <c r="AE24" s="2">
+        <f>SUM(S24:V24)</f>
         <v>4518</v>
       </c>
     </row>
-    <row r="23" spans="2:88">
-      <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="25" spans="2:579">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2">
         <v>15.7</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>6.2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <v>7.6</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="2">
         <v>7.9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>7.7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>7.6</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I25" s="2">
         <v>5.6</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K25" s="2">
         <v>6</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L25" s="2">
         <v>5</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M25" s="2">
         <v>6</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N25" s="2">
         <v>8</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O25" s="2">
         <v>6</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q25" s="2">
         <v>15</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R25" s="2">
         <v>17</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S25" s="2">
         <v>14</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T25" s="2">
         <v>8</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U25" s="2">
         <v>4</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V25" s="2">
         <v>8</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W25" s="21">
         <v>8</v>
       </c>
-      <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AA24" si="46">SUM(C23:F23)</f>
+      <c r="X25" s="21">
+        <f>31-8</f>
+        <v>23</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25:AA26" si="29">SUM(C25:F25)</f>
         <v>37.4</v>
       </c>
-      <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AB24" si="47">SUM(G23:J23)</f>
+      <c r="AB25" s="2">
+        <f t="shared" ref="AB25:AB26" si="30">SUM(G25:J25)</f>
         <v>25.299999999999997</v>
       </c>
-      <c r="AC23" s="2">
-        <f t="shared" ref="AC23:AC24" si="48">SUM(K23:N23)</f>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25:AC26" si="31">SUM(K25:N25)</f>
         <v>25</v>
       </c>
-      <c r="AD23" s="2">
-        <f>SUM(O23:R23)</f>
+      <c r="AD25" s="2">
+        <f>SUM(O25:R25)</f>
         <v>47</v>
       </c>
-      <c r="AE23" s="2">
-        <f>SUM(S23:V23)</f>
+      <c r="AE25" s="2">
+        <f>SUM(S25:V25)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:88" s="8" customFormat="1">
-      <c r="B24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="8">
-        <f>C22-C23</f>
+    <row r="26" spans="2:579" s="8" customFormat="1">
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C24-C25</f>
         <v>-578.6</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:N24" si="49">D22-D23</f>
+      <c r="D26" s="8">
+        <f t="shared" ref="D26:N26" si="32">D24-D25</f>
         <v>-263.09999999999997</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" si="49"/>
+      <c r="E26" s="8">
+        <f t="shared" si="32"/>
         <v>330.7</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="49"/>
+      <c r="F26" s="8">
+        <f t="shared" si="32"/>
         <v>-272.5</v>
       </c>
-      <c r="G24" s="8">
-        <f t="shared" si="49"/>
+      <c r="G26" s="8">
+        <f t="shared" si="32"/>
         <v>610.29999999999995</v>
       </c>
-      <c r="H24" s="8">
-        <f t="shared" si="49"/>
+      <c r="H26" s="8">
+        <f t="shared" si="32"/>
         <v>782.4</v>
       </c>
-      <c r="I24" s="8">
-        <f t="shared" si="49"/>
+      <c r="I26" s="8">
+        <f t="shared" si="32"/>
         <v>522.19999999999993</v>
       </c>
-      <c r="J24" s="8">
-        <f t="shared" si="49"/>
+      <c r="J26" s="8">
+        <f t="shared" si="32"/>
         <v>377.6</v>
       </c>
-      <c r="K24" s="8">
-        <f t="shared" si="49"/>
+      <c r="K26" s="8">
+        <f t="shared" si="32"/>
         <v>1196</v>
       </c>
-      <c r="L24" s="8">
-        <f t="shared" si="49"/>
+      <c r="L26" s="8">
+        <f t="shared" si="32"/>
         <v>795</v>
       </c>
-      <c r="M24" s="8">
-        <f t="shared" si="49"/>
+      <c r="M26" s="8">
+        <f t="shared" si="32"/>
         <v>959</v>
       </c>
-      <c r="N24" s="8">
-        <f t="shared" si="49"/>
+      <c r="N26" s="8">
+        <f t="shared" si="32"/>
         <v>455</v>
       </c>
-      <c r="O24" s="8">
-        <f t="shared" ref="O24:W24" si="50">O22-O23</f>
+      <c r="O26" s="8">
+        <f t="shared" ref="O26:W26" si="33">O24-O25</f>
         <v>1581</v>
       </c>
-      <c r="P24" s="8">
-        <f t="shared" si="50"/>
+      <c r="P26" s="8">
+        <f t="shared" si="33"/>
         <v>900</v>
       </c>
-      <c r="Q24" s="8">
-        <f t="shared" si="50"/>
+      <c r="Q26" s="8">
+        <f t="shared" si="33"/>
         <v>1310</v>
       </c>
-      <c r="R24" s="8">
-        <f t="shared" si="50"/>
+      <c r="R26" s="8">
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
-      <c r="S24" s="8">
-        <f t="shared" si="50"/>
+      <c r="S26" s="8">
+        <f t="shared" si="33"/>
         <v>1909</v>
       </c>
-      <c r="T24" s="8">
-        <f t="shared" si="50"/>
+      <c r="T26" s="8">
+        <f t="shared" si="33"/>
         <v>1043</v>
       </c>
-      <c r="U24" s="8">
-        <f t="shared" si="50"/>
+      <c r="U26" s="8">
+        <f t="shared" si="33"/>
         <v>1074</v>
       </c>
-      <c r="V24" s="8">
-        <f t="shared" si="50"/>
+      <c r="V26" s="8">
+        <f t="shared" si="33"/>
         <v>458</v>
       </c>
-      <c r="W24" s="8">
-        <f t="shared" si="50"/>
+      <c r="W26" s="24">
+        <f t="shared" si="33"/>
         <v>1781</v>
       </c>
-      <c r="AA24" s="8">
-        <f t="shared" si="46"/>
+      <c r="X26" s="24">
+        <f t="shared" ref="X26" si="34">X24-X25</f>
+        <v>952</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="29"/>
         <v>-783.5</v>
       </c>
-      <c r="AB24" s="8">
-        <f t="shared" si="47"/>
+      <c r="AB26" s="8">
+        <f t="shared" si="30"/>
         <v>2292.4999999999995</v>
       </c>
-      <c r="AC24" s="8">
-        <f t="shared" si="48"/>
+      <c r="AC26" s="8">
+        <f t="shared" si="31"/>
         <v>3405</v>
       </c>
-      <c r="AD24" s="8">
-        <f>SUM(O24:R24)</f>
+      <c r="AD26" s="8">
+        <f>SUM(O26:R26)</f>
         <v>3837</v>
       </c>
-      <c r="AE24" s="8">
-        <f>SUM(S24:V24)</f>
+      <c r="AE26" s="8">
+        <f>SUM(S26:V26)</f>
         <v>4484</v>
       </c>
-      <c r="AF24" s="8">
-        <f>AE24*1.15</f>
+      <c r="AF26" s="8">
+        <f>AE26*1.15</f>
         <v>5156.5999999999995</v>
       </c>
-      <c r="AG24" s="8">
-        <f t="shared" ref="AG24:AK24" si="51">AF24*1.15</f>
+      <c r="AG26" s="8">
+        <f t="shared" ref="AG26:AK26" si="35">AF26*1.15</f>
         <v>5930.0899999999992</v>
       </c>
-      <c r="AH24" s="8">
-        <f t="shared" si="51"/>
+      <c r="AH26" s="8">
+        <f t="shared" si="35"/>
         <v>6819.6034999999983</v>
       </c>
-      <c r="AI24" s="8">
-        <f t="shared" si="51"/>
+      <c r="AI26" s="8">
+        <f t="shared" si="35"/>
         <v>7842.5440249999974</v>
       </c>
-      <c r="AJ24" s="8">
-        <f t="shared" si="51"/>
+      <c r="AJ26" s="8">
+        <f t="shared" si="35"/>
         <v>9018.9256287499957</v>
       </c>
-      <c r="AK24" s="8">
-        <f t="shared" si="51"/>
+      <c r="AK26" s="8">
+        <f t="shared" si="35"/>
         <v>10371.764473062494</v>
       </c>
-      <c r="AL24" s="8">
-        <f t="shared" ref="AK24:AU24" si="52">AK24*(1+$AK$42)</f>
-        <v>10268.04682833187</v>
-      </c>
-      <c r="AM24" s="8">
-        <f t="shared" si="52"/>
-        <v>10165.366360048551</v>
-      </c>
-      <c r="AN24" s="8">
-        <f t="shared" si="52"/>
-        <v>10063.712696448065</v>
-      </c>
-      <c r="AO24" s="8">
-        <f t="shared" si="52"/>
-        <v>9963.0755694835843</v>
-      </c>
-      <c r="AP24" s="8">
-        <f t="shared" si="52"/>
-        <v>9863.4448137887484</v>
-      </c>
-      <c r="AQ24" s="8">
-        <f t="shared" si="52"/>
-        <v>9764.8103656508611</v>
-      </c>
-      <c r="AR24" s="8">
-        <f t="shared" si="52"/>
-        <v>9667.1622619943519</v>
-      </c>
-      <c r="AS24" s="8">
-        <f t="shared" si="52"/>
-        <v>9570.4906393744077</v>
-      </c>
-      <c r="AT24" s="8">
-        <f t="shared" si="52"/>
-        <v>9474.7857329806629</v>
-      </c>
-      <c r="AU24" s="8">
-        <f t="shared" si="52"/>
-        <v>9380.0378756508562</v>
-      </c>
-      <c r="AV24" s="8">
-        <f t="shared" ref="AV24" si="53">AU24*(1+$AK$42)</f>
-        <v>9286.2374968943477</v>
-      </c>
-      <c r="AW24" s="8">
-        <f t="shared" ref="AW24" si="54">AV24*(1+$AK$42)</f>
-        <v>9193.3751219254045</v>
-      </c>
-      <c r="AX24" s="8">
-        <f t="shared" ref="AX24" si="55">AW24*(1+$AK$42)</f>
-        <v>9101.4413707061503</v>
-      </c>
-      <c r="AY24" s="8">
-        <f t="shared" ref="AY24" si="56">AX24*(1+$AK$42)</f>
-        <v>9010.4269569990884</v>
-      </c>
-      <c r="AZ24" s="8">
-        <f t="shared" ref="AZ24" si="57">AY24*(1+$AK$42)</f>
-        <v>8920.3226874290976</v>
-      </c>
-      <c r="BA24" s="8">
-        <f t="shared" ref="BA24" si="58">AZ24*(1+$AK$42)</f>
-        <v>8831.1194605548062</v>
-      </c>
-      <c r="BB24" s="8">
-        <f t="shared" ref="BB24" si="59">BA24*(1+$AK$42)</f>
-        <v>8742.8082659492575</v>
-      </c>
-      <c r="BC24" s="8">
-        <f t="shared" ref="BC24" si="60">BB24*(1+$AK$42)</f>
-        <v>8655.3801832897643</v>
-      </c>
-      <c r="BD24" s="8">
-        <f t="shared" ref="BD24" si="61">BC24*(1+$AK$42)</f>
-        <v>8568.8263814568672</v>
-      </c>
-      <c r="BE24" s="8">
-        <f t="shared" ref="BE24" si="62">BD24*(1+$AK$42)</f>
-        <v>8483.1381176422983</v>
-      </c>
-      <c r="BF24" s="8">
-        <f t="shared" ref="BF24" si="63">BE24*(1+$AK$42)</f>
-        <v>8398.3067364658746</v>
-      </c>
-      <c r="BG24" s="8">
-        <f t="shared" ref="BG24" si="64">BF24*(1+$AK$42)</f>
-        <v>8314.3236691012153</v>
-      </c>
-      <c r="BH24" s="8">
-        <f t="shared" ref="BH24" si="65">BG24*(1+$AK$42)</f>
-        <v>8231.1804324102031</v>
-      </c>
-      <c r="BI24" s="8">
-        <f t="shared" ref="BI24" si="66">BH24*(1+$AK$42)</f>
-        <v>8148.8686280861011</v>
-      </c>
-      <c r="BJ24" s="8">
-        <f t="shared" ref="BJ24" si="67">BI24*(1+$AK$42)</f>
-        <v>8067.3799418052404</v>
-      </c>
-      <c r="BK24" s="8">
-        <f t="shared" ref="BK24" si="68">BJ24*(1+$AK$42)</f>
-        <v>7986.7061423871883</v>
-      </c>
-      <c r="BL24" s="8">
-        <f t="shared" ref="BL24" si="69">BK24*(1+$AK$42)</f>
-        <v>7906.8390809633165</v>
-      </c>
-      <c r="BM24" s="8">
-        <f t="shared" ref="BM24" si="70">BL24*(1+$AK$42)</f>
-        <v>7827.7706901536831</v>
-      </c>
-      <c r="BN24" s="8">
-        <f t="shared" ref="BN24" si="71">BM24*(1+$AK$42)</f>
-        <v>7749.4929832521466</v>
-      </c>
-      <c r="BO24" s="8">
-        <f t="shared" ref="BO24" si="72">BN24*(1+$AK$42)</f>
-        <v>7671.9980534196247</v>
-      </c>
-      <c r="BP24" s="8">
-        <f t="shared" ref="BP24" si="73">BO24*(1+$AK$42)</f>
-        <v>7595.2780728854286</v>
-      </c>
-      <c r="BQ24" s="8">
-        <f t="shared" ref="BQ24" si="74">BP24*(1+$AK$42)</f>
-        <v>7519.3252921565745</v>
-      </c>
-      <c r="BR24" s="8">
-        <f t="shared" ref="BR24" si="75">BQ24*(1+$AK$42)</f>
-        <v>7444.132039235009</v>
-      </c>
-      <c r="BS24" s="8">
-        <f t="shared" ref="BS24" si="76">BR24*(1+$AK$42)</f>
-        <v>7369.6907188426585</v>
-      </c>
-      <c r="BT24" s="8">
-        <f t="shared" ref="BT24" si="77">BS24*(1+$AK$42)</f>
-        <v>7295.9938116542316</v>
-      </c>
-      <c r="BU24" s="8">
-        <f t="shared" ref="BU24" si="78">BT24*(1+$AK$42)</f>
-        <v>7223.033873537689</v>
-      </c>
-      <c r="BV24" s="8">
-        <f t="shared" ref="BV24" si="79">BU24*(1+$AK$42)</f>
-        <v>7150.8035348023122</v>
-      </c>
-      <c r="BW24" s="8">
-        <f t="shared" ref="BW24" si="80">BV24*(1+$AK$42)</f>
-        <v>7079.2954994542888</v>
-      </c>
-      <c r="BX24" s="8">
-        <f t="shared" ref="BX24" si="81">BW24*(1+$AK$42)</f>
-        <v>7008.5025444597459</v>
-      </c>
-      <c r="BY24" s="8">
-        <f t="shared" ref="BY24" si="82">BX24*(1+$AK$42)</f>
-        <v>6938.4175190151482</v>
-      </c>
-      <c r="BZ24" s="8">
-        <f t="shared" ref="BZ24" si="83">BY24*(1+$AK$42)</f>
-        <v>6869.0333438249963</v>
-      </c>
-      <c r="CA24" s="8">
-        <f t="shared" ref="CA24" si="84">BZ24*(1+$AK$42)</f>
-        <v>6800.3430103867468</v>
-      </c>
-      <c r="CB24" s="8">
-        <f t="shared" ref="CB24" si="85">CA24*(1+$AK$42)</f>
-        <v>6732.3395802828791</v>
-      </c>
-      <c r="CC24" s="8">
-        <f t="shared" ref="CC24" si="86">CB24*(1+$AK$42)</f>
-        <v>6665.0161844800505</v>
-      </c>
-      <c r="CD24" s="8">
-        <f t="shared" ref="CD24" si="87">CC24*(1+$AK$42)</f>
-        <v>6598.3660226352495</v>
-      </c>
-      <c r="CE24" s="8">
-        <f t="shared" ref="CE24" si="88">CD24*(1+$AK$42)</f>
-        <v>6532.3823624088973</v>
-      </c>
-      <c r="CF24" s="8">
-        <f t="shared" ref="CF24" si="89">CE24*(1+$AK$42)</f>
-        <v>6467.0585387848087</v>
-      </c>
-      <c r="CG24" s="8">
-        <f t="shared" ref="CG24" si="90">CF24*(1+$AK$42)</f>
-        <v>6402.3879533969603</v>
-      </c>
-      <c r="CH24" s="8">
-        <f t="shared" ref="CH24" si="91">CG24*(1+$AK$42)</f>
-        <v>6338.3640738629902</v>
-      </c>
-      <c r="CI24" s="8">
-        <f t="shared" ref="CI24" si="92">CH24*(1+$AK$42)</f>
-        <v>6274.9804331243604</v>
-      </c>
-      <c r="CJ24" s="8">
-        <f t="shared" ref="CJ24" si="93">CI24*(1+$AK$42)</f>
-        <v>6212.2306287931169</v>
-      </c>
-    </row>
-    <row r="26" spans="2:88" s="8" customFormat="1">
-      <c r="B26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" ref="G26:H26" si="94">(G6-C6)/C6</f>
+      <c r="AL26" s="8">
+        <f t="shared" ref="AL26:CW26" si="36">AK26*(1+$AN$15)</f>
+        <v>10579.199762523744</v>
+      </c>
+      <c r="AM26" s="8">
+        <f t="shared" si="36"/>
+        <v>10790.783757774219</v>
+      </c>
+      <c r="AN26" s="8">
+        <f t="shared" si="36"/>
+        <v>11006.599432929705</v>
+      </c>
+      <c r="AO26" s="8">
+        <f t="shared" si="36"/>
+        <v>11226.731421588298</v>
+      </c>
+      <c r="AP26" s="8">
+        <f t="shared" si="36"/>
+        <v>11451.266050020064</v>
+      </c>
+      <c r="AQ26" s="8">
+        <f t="shared" si="36"/>
+        <v>11680.291371020465</v>
+      </c>
+      <c r="AR26" s="8">
+        <f t="shared" si="36"/>
+        <v>11913.897198440874</v>
+      </c>
+      <c r="AS26" s="8">
+        <f t="shared" si="36"/>
+        <v>12152.175142409693</v>
+      </c>
+      <c r="AT26" s="8">
+        <f t="shared" si="36"/>
+        <v>12395.218645257886</v>
+      </c>
+      <c r="AU26" s="8">
+        <f t="shared" si="36"/>
+        <v>12643.123018163044</v>
+      </c>
+      <c r="AV26" s="8">
+        <f t="shared" si="36"/>
+        <v>12895.985478526305</v>
+      </c>
+      <c r="AW26" s="8">
+        <f t="shared" si="36"/>
+        <v>13153.905188096831</v>
+      </c>
+      <c r="AX26" s="8">
+        <f t="shared" si="36"/>
+        <v>13416.983291858767</v>
+      </c>
+      <c r="AY26" s="8">
+        <f t="shared" si="36"/>
+        <v>13685.322957695942</v>
+      </c>
+      <c r="AZ26" s="8">
+        <f t="shared" si="36"/>
+        <v>13959.02941684986</v>
+      </c>
+      <c r="BA26" s="8">
+        <f t="shared" si="36"/>
+        <v>14238.210005186858</v>
+      </c>
+      <c r="BB26" s="8">
+        <f t="shared" si="36"/>
+        <v>14522.974205290595</v>
+      </c>
+      <c r="BC26" s="8">
+        <f t="shared" si="36"/>
+        <v>14813.433689396406</v>
+      </c>
+      <c r="BD26" s="8">
+        <f t="shared" si="36"/>
+        <v>15109.702363184335</v>
+      </c>
+      <c r="BE26" s="8">
+        <f t="shared" si="36"/>
+        <v>15411.896410448022</v>
+      </c>
+      <c r="BF26" s="8">
+        <f t="shared" si="36"/>
+        <v>15720.134338656982</v>
+      </c>
+      <c r="BG26" s="8">
+        <f t="shared" si="36"/>
+        <v>16034.537025430122</v>
+      </c>
+      <c r="BH26" s="8">
+        <f t="shared" si="36"/>
+        <v>16355.227765938724</v>
+      </c>
+      <c r="BI26" s="8">
+        <f t="shared" si="36"/>
+        <v>16682.332321257498</v>
+      </c>
+      <c r="BJ26" s="8">
+        <f t="shared" si="36"/>
+        <v>17015.978967682648</v>
+      </c>
+      <c r="BK26" s="8">
+        <f t="shared" si="36"/>
+        <v>17356.298547036302</v>
+      </c>
+      <c r="BL26" s="8">
+        <f t="shared" si="36"/>
+        <v>17703.42451797703</v>
+      </c>
+      <c r="BM26" s="8">
+        <f t="shared" si="36"/>
+        <v>18057.493008336569</v>
+      </c>
+      <c r="BN26" s="8">
+        <f t="shared" si="36"/>
+        <v>18418.642868503299</v>
+      </c>
+      <c r="BO26" s="8">
+        <f t="shared" si="36"/>
+        <v>18787.015725873363</v>
+      </c>
+      <c r="BP26" s="8">
+        <f t="shared" si="36"/>
+        <v>19162.756040390832</v>
+      </c>
+      <c r="BQ26" s="8">
+        <f t="shared" si="36"/>
+        <v>19546.01116119865</v>
+      </c>
+      <c r="BR26" s="8">
+        <f t="shared" si="36"/>
+        <v>19936.931384422624</v>
+      </c>
+      <c r="BS26" s="8">
+        <f t="shared" si="36"/>
+        <v>20335.670012111077</v>
+      </c>
+      <c r="BT26" s="8">
+        <f t="shared" si="36"/>
+        <v>20742.383412353298</v>
+      </c>
+      <c r="BU26" s="8">
+        <f t="shared" si="36"/>
+        <v>21157.231080600362</v>
+      </c>
+      <c r="BV26" s="8">
+        <f t="shared" si="36"/>
+        <v>21580.375702212372</v>
+      </c>
+      <c r="BW26" s="8">
+        <f t="shared" si="36"/>
+        <v>22011.98321625662</v>
+      </c>
+      <c r="BX26" s="8">
+        <f t="shared" si="36"/>
+        <v>22452.222880581754</v>
+      </c>
+      <c r="BY26" s="8">
+        <f t="shared" si="36"/>
+        <v>22901.267338193389</v>
+      </c>
+      <c r="BZ26" s="8">
+        <f t="shared" si="36"/>
+        <v>23359.292684957258</v>
+      </c>
+      <c r="CA26" s="8">
+        <f t="shared" si="36"/>
+        <v>23826.478538656404</v>
+      </c>
+      <c r="CB26" s="8">
+        <f t="shared" si="36"/>
+        <v>24303.008109429531</v>
+      </c>
+      <c r="CC26" s="8">
+        <f t="shared" si="36"/>
+        <v>24789.068271618122</v>
+      </c>
+      <c r="CD26" s="8">
+        <f t="shared" si="36"/>
+        <v>25284.849637050484</v>
+      </c>
+      <c r="CE26" s="8">
+        <f t="shared" si="36"/>
+        <v>25790.546629791494</v>
+      </c>
+      <c r="CF26" s="8">
+        <f t="shared" si="36"/>
+        <v>26306.357562387326</v>
+      </c>
+      <c r="CG26" s="8">
+        <f t="shared" si="36"/>
+        <v>26832.484713635073</v>
+      </c>
+      <c r="CH26" s="8">
+        <f t="shared" si="36"/>
+        <v>27369.134407907775</v>
+      </c>
+      <c r="CI26" s="8">
+        <f t="shared" si="36"/>
+        <v>27916.517096065931</v>
+      </c>
+      <c r="CJ26" s="8">
+        <f t="shared" si="36"/>
+        <v>28474.84743798725</v>
+      </c>
+      <c r="CK26" s="8">
+        <f t="shared" si="36"/>
+        <v>29044.344386746994</v>
+      </c>
+      <c r="CL26" s="8">
+        <f t="shared" si="36"/>
+        <v>29625.231274481936</v>
+      </c>
+      <c r="CM26" s="8">
+        <f t="shared" si="36"/>
+        <v>30217.735899971576</v>
+      </c>
+      <c r="CN26" s="8">
+        <f t="shared" si="36"/>
+        <v>30822.090617971007</v>
+      </c>
+      <c r="CO26" s="8">
+        <f t="shared" si="36"/>
+        <v>31438.53243033043</v>
+      </c>
+      <c r="CP26" s="8">
+        <f t="shared" si="36"/>
+        <v>32067.303078937039</v>
+      </c>
+      <c r="CQ26" s="8">
+        <f t="shared" si="36"/>
+        <v>32708.649140515779</v>
+      </c>
+      <c r="CR26" s="8">
+        <f t="shared" si="36"/>
+        <v>33362.822123326099</v>
+      </c>
+      <c r="CS26" s="8">
+        <f t="shared" si="36"/>
+        <v>34030.078565792624</v>
+      </c>
+      <c r="CT26" s="8">
+        <f t="shared" si="36"/>
+        <v>34710.68013710848</v>
+      </c>
+      <c r="CU26" s="8">
+        <f t="shared" si="36"/>
+        <v>35404.893739850653</v>
+      </c>
+      <c r="CV26" s="8">
+        <f t="shared" si="36"/>
+        <v>36112.991614647668</v>
+      </c>
+      <c r="CW26" s="8">
+        <f t="shared" si="36"/>
+        <v>36835.251446940623</v>
+      </c>
+      <c r="CX26" s="8">
+        <f t="shared" ref="CX26:FI26" si="37">CW26*(1+$AN$15)</f>
+        <v>37571.956475879437</v>
+      </c>
+      <c r="CY26" s="8">
+        <f t="shared" si="37"/>
+        <v>38323.395605397025</v>
+      </c>
+      <c r="CZ26" s="8">
+        <f t="shared" si="37"/>
+        <v>39089.863517504964</v>
+      </c>
+      <c r="DA26" s="8">
+        <f t="shared" si="37"/>
+        <v>39871.660787855064</v>
+      </c>
+      <c r="DB26" s="8">
+        <f t="shared" si="37"/>
+        <v>40669.094003612168</v>
+      </c>
+      <c r="DC26" s="8">
+        <f t="shared" si="37"/>
+        <v>41482.475883684412</v>
+      </c>
+      <c r="DD26" s="8">
+        <f t="shared" si="37"/>
+        <v>42312.125401358098</v>
+      </c>
+      <c r="DE26" s="8">
+        <f t="shared" si="37"/>
+        <v>43158.367909385262</v>
+      </c>
+      <c r="DF26" s="8">
+        <f t="shared" si="37"/>
+        <v>44021.535267572966</v>
+      </c>
+      <c r="DG26" s="8">
+        <f t="shared" si="37"/>
+        <v>44901.965972924423</v>
+      </c>
+      <c r="DH26" s="8">
+        <f t="shared" si="37"/>
+        <v>45800.005292382913</v>
+      </c>
+      <c r="DI26" s="8">
+        <f t="shared" si="37"/>
+        <v>46716.005398230569</v>
+      </c>
+      <c r="DJ26" s="8">
+        <f t="shared" si="37"/>
+        <v>47650.325506195179</v>
+      </c>
+      <c r="DK26" s="8">
+        <f t="shared" si="37"/>
+        <v>48603.33201631908</v>
+      </c>
+      <c r="DL26" s="8">
+        <f t="shared" si="37"/>
+        <v>49575.398656645462</v>
+      </c>
+      <c r="DM26" s="8">
+        <f t="shared" si="37"/>
+        <v>50566.906629778372</v>
+      </c>
+      <c r="DN26" s="8">
+        <f t="shared" si="37"/>
+        <v>51578.244762373943</v>
+      </c>
+      <c r="DO26" s="8">
+        <f t="shared" si="37"/>
+        <v>52609.809657621423</v>
+      </c>
+      <c r="DP26" s="8">
+        <f t="shared" si="37"/>
+        <v>53662.00585077385</v>
+      </c>
+      <c r="DQ26" s="8">
+        <f t="shared" si="37"/>
+        <v>54735.245967789328</v>
+      </c>
+      <c r="DR26" s="8">
+        <f t="shared" si="37"/>
+        <v>55829.950887145118</v>
+      </c>
+      <c r="DS26" s="8">
+        <f t="shared" si="37"/>
+        <v>56946.549904888023</v>
+      </c>
+      <c r="DT26" s="8">
+        <f t="shared" si="37"/>
+        <v>58085.480902985786</v>
+      </c>
+      <c r="DU26" s="8">
+        <f t="shared" si="37"/>
+        <v>59247.190521045501</v>
+      </c>
+      <c r="DV26" s="8">
+        <f t="shared" si="37"/>
+        <v>60432.134331466412</v>
+      </c>
+      <c r="DW26" s="8">
+        <f t="shared" si="37"/>
+        <v>61640.777018095738</v>
+      </c>
+      <c r="DX26" s="8">
+        <f t="shared" si="37"/>
+        <v>62873.592558457654</v>
+      </c>
+      <c r="DY26" s="8">
+        <f t="shared" si="37"/>
+        <v>64131.064409626808</v>
+      </c>
+      <c r="DZ26" s="8">
+        <f t="shared" si="37"/>
+        <v>65413.685697819346</v>
+      </c>
+      <c r="EA26" s="8">
+        <f t="shared" si="37"/>
+        <v>66721.959411775737</v>
+      </c>
+      <c r="EB26" s="8">
+        <f t="shared" si="37"/>
+        <v>68056.398600011249</v>
+      </c>
+      <c r="EC26" s="8">
+        <f t="shared" si="37"/>
+        <v>69417.526572011469</v>
+      </c>
+      <c r="ED26" s="8">
+        <f t="shared" si="37"/>
+        <v>70805.877103451698</v>
+      </c>
+      <c r="EE26" s="8">
+        <f t="shared" si="37"/>
+        <v>72221.994645520739</v>
+      </c>
+      <c r="EF26" s="8">
+        <f t="shared" si="37"/>
+        <v>73666.43453843116</v>
+      </c>
+      <c r="EG26" s="8">
+        <f t="shared" si="37"/>
+        <v>75139.763229199787</v>
+      </c>
+      <c r="EH26" s="8">
+        <f t="shared" si="37"/>
+        <v>76642.558493783785</v>
+      </c>
+      <c r="EI26" s="8">
+        <f t="shared" si="37"/>
+        <v>78175.409663659462</v>
+      </c>
+      <c r="EJ26" s="8">
+        <f t="shared" si="37"/>
+        <v>79738.917856932647</v>
+      </c>
+      <c r="EK26" s="8">
+        <f t="shared" si="37"/>
+        <v>81333.6962140713</v>
+      </c>
+      <c r="EL26" s="8">
+        <f t="shared" si="37"/>
+        <v>82960.370138352722</v>
+      </c>
+      <c r="EM26" s="8">
+        <f t="shared" si="37"/>
+        <v>84619.577541119783</v>
+      </c>
+      <c r="EN26" s="8">
+        <f t="shared" si="37"/>
+        <v>86311.969091942185</v>
+      </c>
+      <c r="EO26" s="8">
+        <f t="shared" si="37"/>
+        <v>88038.208473781036</v>
+      </c>
+      <c r="EP26" s="8">
+        <f t="shared" si="37"/>
+        <v>89798.972643256653</v>
+      </c>
+      <c r="EQ26" s="8">
+        <f t="shared" si="37"/>
+        <v>91594.952096121793</v>
+      </c>
+      <c r="ER26" s="8">
+        <f t="shared" si="37"/>
+        <v>93426.851138044236</v>
+      </c>
+      <c r="ES26" s="8">
+        <f t="shared" si="37"/>
+        <v>95295.388160805116</v>
+      </c>
+      <c r="ET26" s="8">
+        <f t="shared" si="37"/>
+        <v>97201.295924021222</v>
+      </c>
+      <c r="EU26" s="8">
+        <f t="shared" si="37"/>
+        <v>99145.321842501653</v>
+      </c>
+      <c r="EV26" s="8">
+        <f t="shared" si="37"/>
+        <v>101128.22827935169</v>
+      </c>
+      <c r="EW26" s="8">
+        <f t="shared" si="37"/>
+        <v>103150.79284493873</v>
+      </c>
+      <c r="EX26" s="8">
+        <f t="shared" si="37"/>
+        <v>105213.80870183751</v>
+      </c>
+      <c r="EY26" s="8">
+        <f t="shared" si="37"/>
+        <v>107318.08487587426</v>
+      </c>
+      <c r="EZ26" s="8">
+        <f t="shared" si="37"/>
+        <v>109464.44657339175</v>
+      </c>
+      <c r="FA26" s="8">
+        <f t="shared" si="37"/>
+        <v>111653.73550485958</v>
+      </c>
+      <c r="FB26" s="8">
+        <f t="shared" si="37"/>
+        <v>113886.81021495677</v>
+      </c>
+      <c r="FC26" s="8">
+        <f t="shared" si="37"/>
+        <v>116164.54641925592</v>
+      </c>
+      <c r="FD26" s="8">
+        <f t="shared" si="37"/>
+        <v>118487.83734764103</v>
+      </c>
+      <c r="FE26" s="8">
+        <f t="shared" si="37"/>
+        <v>120857.59409459386</v>
+      </c>
+      <c r="FF26" s="8">
+        <f t="shared" si="37"/>
+        <v>123274.74597648575</v>
+      </c>
+      <c r="FG26" s="8">
+        <f t="shared" si="37"/>
+        <v>125740.24089601547</v>
+      </c>
+      <c r="FH26" s="8">
+        <f t="shared" si="37"/>
+        <v>128255.04571393579</v>
+      </c>
+      <c r="FI26" s="8">
+        <f t="shared" si="37"/>
+        <v>130820.14662821451</v>
+      </c>
+      <c r="FJ26" s="8">
+        <f t="shared" ref="FJ26:HU26" si="38">FI26*(1+$AN$15)</f>
+        <v>133436.5495607788</v>
+      </c>
+      <c r="FK26" s="8">
+        <f t="shared" si="38"/>
+        <v>136105.28055199439</v>
+      </c>
+      <c r="FL26" s="8">
+        <f t="shared" si="38"/>
+        <v>138827.38616303427</v>
+      </c>
+      <c r="FM26" s="8">
+        <f t="shared" si="38"/>
+        <v>141603.93388629495</v>
+      </c>
+      <c r="FN26" s="8">
+        <f t="shared" si="38"/>
+        <v>144436.01256402084</v>
+      </c>
+      <c r="FO26" s="8">
+        <f t="shared" si="38"/>
+        <v>147324.73281530125</v>
+      </c>
+      <c r="FP26" s="8">
+        <f t="shared" si="38"/>
+        <v>150271.22747160727</v>
+      </c>
+      <c r="FQ26" s="8">
+        <f t="shared" si="38"/>
+        <v>153276.65202103942</v>
+      </c>
+      <c r="FR26" s="8">
+        <f t="shared" si="38"/>
+        <v>156342.18506146022</v>
+      </c>
+      <c r="FS26" s="8">
+        <f t="shared" si="38"/>
+        <v>159469.02876268941</v>
+      </c>
+      <c r="FT26" s="8">
+        <f t="shared" si="38"/>
+        <v>162658.40933794322</v>
+      </c>
+      <c r="FU26" s="8">
+        <f t="shared" si="38"/>
+        <v>165911.57752470209</v>
+      </c>
+      <c r="FV26" s="8">
+        <f t="shared" si="38"/>
+        <v>169229.80907519613</v>
+      </c>
+      <c r="FW26" s="8">
+        <f t="shared" si="38"/>
+        <v>172614.40525670006</v>
+      </c>
+      <c r="FX26" s="8">
+        <f t="shared" si="38"/>
+        <v>176066.69336183407</v>
+      </c>
+      <c r="FY26" s="8">
+        <f t="shared" si="38"/>
+        <v>179588.02722907075</v>
+      </c>
+      <c r="FZ26" s="8">
+        <f t="shared" si="38"/>
+        <v>183179.78777365218</v>
+      </c>
+      <c r="GA26" s="8">
+        <f t="shared" si="38"/>
+        <v>186843.38352912522</v>
+      </c>
+      <c r="GB26" s="8">
+        <f t="shared" si="38"/>
+        <v>190580.25119970774</v>
+      </c>
+      <c r="GC26" s="8">
+        <f t="shared" si="38"/>
+        <v>194391.85622370191</v>
+      </c>
+      <c r="GD26" s="8">
+        <f t="shared" si="38"/>
+        <v>198279.69334817596</v>
+      </c>
+      <c r="GE26" s="8">
+        <f t="shared" si="38"/>
+        <v>202245.28721513948</v>
+      </c>
+      <c r="GF26" s="8">
+        <f t="shared" si="38"/>
+        <v>206290.19295944227</v>
+      </c>
+      <c r="GG26" s="8">
+        <f t="shared" si="38"/>
+        <v>210415.99681863113</v>
+      </c>
+      <c r="GH26" s="8">
+        <f t="shared" si="38"/>
+        <v>214624.31675500376</v>
+      </c>
+      <c r="GI26" s="8">
+        <f t="shared" si="38"/>
+        <v>218916.80309010384</v>
+      </c>
+      <c r="GJ26" s="8">
+        <f t="shared" si="38"/>
+        <v>223295.13915190593</v>
+      </c>
+      <c r="GK26" s="8">
+        <f t="shared" si="38"/>
+        <v>227761.04193494405</v>
+      </c>
+      <c r="GL26" s="8">
+        <f t="shared" si="38"/>
+        <v>232316.26277364293</v>
+      </c>
+      <c r="GM26" s="8">
+        <f t="shared" si="38"/>
+        <v>236962.58802911578</v>
+      </c>
+      <c r="GN26" s="8">
+        <f t="shared" si="38"/>
+        <v>241701.8397896981</v>
+      </c>
+      <c r="GO26" s="8">
+        <f t="shared" si="38"/>
+        <v>246535.87658549208</v>
+      </c>
+      <c r="GP26" s="8">
+        <f t="shared" si="38"/>
+        <v>251466.59411720192</v>
+      </c>
+      <c r="GQ26" s="8">
+        <f t="shared" si="38"/>
+        <v>256495.92599954596</v>
+      </c>
+      <c r="GR26" s="8">
+        <f t="shared" si="38"/>
+        <v>261625.84451953688</v>
+      </c>
+      <c r="GS26" s="8">
+        <f t="shared" si="38"/>
+        <v>266858.3614099276</v>
+      </c>
+      <c r="GT26" s="8">
+        <f t="shared" si="38"/>
+        <v>272195.52863812615</v>
+      </c>
+      <c r="GU26" s="8">
+        <f t="shared" si="38"/>
+        <v>277639.4392108887</v>
+      </c>
+      <c r="GV26" s="8">
+        <f t="shared" si="38"/>
+        <v>283192.22799510648</v>
+      </c>
+      <c r="GW26" s="8">
+        <f t="shared" si="38"/>
+        <v>288856.07255500864</v>
+      </c>
+      <c r="GX26" s="8">
+        <f t="shared" si="38"/>
+        <v>294633.1940061088</v>
+      </c>
+      <c r="GY26" s="8">
+        <f t="shared" si="38"/>
+        <v>300525.85788623098</v>
+      </c>
+      <c r="GZ26" s="8">
+        <f t="shared" si="38"/>
+        <v>306536.37504395563</v>
+      </c>
+      <c r="HA26" s="8">
+        <f t="shared" si="38"/>
+        <v>312667.10254483472</v>
+      </c>
+      <c r="HB26" s="8">
+        <f t="shared" si="38"/>
+        <v>318920.44459573145</v>
+      </c>
+      <c r="HC26" s="8">
+        <f t="shared" si="38"/>
+        <v>325298.85348764609</v>
+      </c>
+      <c r="HD26" s="8">
+        <f t="shared" si="38"/>
+        <v>331804.83055739902</v>
+      </c>
+      <c r="HE26" s="8">
+        <f t="shared" si="38"/>
+        <v>338440.927168547</v>
+      </c>
+      <c r="HF26" s="8">
+        <f t="shared" si="38"/>
+        <v>345209.74571191793</v>
+      </c>
+      <c r="HG26" s="8">
+        <f t="shared" si="38"/>
+        <v>352113.94062615628</v>
+      </c>
+      <c r="HH26" s="8">
+        <f t="shared" si="38"/>
+        <v>359156.2194386794</v>
+      </c>
+      <c r="HI26" s="8">
+        <f t="shared" si="38"/>
+        <v>366339.34382745298</v>
+      </c>
+      <c r="HJ26" s="8">
+        <f t="shared" si="38"/>
+        <v>373666.13070400205</v>
+      </c>
+      <c r="HK26" s="8">
+        <f t="shared" si="38"/>
+        <v>381139.45331808209</v>
+      </c>
+      <c r="HL26" s="8">
+        <f t="shared" si="38"/>
+        <v>388762.24238444376</v>
+      </c>
+      <c r="HM26" s="8">
+        <f t="shared" si="38"/>
+        <v>396537.48723213264</v>
+      </c>
+      <c r="HN26" s="8">
+        <f t="shared" si="38"/>
+        <v>404468.23697677528</v>
+      </c>
+      <c r="HO26" s="8">
+        <f t="shared" si="38"/>
+        <v>412557.60171631078</v>
+      </c>
+      <c r="HP26" s="8">
+        <f t="shared" si="38"/>
+        <v>420808.753750637</v>
+      </c>
+      <c r="HQ26" s="8">
+        <f t="shared" si="38"/>
+        <v>429224.92882564972</v>
+      </c>
+      <c r="HR26" s="8">
+        <f t="shared" si="38"/>
+        <v>437809.42740216275</v>
+      </c>
+      <c r="HS26" s="8">
+        <f t="shared" si="38"/>
+        <v>446565.615950206</v>
+      </c>
+      <c r="HT26" s="8">
+        <f t="shared" si="38"/>
+        <v>455496.92826921016</v>
+      </c>
+      <c r="HU26" s="8">
+        <f t="shared" si="38"/>
+        <v>464606.86683459434</v>
+      </c>
+      <c r="HV26" s="8">
+        <f t="shared" ref="HV26:KG26" si="39">HU26*(1+$AN$15)</f>
+        <v>473899.00417128624</v>
+      </c>
+      <c r="HW26" s="8">
+        <f t="shared" si="39"/>
+        <v>483376.98425471201</v>
+      </c>
+      <c r="HX26" s="8">
+        <f t="shared" si="39"/>
+        <v>493044.52393980627</v>
+      </c>
+      <c r="HY26" s="8">
+        <f t="shared" si="39"/>
+        <v>502905.41441860242</v>
+      </c>
+      <c r="HZ26" s="8">
+        <f t="shared" si="39"/>
+        <v>512963.52270697447</v>
+      </c>
+      <c r="IA26" s="8">
+        <f t="shared" si="39"/>
+        <v>523222.79316111398</v>
+      </c>
+      <c r="IB26" s="8">
+        <f t="shared" si="39"/>
+        <v>533687.24902433623</v>
+      </c>
+      <c r="IC26" s="8">
+        <f t="shared" si="39"/>
+        <v>544360.99400482292</v>
+      </c>
+      <c r="ID26" s="8">
+        <f t="shared" si="39"/>
+        <v>555248.21388491942</v>
+      </c>
+      <c r="IE26" s="8">
+        <f t="shared" si="39"/>
+        <v>566353.17816261784</v>
+      </c>
+      <c r="IF26" s="8">
+        <f t="shared" si="39"/>
+        <v>577680.24172587018</v>
+      </c>
+      <c r="IG26" s="8">
+        <f t="shared" si="39"/>
+        <v>589233.84656038764</v>
+      </c>
+      <c r="IH26" s="8">
+        <f t="shared" si="39"/>
+        <v>601018.52349159541</v>
+      </c>
+      <c r="II26" s="8">
+        <f t="shared" si="39"/>
+        <v>613038.89396142727</v>
+      </c>
+      <c r="IJ26" s="8">
+        <f t="shared" si="39"/>
+        <v>625299.67184065585</v>
+      </c>
+      <c r="IK26" s="8">
+        <f t="shared" si="39"/>
+        <v>637805.66527746897</v>
+      </c>
+      <c r="IL26" s="8">
+        <f t="shared" si="39"/>
+        <v>650561.77858301834</v>
+      </c>
+      <c r="IM26" s="8">
+        <f t="shared" si="39"/>
+        <v>663573.01415467868</v>
+      </c>
+      <c r="IN26" s="8">
+        <f t="shared" si="39"/>
+        <v>676844.4744377723</v>
+      </c>
+      <c r="IO26" s="8">
+        <f t="shared" si="39"/>
+        <v>690381.36392652779</v>
+      </c>
+      <c r="IP26" s="8">
+        <f t="shared" si="39"/>
+        <v>704188.99120505841</v>
+      </c>
+      <c r="IQ26" s="8">
+        <f t="shared" si="39"/>
+        <v>718272.77102915954</v>
+      </c>
+      <c r="IR26" s="8">
+        <f t="shared" si="39"/>
+        <v>732638.2264497428</v>
+      </c>
+      <c r="IS26" s="8">
+        <f t="shared" si="39"/>
+        <v>747290.99097873771</v>
+      </c>
+      <c r="IT26" s="8">
+        <f t="shared" si="39"/>
+        <v>762236.81079831242</v>
+      </c>
+      <c r="IU26" s="8">
+        <f t="shared" si="39"/>
+        <v>777481.54701427871</v>
+      </c>
+      <c r="IV26" s="8">
+        <f t="shared" si="39"/>
+        <v>793031.17795456434</v>
+      </c>
+      <c r="IW26" s="8">
+        <f t="shared" si="39"/>
+        <v>808891.80151365569</v>
+      </c>
+      <c r="IX26" s="8">
+        <f t="shared" si="39"/>
+        <v>825069.63754392881</v>
+      </c>
+      <c r="IY26" s="8">
+        <f t="shared" si="39"/>
+        <v>841571.03029480739</v>
+      </c>
+      <c r="IZ26" s="8">
+        <f t="shared" si="39"/>
+        <v>858402.45090070355</v>
+      </c>
+      <c r="JA26" s="8">
+        <f t="shared" si="39"/>
+        <v>875570.49991871766</v>
+      </c>
+      <c r="JB26" s="8">
+        <f t="shared" si="39"/>
+        <v>893081.90991709207</v>
+      </c>
+      <c r="JC26" s="8">
+        <f t="shared" si="39"/>
+        <v>910943.54811543389</v>
+      </c>
+      <c r="JD26" s="8">
+        <f t="shared" si="39"/>
+        <v>929162.41907774261</v>
+      </c>
+      <c r="JE26" s="8">
+        <f t="shared" si="39"/>
+        <v>947745.66745929746</v>
+      </c>
+      <c r="JF26" s="8">
+        <f t="shared" si="39"/>
+        <v>966700.58080848341</v>
+      </c>
+      <c r="JG26" s="8">
+        <f t="shared" si="39"/>
+        <v>986034.59242465312</v>
+      </c>
+      <c r="JH26" s="8">
+        <f t="shared" si="39"/>
+        <v>1005755.2842731462</v>
+      </c>
+      <c r="JI26" s="8">
+        <f t="shared" si="39"/>
+        <v>1025870.3899586091</v>
+      </c>
+      <c r="JJ26" s="8">
+        <f t="shared" si="39"/>
+        <v>1046387.7977577813</v>
+      </c>
+      <c r="JK26" s="8">
+        <f t="shared" si="39"/>
+        <v>1067315.553712937</v>
+      </c>
+      <c r="JL26" s="8">
+        <f t="shared" si="39"/>
+        <v>1088661.8647871958</v>
+      </c>
+      <c r="JM26" s="8">
+        <f t="shared" si="39"/>
+        <v>1110435.1020829398</v>
+      </c>
+      <c r="JN26" s="8">
+        <f t="shared" si="39"/>
+        <v>1132643.8041245986</v>
+      </c>
+      <c r="JO26" s="8">
+        <f t="shared" si="39"/>
+        <v>1155296.6802070907</v>
+      </c>
+      <c r="JP26" s="8">
+        <f t="shared" si="39"/>
+        <v>1178402.6138112326</v>
+      </c>
+      <c r="JQ26" s="8">
+        <f t="shared" si="39"/>
+        <v>1201970.6660874572</v>
+      </c>
+      <c r="JR26" s="8">
+        <f t="shared" si="39"/>
+        <v>1226010.0794092063</v>
+      </c>
+      <c r="JS26" s="8">
+        <f t="shared" si="39"/>
+        <v>1250530.2809973904</v>
+      </c>
+      <c r="JT26" s="8">
+        <f t="shared" si="39"/>
+        <v>1275540.8866173383</v>
+      </c>
+      <c r="JU26" s="8">
+        <f t="shared" si="39"/>
+        <v>1301051.704349685</v>
+      </c>
+      <c r="JV26" s="8">
+        <f t="shared" si="39"/>
+        <v>1327072.7384366787</v>
+      </c>
+      <c r="JW26" s="8">
+        <f t="shared" si="39"/>
+        <v>1353614.1932054122</v>
+      </c>
+      <c r="JX26" s="8">
+        <f t="shared" si="39"/>
+        <v>1380686.4770695206</v>
+      </c>
+      <c r="JY26" s="8">
+        <f t="shared" si="39"/>
+        <v>1408300.2066109111</v>
+      </c>
+      <c r="JZ26" s="8">
+        <f t="shared" si="39"/>
+        <v>1436466.2107431293</v>
+      </c>
+      <c r="KA26" s="8">
+        <f t="shared" si="39"/>
+        <v>1465195.5349579919</v>
+      </c>
+      <c r="KB26" s="8">
+        <f t="shared" si="39"/>
+        <v>1494499.4456571518</v>
+      </c>
+      <c r="KC26" s="8">
+        <f t="shared" si="39"/>
+        <v>1524389.4345702948</v>
+      </c>
+      <c r="KD26" s="8">
+        <f t="shared" si="39"/>
+        <v>1554877.2232617007</v>
+      </c>
+      <c r="KE26" s="8">
+        <f t="shared" si="39"/>
+        <v>1585974.7677269347</v>
+      </c>
+      <c r="KF26" s="8">
+        <f t="shared" si="39"/>
+        <v>1617694.2630814735</v>
+      </c>
+      <c r="KG26" s="8">
+        <f t="shared" si="39"/>
+        <v>1650048.148343103</v>
+      </c>
+      <c r="KH26" s="8">
+        <f t="shared" ref="KH26:MS26" si="40">KG26*(1+$AN$15)</f>
+        <v>1683049.1113099651</v>
+      </c>
+      <c r="KI26" s="8">
+        <f t="shared" si="40"/>
+        <v>1716710.0935361644</v>
+      </c>
+      <c r="KJ26" s="8">
+        <f t="shared" si="40"/>
+        <v>1751044.2954068878</v>
+      </c>
+      <c r="KK26" s="8">
+        <f t="shared" si="40"/>
+        <v>1786065.1813150255</v>
+      </c>
+      <c r="KL26" s="8">
+        <f t="shared" si="40"/>
+        <v>1821786.4849413261</v>
+      </c>
+      <c r="KM26" s="8">
+        <f t="shared" si="40"/>
+        <v>1858222.2146401526</v>
+      </c>
+      <c r="KN26" s="8">
+        <f t="shared" si="40"/>
+        <v>1895386.6589329557</v>
+      </c>
+      <c r="KO26" s="8">
+        <f t="shared" si="40"/>
+        <v>1933294.3921116148</v>
+      </c>
+      <c r="KP26" s="8">
+        <f t="shared" si="40"/>
+        <v>1971960.2799538472</v>
+      </c>
+      <c r="KQ26" s="8">
+        <f t="shared" si="40"/>
+        <v>2011399.4855529242</v>
+      </c>
+      <c r="KR26" s="8">
+        <f t="shared" si="40"/>
+        <v>2051627.4752639828</v>
+      </c>
+      <c r="KS26" s="8">
+        <f t="shared" si="40"/>
+        <v>2092660.0247692624</v>
+      </c>
+      <c r="KT26" s="8">
+        <f t="shared" si="40"/>
+        <v>2134513.2252646475</v>
+      </c>
+      <c r="KU26" s="8">
+        <f t="shared" si="40"/>
+        <v>2177203.4897699407</v>
+      </c>
+      <c r="KV26" s="8">
+        <f t="shared" si="40"/>
+        <v>2220747.5595653397</v>
+      </c>
+      <c r="KW26" s="8">
+        <f t="shared" si="40"/>
+        <v>2265162.5107566467</v>
+      </c>
+      <c r="KX26" s="8">
+        <f t="shared" si="40"/>
+        <v>2310465.7609717799</v>
+      </c>
+      <c r="KY26" s="8">
+        <f t="shared" si="40"/>
+        <v>2356675.0761912158</v>
+      </c>
+      <c r="KZ26" s="8">
+        <f t="shared" si="40"/>
+        <v>2403808.5777150402</v>
+      </c>
+      <c r="LA26" s="8">
+        <f t="shared" si="40"/>
+        <v>2451884.7492693411</v>
+      </c>
+      <c r="LB26" s="8">
+        <f t="shared" si="40"/>
+        <v>2500922.444254728</v>
+      </c>
+      <c r="LC26" s="8">
+        <f t="shared" si="40"/>
+        <v>2550940.8931398224</v>
+      </c>
+      <c r="LD26" s="8">
+        <f t="shared" si="40"/>
+        <v>2601959.711002619</v>
+      </c>
+      <c r="LE26" s="8">
+        <f t="shared" si="40"/>
+        <v>2653998.9052226716</v>
+      </c>
+      <c r="LF26" s="8">
+        <f t="shared" si="40"/>
+        <v>2707078.8833271251</v>
+      </c>
+      <c r="LG26" s="8">
+        <f t="shared" si="40"/>
+        <v>2761220.4609936676</v>
+      </c>
+      <c r="LH26" s="8">
+        <f t="shared" si="40"/>
+        <v>2816444.8702135412</v>
+      </c>
+      <c r="LI26" s="8">
+        <f t="shared" si="40"/>
+        <v>2872773.7676178119</v>
+      </c>
+      <c r="LJ26" s="8">
+        <f t="shared" si="40"/>
+        <v>2930229.2429701681</v>
+      </c>
+      <c r="LK26" s="8">
+        <f t="shared" si="40"/>
+        <v>2988833.8278295714</v>
+      </c>
+      <c r="LL26" s="8">
+        <f t="shared" si="40"/>
+        <v>3048610.5043861629</v>
+      </c>
+      <c r="LM26" s="8">
+        <f t="shared" si="40"/>
+        <v>3109582.7144738859</v>
+      </c>
+      <c r="LN26" s="8">
+        <f t="shared" si="40"/>
+        <v>3171774.3687633639</v>
+      </c>
+      <c r="LO26" s="8">
+        <f t="shared" si="40"/>
+        <v>3235209.8561386312</v>
+      </c>
+      <c r="LP26" s="8">
+        <f t="shared" si="40"/>
+        <v>3299914.0532614039</v>
+      </c>
+      <c r="LQ26" s="8">
+        <f t="shared" si="40"/>
+        <v>3365912.3343266319</v>
+      </c>
+      <c r="LR26" s="8">
+        <f t="shared" si="40"/>
+        <v>3433230.5810131645</v>
+      </c>
+      <c r="LS26" s="8">
+        <f t="shared" si="40"/>
+        <v>3501895.1926334277</v>
+      </c>
+      <c r="LT26" s="8">
+        <f t="shared" si="40"/>
+        <v>3571933.0964860963</v>
+      </c>
+      <c r="LU26" s="8">
+        <f t="shared" si="40"/>
+        <v>3643371.7584158182</v>
+      </c>
+      <c r="LV26" s="8">
+        <f t="shared" si="40"/>
+        <v>3716239.1935841348</v>
+      </c>
+      <c r="LW26" s="8">
+        <f t="shared" si="40"/>
+        <v>3790563.9774558176</v>
+      </c>
+      <c r="LX26" s="8">
+        <f t="shared" si="40"/>
+        <v>3866375.2570049339</v>
+      </c>
+      <c r="LY26" s="8">
+        <f t="shared" si="40"/>
+        <v>3943702.7621450326</v>
+      </c>
+      <c r="LZ26" s="8">
+        <f t="shared" si="40"/>
+        <v>4022576.8173879334</v>
+      </c>
+      <c r="MA26" s="8">
+        <f t="shared" si="40"/>
+        <v>4103028.3537356923</v>
+      </c>
+      <c r="MB26" s="8">
+        <f t="shared" si="40"/>
+        <v>4185088.9208104061</v>
+      </c>
+      <c r="MC26" s="8">
+        <f t="shared" si="40"/>
+        <v>4268790.6992266141</v>
+      </c>
+      <c r="MD26" s="8">
+        <f t="shared" si="40"/>
+        <v>4354166.513211146</v>
+      </c>
+      <c r="ME26" s="8">
+        <f t="shared" si="40"/>
+        <v>4441249.8434753688</v>
+      </c>
+      <c r="MF26" s="8">
+        <f t="shared" si="40"/>
+        <v>4530074.8403448761</v>
+      </c>
+      <c r="MG26" s="8">
+        <f t="shared" si="40"/>
+        <v>4620676.3371517733</v>
+      </c>
+      <c r="MH26" s="8">
+        <f t="shared" si="40"/>
+        <v>4713089.863894809</v>
+      </c>
+      <c r="MI26" s="8">
+        <f t="shared" si="40"/>
+        <v>4807351.6611727057</v>
+      </c>
+      <c r="MJ26" s="8">
+        <f t="shared" si="40"/>
+        <v>4903498.6943961596</v>
+      </c>
+      <c r="MK26" s="8">
+        <f t="shared" si="40"/>
+        <v>5001568.6682840828</v>
+      </c>
+      <c r="ML26" s="8">
+        <f t="shared" si="40"/>
+        <v>5101600.0416497644</v>
+      </c>
+      <c r="MM26" s="8">
+        <f t="shared" si="40"/>
+        <v>5203632.0424827598</v>
+      </c>
+      <c r="MN26" s="8">
+        <f t="shared" si="40"/>
+        <v>5307704.6833324153</v>
+      </c>
+      <c r="MO26" s="8">
+        <f t="shared" si="40"/>
+        <v>5413858.7769990638</v>
+      </c>
+      <c r="MP26" s="8">
+        <f t="shared" si="40"/>
+        <v>5522135.9525390454</v>
+      </c>
+      <c r="MQ26" s="8">
+        <f t="shared" si="40"/>
+        <v>5632578.6715898262</v>
+      </c>
+      <c r="MR26" s="8">
+        <f t="shared" si="40"/>
+        <v>5745230.2450216226</v>
+      </c>
+      <c r="MS26" s="8">
+        <f t="shared" si="40"/>
+        <v>5860134.8499220554</v>
+      </c>
+      <c r="MT26" s="8">
+        <f t="shared" ref="MT26:PE26" si="41">MS26*(1+$AN$15)</f>
+        <v>5977337.546920497</v>
+      </c>
+      <c r="MU26" s="8">
+        <f t="shared" si="41"/>
+        <v>6096884.2978589069</v>
+      </c>
+      <c r="MV26" s="8">
+        <f t="shared" si="41"/>
+        <v>6218821.9838160854</v>
+      </c>
+      <c r="MW26" s="8">
+        <f t="shared" si="41"/>
+        <v>6343198.4234924074</v>
+      </c>
+      <c r="MX26" s="8">
+        <f t="shared" si="41"/>
+        <v>6470062.3919622554</v>
+      </c>
+      <c r="MY26" s="8">
+        <f t="shared" si="41"/>
+        <v>6599463.6398015004</v>
+      </c>
+      <c r="MZ26" s="8">
+        <f t="shared" si="41"/>
+        <v>6731452.9125975305</v>
+      </c>
+      <c r="NA26" s="8">
+        <f t="shared" si="41"/>
+        <v>6866081.9708494814</v>
+      </c>
+      <c r="NB26" s="8">
+        <f t="shared" si="41"/>
+        <v>7003403.6102664713</v>
+      </c>
+      <c r="NC26" s="8">
+        <f t="shared" si="41"/>
+        <v>7143471.6824718006</v>
+      </c>
+      <c r="ND26" s="8">
+        <f t="shared" si="41"/>
+        <v>7286341.1161212372</v>
+      </c>
+      <c r="NE26" s="8">
+        <f t="shared" si="41"/>
+        <v>7432067.9384436617</v>
+      </c>
+      <c r="NF26" s="8">
+        <f t="shared" si="41"/>
+        <v>7580709.2972125346</v>
+      </c>
+      <c r="NG26" s="8">
+        <f t="shared" si="41"/>
+        <v>7732323.4831567854</v>
+      </c>
+      <c r="NH26" s="8">
+        <f t="shared" si="41"/>
+        <v>7886969.9528199211</v>
+      </c>
+      <c r="NI26" s="8">
+        <f t="shared" si="41"/>
+        <v>8044709.3518763194</v>
+      </c>
+      <c r="NJ26" s="8">
+        <f t="shared" si="41"/>
+        <v>8205603.538913846</v>
+      </c>
+      <c r="NK26" s="8">
+        <f t="shared" si="41"/>
+        <v>8369715.6096921228</v>
+      </c>
+      <c r="NL26" s="8">
+        <f t="shared" si="41"/>
+        <v>8537109.9218859654</v>
+      </c>
+      <c r="NM26" s="8">
+        <f t="shared" si="41"/>
+        <v>8707852.1203236841</v>
+      </c>
+      <c r="NN26" s="8">
+        <f t="shared" si="41"/>
+        <v>8882009.1627301574</v>
+      </c>
+      <c r="NO26" s="8">
+        <f t="shared" si="41"/>
+        <v>9059649.3459847607</v>
+      </c>
+      <c r="NP26" s="8">
+        <f t="shared" si="41"/>
+        <v>9240842.3329044562</v>
+      </c>
+      <c r="NQ26" s="8">
+        <f t="shared" si="41"/>
+        <v>9425659.1795625463</v>
+      </c>
+      <c r="NR26" s="8">
+        <f t="shared" si="41"/>
+        <v>9614172.3631537966</v>
+      </c>
+      <c r="NS26" s="8">
+        <f t="shared" si="41"/>
+        <v>9806455.8104168735</v>
+      </c>
+      <c r="NT26" s="8">
+        <f t="shared" si="41"/>
+        <v>10002584.926625211</v>
+      </c>
+      <c r="NU26" s="8">
+        <f t="shared" si="41"/>
+        <v>10202636.625157716</v>
+      </c>
+      <c r="NV26" s="8">
+        <f t="shared" si="41"/>
+        <v>10406689.357660871</v>
+      </c>
+      <c r="NW26" s="8">
+        <f t="shared" si="41"/>
+        <v>10614823.144814089</v>
+      </c>
+      <c r="NX26" s="8">
+        <f t="shared" si="41"/>
+        <v>10827119.607710371</v>
+      </c>
+      <c r="NY26" s="8">
+        <f t="shared" si="41"/>
+        <v>11043661.999864578</v>
+      </c>
+      <c r="NZ26" s="8">
+        <f t="shared" si="41"/>
+        <v>11264535.23986187</v>
+      </c>
+      <c r="OA26" s="8">
+        <f t="shared" si="41"/>
+        <v>11489825.944659108</v>
+      </c>
+      <c r="OB26" s="8">
+        <f t="shared" si="41"/>
+        <v>11719622.463552291</v>
+      </c>
+      <c r="OC26" s="8">
+        <f t="shared" si="41"/>
+        <v>11954014.912823336</v>
+      </c>
+      <c r="OD26" s="8">
+        <f t="shared" si="41"/>
+        <v>12193095.211079802</v>
+      </c>
+      <c r="OE26" s="8">
+        <f t="shared" si="41"/>
+        <v>12436957.115301399</v>
+      </c>
+      <c r="OF26" s="8">
+        <f t="shared" si="41"/>
+        <v>12685696.257607426</v>
+      </c>
+      <c r="OG26" s="8">
+        <f t="shared" si="41"/>
+        <v>12939410.182759576</v>
+      </c>
+      <c r="OH26" s="8">
+        <f t="shared" si="41"/>
+        <v>13198198.386414768</v>
+      </c>
+      <c r="OI26" s="8">
+        <f t="shared" si="41"/>
+        <v>13462162.354143064</v>
+      </c>
+      <c r="OJ26" s="8">
+        <f t="shared" si="41"/>
+        <v>13731405.601225926</v>
+      </c>
+      <c r="OK26" s="8">
+        <f t="shared" si="41"/>
+        <v>14006033.713250445</v>
+      </c>
+      <c r="OL26" s="8">
+        <f t="shared" si="41"/>
+        <v>14286154.387515454</v>
+      </c>
+      <c r="OM26" s="8">
+        <f t="shared" si="41"/>
+        <v>14571877.475265764</v>
+      </c>
+      <c r="ON26" s="8">
+        <f t="shared" si="41"/>
+        <v>14863315.024771079</v>
+      </c>
+      <c r="OO26" s="8">
+        <f t="shared" si="41"/>
+        <v>15160581.325266501</v>
+      </c>
+      <c r="OP26" s="8">
+        <f t="shared" si="41"/>
+        <v>15463792.951771831</v>
+      </c>
+      <c r="OQ26" s="8">
+        <f t="shared" si="41"/>
+        <v>15773068.810807267</v>
+      </c>
+      <c r="OR26" s="8">
+        <f t="shared" si="41"/>
+        <v>16088530.187023412</v>
+      </c>
+      <c r="OS26" s="8">
+        <f t="shared" si="41"/>
+        <v>16410300.790763881</v>
+      </c>
+      <c r="OT26" s="8">
+        <f t="shared" si="41"/>
+        <v>16738506.80657916</v>
+      </c>
+      <c r="OU26" s="8">
+        <f t="shared" si="41"/>
+        <v>17073276.942710742</v>
+      </c>
+      <c r="OV26" s="8">
+        <f t="shared" si="41"/>
+        <v>17414742.481564958</v>
+      </c>
+      <c r="OW26" s="8">
+        <f t="shared" si="41"/>
+        <v>17763037.331196256</v>
+      </c>
+      <c r="OX26" s="8">
+        <f t="shared" si="41"/>
+        <v>18118298.077820182</v>
+      </c>
+      <c r="OY26" s="8">
+        <f t="shared" si="41"/>
+        <v>18480664.039376587</v>
+      </c>
+      <c r="OZ26" s="8">
+        <f t="shared" si="41"/>
+        <v>18850277.320164118</v>
+      </c>
+      <c r="PA26" s="8">
+        <f t="shared" si="41"/>
+        <v>19227282.866567399</v>
+      </c>
+      <c r="PB26" s="8">
+        <f t="shared" si="41"/>
+        <v>19611828.523898747</v>
+      </c>
+      <c r="PC26" s="8">
+        <f t="shared" si="41"/>
+        <v>20004065.09437672</v>
+      </c>
+      <c r="PD26" s="8">
+        <f t="shared" si="41"/>
+        <v>20404146.396264255</v>
+      </c>
+      <c r="PE26" s="8">
+        <f t="shared" si="41"/>
+        <v>20812229.32418954</v>
+      </c>
+      <c r="PF26" s="8">
+        <f t="shared" ref="PF26:RQ26" si="42">PE26*(1+$AN$15)</f>
+        <v>21228473.910673331</v>
+      </c>
+      <c r="PG26" s="8">
+        <f t="shared" si="42"/>
+        <v>21653043.388886798</v>
+      </c>
+      <c r="PH26" s="8">
+        <f t="shared" si="42"/>
+        <v>22086104.256664533</v>
+      </c>
+      <c r="PI26" s="8">
+        <f t="shared" si="42"/>
+        <v>22527826.341797825</v>
+      </c>
+      <c r="PJ26" s="8">
+        <f t="shared" si="42"/>
+        <v>22978382.868633781</v>
+      </c>
+      <c r="PK26" s="8">
+        <f t="shared" si="42"/>
+        <v>23437950.526006456</v>
+      </c>
+      <c r="PL26" s="8">
+        <f t="shared" si="42"/>
+        <v>23906709.536526587</v>
+      </c>
+      <c r="PM26" s="8">
+        <f t="shared" si="42"/>
+        <v>24384843.727257118</v>
+      </c>
+      <c r="PN26" s="8">
+        <f t="shared" si="42"/>
+        <v>24872540.60180226</v>
+      </c>
+      <c r="PO26" s="8">
+        <f t="shared" si="42"/>
+        <v>25369991.413838305</v>
+      </c>
+      <c r="PP26" s="8">
+        <f t="shared" si="42"/>
+        <v>25877391.242115073</v>
+      </c>
+      <c r="PQ26" s="8">
+        <f t="shared" si="42"/>
+        <v>26394939.066957373</v>
+      </c>
+      <c r="PR26" s="8">
+        <f t="shared" si="42"/>
+        <v>26922837.848296519</v>
+      </c>
+      <c r="PS26" s="8">
+        <f t="shared" si="42"/>
+        <v>27461294.605262451</v>
+      </c>
+      <c r="PT26" s="8">
+        <f t="shared" si="42"/>
+        <v>28010520.497367699</v>
+      </c>
+      <c r="PU26" s="8">
+        <f t="shared" si="42"/>
+        <v>28570730.907315053</v>
+      </c>
+      <c r="PV26" s="8">
+        <f t="shared" si="42"/>
+        <v>29142145.525461353</v>
+      </c>
+      <c r="PW26" s="8">
+        <f t="shared" si="42"/>
+        <v>29724988.435970582</v>
+      </c>
+      <c r="PX26" s="8">
+        <f t="shared" si="42"/>
+        <v>30319488.204689994</v>
+      </c>
+      <c r="PY26" s="8">
+        <f t="shared" si="42"/>
+        <v>30925877.968783796</v>
+      </c>
+      <c r="PZ26" s="8">
+        <f t="shared" si="42"/>
+        <v>31544395.528159473</v>
+      </c>
+      <c r="QA26" s="8">
+        <f t="shared" si="42"/>
+        <v>32175283.438722663</v>
+      </c>
+      <c r="QB26" s="8">
+        <f t="shared" si="42"/>
+        <v>32818789.107497115</v>
+      </c>
+      <c r="QC26" s="8">
+        <f t="shared" si="42"/>
+        <v>33475164.889647059</v>
+      </c>
+      <c r="QD26" s="8">
+        <f t="shared" si="42"/>
+        <v>34144668.18744</v>
+      </c>
+      <c r="QE26" s="8">
+        <f t="shared" si="42"/>
+        <v>34827561.551188804</v>
+      </c>
+      <c r="QF26" s="8">
+        <f t="shared" si="42"/>
+        <v>35524112.782212578</v>
+      </c>
+      <c r="QG26" s="8">
+        <f t="shared" si="42"/>
+        <v>36234595.037856832</v>
+      </c>
+      <c r="QH26" s="8">
+        <f t="shared" si="42"/>
+        <v>36959286.938613966</v>
+      </c>
+      <c r="QI26" s="8">
+        <f t="shared" si="42"/>
+        <v>37698472.677386247</v>
+      </c>
+      <c r="QJ26" s="8">
+        <f t="shared" si="42"/>
+        <v>38452442.13093397</v>
+      </c>
+      <c r="QK26" s="8">
+        <f t="shared" si="42"/>
+        <v>39221490.973552652</v>
+      </c>
+      <c r="QL26" s="8">
+        <f t="shared" si="42"/>
+        <v>40005920.793023705</v>
+      </c>
+      <c r="QM26" s="8">
+        <f t="shared" si="42"/>
+        <v>40806039.20888418</v>
+      </c>
+      <c r="QN26" s="8">
+        <f t="shared" si="42"/>
+        <v>41622159.993061863</v>
+      </c>
+      <c r="QO26" s="8">
+        <f t="shared" si="42"/>
+        <v>42454603.192923099</v>
+      </c>
+      <c r="QP26" s="8">
+        <f t="shared" si="42"/>
+        <v>43303695.256781563</v>
+      </c>
+      <c r="QQ26" s="8">
+        <f t="shared" si="42"/>
+        <v>44169769.161917195</v>
+      </c>
+      <c r="QR26" s="8">
+        <f t="shared" si="42"/>
+        <v>45053164.54515554</v>
+      </c>
+      <c r="QS26" s="8">
+        <f t="shared" si="42"/>
+        <v>45954227.836058654</v>
+      </c>
+      <c r="QT26" s="8">
+        <f t="shared" si="42"/>
+        <v>46873312.392779827</v>
+      </c>
+      <c r="QU26" s="8">
+        <f t="shared" si="42"/>
+        <v>47810778.640635423</v>
+      </c>
+      <c r="QV26" s="8">
+        <f t="shared" si="42"/>
+        <v>48766994.21344813</v>
+      </c>
+      <c r="QW26" s="8">
+        <f t="shared" si="42"/>
+        <v>49742334.097717091</v>
+      </c>
+      <c r="QX26" s="8">
+        <f t="shared" si="42"/>
+        <v>50737180.779671431</v>
+      </c>
+      <c r="QY26" s="8">
+        <f t="shared" si="42"/>
+        <v>51751924.395264857</v>
+      </c>
+      <c r="QZ26" s="8">
+        <f t="shared" si="42"/>
+        <v>52786962.883170158</v>
+      </c>
+      <c r="RA26" s="8">
+        <f t="shared" si="42"/>
+        <v>53842702.140833564</v>
+      </c>
+      <c r="RB26" s="8">
+        <f t="shared" si="42"/>
+        <v>54919556.183650233</v>
+      </c>
+      <c r="RC26" s="8">
+        <f t="shared" si="42"/>
+        <v>56017947.30732324</v>
+      </c>
+      <c r="RD26" s="8">
+        <f t="shared" si="42"/>
+        <v>57138306.253469706</v>
+      </c>
+      <c r="RE26" s="8">
+        <f t="shared" si="42"/>
+        <v>58281072.3785391</v>
+      </c>
+      <c r="RF26" s="8">
+        <f t="shared" si="42"/>
+        <v>59446693.826109886</v>
+      </c>
+      <c r="RG26" s="8">
+        <f t="shared" si="42"/>
+        <v>60635627.702632084</v>
+      </c>
+      <c r="RH26" s="8">
+        <f t="shared" si="42"/>
+        <v>61848340.256684728</v>
+      </c>
+      <c r="RI26" s="8">
+        <f t="shared" si="42"/>
+        <v>63085307.061818421</v>
+      </c>
+      <c r="RJ26" s="8">
+        <f t="shared" si="42"/>
+        <v>64347013.203054793</v>
+      </c>
+      <c r="RK26" s="8">
+        <f t="shared" si="42"/>
+        <v>65633953.467115887</v>
+      </c>
+      <c r="RL26" s="8">
+        <f t="shared" si="42"/>
+        <v>66946632.536458202</v>
+      </c>
+      <c r="RM26" s="8">
+        <f t="shared" si="42"/>
+        <v>68285565.187187374</v>
+      </c>
+      <c r="RN26" s="8">
+        <f t="shared" si="42"/>
+        <v>69651276.490931123</v>
+      </c>
+      <c r="RO26" s="8">
+        <f t="shared" si="42"/>
+        <v>71044302.020749748</v>
+      </c>
+      <c r="RP26" s="8">
+        <f t="shared" si="42"/>
+        <v>72465188.061164737</v>
+      </c>
+      <c r="RQ26" s="8">
+        <f t="shared" si="42"/>
+        <v>73914491.822388038</v>
+      </c>
+      <c r="RR26" s="8">
+        <f t="shared" ref="RR26:UC26" si="43">RQ26*(1+$AN$15)</f>
+        <v>75392781.658835799</v>
+      </c>
+      <c r="RS26" s="8">
+        <f t="shared" si="43"/>
+        <v>76900637.292012513</v>
+      </c>
+      <c r="RT26" s="8">
+        <f t="shared" si="43"/>
+        <v>78438650.037852764</v>
+      </c>
+      <c r="RU26" s="8">
+        <f t="shared" si="43"/>
+        <v>80007423.038609818</v>
+      </c>
+      <c r="RV26" s="8">
+        <f t="shared" si="43"/>
+        <v>81607571.499382019</v>
+      </c>
+      <c r="RW26" s="8">
+        <f t="shared" si="43"/>
+        <v>83239722.929369658</v>
+      </c>
+      <c r="RX26" s="8">
+        <f t="shared" si="43"/>
+        <v>84904517.387957051</v>
+      </c>
+      <c r="RY26" s="8">
+        <f t="shared" si="43"/>
+        <v>86602607.735716194</v>
+      </c>
+      <c r="RZ26" s="8">
+        <f t="shared" si="43"/>
+        <v>88334659.890430525</v>
+      </c>
+      <c r="SA26" s="8">
+        <f t="shared" si="43"/>
+        <v>90101353.088239133</v>
+      </c>
+      <c r="SB26" s="8">
+        <f t="shared" si="43"/>
+        <v>91903380.150003925</v>
+      </c>
+      <c r="SC26" s="8">
+        <f t="shared" si="43"/>
+        <v>93741447.753004</v>
+      </c>
+      <c r="SD26" s="8">
+        <f t="shared" si="43"/>
+        <v>95616276.708064079</v>
+      </c>
+      <c r="SE26" s="8">
+        <f t="shared" si="43"/>
+        <v>97528602.242225364</v>
+      </c>
+      <c r="SF26" s="8">
+        <f t="shared" si="43"/>
+        <v>99479174.287069872</v>
+      </c>
+      <c r="SG26" s="8">
+        <f t="shared" si="43"/>
+        <v>101468757.77281126</v>
+      </c>
+      <c r="SH26" s="8">
+        <f t="shared" si="43"/>
+        <v>103498132.92826749</v>
+      </c>
+      <c r="SI26" s="8">
+        <f t="shared" si="43"/>
+        <v>105568095.58683285</v>
+      </c>
+      <c r="SJ26" s="8">
+        <f t="shared" si="43"/>
+        <v>107679457.4985695</v>
+      </c>
+      <c r="SK26" s="8">
+        <f t="shared" si="43"/>
+        <v>109833046.6485409</v>
+      </c>
+      <c r="SL26" s="8">
+        <f t="shared" si="43"/>
+        <v>112029707.58151172</v>
+      </c>
+      <c r="SM26" s="8">
+        <f t="shared" si="43"/>
+        <v>114270301.73314196</v>
+      </c>
+      <c r="SN26" s="8">
+        <f t="shared" si="43"/>
+        <v>116555707.7678048</v>
+      </c>
+      <c r="SO26" s="8">
+        <f t="shared" si="43"/>
+        <v>118886821.9231609</v>
+      </c>
+      <c r="SP26" s="8">
+        <f t="shared" si="43"/>
+        <v>121264558.36162412</v>
+      </c>
+      <c r="SQ26" s="8">
+        <f t="shared" si="43"/>
+        <v>123689849.52885661</v>
+      </c>
+      <c r="SR26" s="8">
+        <f t="shared" si="43"/>
+        <v>126163646.51943374</v>
+      </c>
+      <c r="SS26" s="8">
+        <f t="shared" si="43"/>
+        <v>128686919.44982241</v>
+      </c>
+      <c r="ST26" s="8">
+        <f t="shared" si="43"/>
+        <v>131260657.83881886</v>
+      </c>
+      <c r="SU26" s="8">
+        <f t="shared" si="43"/>
+        <v>133885870.99559525</v>
+      </c>
+      <c r="SV26" s="8">
+        <f t="shared" si="43"/>
+        <v>136563588.41550717</v>
+      </c>
+      <c r="SW26" s="8">
+        <f t="shared" si="43"/>
+        <v>139294860.18381733</v>
+      </c>
+      <c r="SX26" s="8">
+        <f t="shared" si="43"/>
+        <v>142080757.38749367</v>
+      </c>
+      <c r="SY26" s="8">
+        <f t="shared" si="43"/>
+        <v>144922372.53524354</v>
+      </c>
+      <c r="SZ26" s="8">
+        <f t="shared" si="43"/>
+        <v>147820819.98594841</v>
+      </c>
+      <c r="TA26" s="8">
+        <f t="shared" si="43"/>
+        <v>150777236.38566738</v>
+      </c>
+      <c r="TB26" s="8">
+        <f t="shared" si="43"/>
+        <v>153792781.11338073</v>
+      </c>
+      <c r="TC26" s="8">
+        <f t="shared" si="43"/>
+        <v>156868636.73564833</v>
+      </c>
+      <c r="TD26" s="8">
+        <f t="shared" si="43"/>
+        <v>160006009.47036129</v>
+      </c>
+      <c r="TE26" s="8">
+        <f t="shared" si="43"/>
+        <v>163206129.65976852</v>
+      </c>
+      <c r="TF26" s="8">
+        <f t="shared" si="43"/>
+        <v>166470252.2529639</v>
+      </c>
+      <c r="TG26" s="8">
+        <f t="shared" si="43"/>
+        <v>169799657.29802319</v>
+      </c>
+      <c r="TH26" s="8">
+        <f t="shared" si="43"/>
+        <v>173195650.44398367</v>
+      </c>
+      <c r="TI26" s="8">
+        <f t="shared" si="43"/>
+        <v>176659563.45286337</v>
+      </c>
+      <c r="TJ26" s="8">
+        <f t="shared" si="43"/>
+        <v>180192754.72192064</v>
+      </c>
+      <c r="TK26" s="8">
+        <f t="shared" si="43"/>
+        <v>183796609.81635904</v>
+      </c>
+      <c r="TL26" s="8">
+        <f t="shared" si="43"/>
+        <v>187472542.01268622</v>
+      </c>
+      <c r="TM26" s="8">
+        <f t="shared" si="43"/>
+        <v>191221992.85293996</v>
+      </c>
+      <c r="TN26" s="8">
+        <f t="shared" si="43"/>
+        <v>195046432.70999876</v>
+      </c>
+      <c r="TO26" s="8">
+        <f t="shared" si="43"/>
+        <v>198947361.36419874</v>
+      </c>
+      <c r="TP26" s="8">
+        <f t="shared" si="43"/>
+        <v>202926308.59148273</v>
+      </c>
+      <c r="TQ26" s="8">
+        <f t="shared" si="43"/>
+        <v>206984834.7633124</v>
+      </c>
+      <c r="TR26" s="8">
+        <f t="shared" si="43"/>
+        <v>211124531.45857865</v>
+      </c>
+      <c r="TS26" s="8">
+        <f t="shared" si="43"/>
+        <v>215347022.08775023</v>
+      </c>
+      <c r="TT26" s="8">
+        <f t="shared" si="43"/>
+        <v>219653962.52950522</v>
+      </c>
+      <c r="TU26" s="8">
+        <f t="shared" si="43"/>
+        <v>224047041.78009534</v>
+      </c>
+      <c r="TV26" s="8">
+        <f t="shared" si="43"/>
+        <v>228527982.61569723</v>
+      </c>
+      <c r="TW26" s="8">
+        <f t="shared" si="43"/>
+        <v>233098542.26801118</v>
+      </c>
+      <c r="TX26" s="8">
+        <f t="shared" si="43"/>
+        <v>237760513.1133714</v>
+      </c>
+      <c r="TY26" s="8">
+        <f t="shared" si="43"/>
+        <v>242515723.37563884</v>
+      </c>
+      <c r="TZ26" s="8">
+        <f t="shared" si="43"/>
+        <v>247366037.84315163</v>
+      </c>
+      <c r="UA26" s="8">
+        <f t="shared" si="43"/>
+        <v>252313358.60001466</v>
+      </c>
+      <c r="UB26" s="8">
+        <f t="shared" si="43"/>
+        <v>257359625.77201495</v>
+      </c>
+      <c r="UC26" s="8">
+        <f t="shared" si="43"/>
+        <v>262506818.28745526</v>
+      </c>
+      <c r="UD26" s="8">
+        <f t="shared" ref="UD26:VG26" si="44">UC26*(1+$AN$15)</f>
+        <v>267756954.65320438</v>
+      </c>
+      <c r="UE26" s="8">
+        <f t="shared" si="44"/>
+        <v>273112093.74626845</v>
+      </c>
+      <c r="UF26" s="8">
+        <f t="shared" si="44"/>
+        <v>278574335.62119383</v>
+      </c>
+      <c r="UG26" s="8">
+        <f t="shared" si="44"/>
+        <v>284145822.33361769</v>
+      </c>
+      <c r="UH26" s="8">
+        <f t="shared" si="44"/>
+        <v>289828738.78029007</v>
+      </c>
+      <c r="UI26" s="8">
+        <f t="shared" si="44"/>
+        <v>295625313.55589586</v>
+      </c>
+      <c r="UJ26" s="8">
+        <f t="shared" si="44"/>
+        <v>301537819.82701379</v>
+      </c>
+      <c r="UK26" s="8">
+        <f t="shared" si="44"/>
+        <v>307568576.22355407</v>
+      </c>
+      <c r="UL26" s="8">
+        <f t="shared" si="44"/>
+        <v>313719947.74802518</v>
+      </c>
+      <c r="UM26" s="8">
+        <f t="shared" si="44"/>
+        <v>319994346.7029857</v>
+      </c>
+      <c r="UN26" s="8">
+        <f t="shared" si="44"/>
+        <v>326394233.63704544</v>
+      </c>
+      <c r="UO26" s="8">
+        <f t="shared" si="44"/>
+        <v>332922118.30978638</v>
+      </c>
+      <c r="UP26" s="8">
+        <f t="shared" si="44"/>
+        <v>339580560.67598212</v>
+      </c>
+      <c r="UQ26" s="8">
+        <f t="shared" si="44"/>
+        <v>346372171.88950175</v>
+      </c>
+      <c r="UR26" s="8">
+        <f t="shared" si="44"/>
+        <v>353299615.32729179</v>
+      </c>
+      <c r="US26" s="8">
+        <f t="shared" si="44"/>
+        <v>360365607.63383764</v>
+      </c>
+      <c r="UT26" s="8">
+        <f t="shared" si="44"/>
+        <v>367572919.7865144</v>
+      </c>
+      <c r="UU26" s="8">
+        <f t="shared" si="44"/>
+        <v>374924378.18224472</v>
+      </c>
+      <c r="UV26" s="8">
+        <f t="shared" si="44"/>
+        <v>382422865.7458896</v>
+      </c>
+      <c r="UW26" s="8">
+        <f t="shared" si="44"/>
+        <v>390071323.06080741</v>
+      </c>
+      <c r="UX26" s="8">
+        <f t="shared" si="44"/>
+        <v>397872749.52202356</v>
+      </c>
+      <c r="UY26" s="8">
+        <f t="shared" si="44"/>
+        <v>405830204.51246405</v>
+      </c>
+      <c r="UZ26" s="8">
+        <f t="shared" si="44"/>
+        <v>413946808.60271335</v>
+      </c>
+      <c r="VA26" s="8">
+        <f t="shared" si="44"/>
+        <v>422225744.77476764</v>
+      </c>
+      <c r="VB26" s="8">
+        <f t="shared" si="44"/>
+        <v>430670259.67026299</v>
+      </c>
+      <c r="VC26" s="8">
+        <f t="shared" si="44"/>
+        <v>439283664.86366826</v>
+      </c>
+      <c r="VD26" s="8">
+        <f t="shared" si="44"/>
+        <v>448069338.16094166</v>
+      </c>
+      <c r="VE26" s="8">
+        <f t="shared" si="44"/>
+        <v>457030724.92416048</v>
+      </c>
+      <c r="VF26" s="8">
+        <f t="shared" si="44"/>
+        <v>466171339.42264372</v>
+      </c>
+      <c r="VG26" s="8">
+        <f t="shared" si="44"/>
+        <v>475494766.21109658</v>
+      </c>
+    </row>
+    <row r="28" spans="2:579" s="8" customFormat="1">
+      <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="13">
+        <f>(G6-C6)/C6</f>
         <v>5.358088925317462E-2</v>
       </c>
-      <c r="H26" s="13">
-        <f t="shared" si="94"/>
+      <c r="H28" s="13">
+        <f>(H6-D6)/D6</f>
         <v>2.9877648801878283</v>
       </c>
-      <c r="I26" s="13">
-        <f t="shared" ref="I26" si="95">(I6-E6)/E6</f>
+      <c r="I28" s="13">
+        <f>(I6-E6)/E6</f>
         <v>0.66682584250829335</v>
       </c>
-      <c r="J26" s="13">
-        <f t="shared" ref="J26" si="96">(J6-F6)/F6</f>
+      <c r="J28" s="13">
+        <f>(J6-F6)/F6</f>
         <v>0.78314929986593163</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" ref="K26" si="97">(K6-G6)/G6</f>
+      <c r="K28" s="13">
+        <f>(K6-G6)/G6</f>
         <v>0.70136289427873033</v>
       </c>
-      <c r="L26" s="13">
-        <f t="shared" ref="L26" si="98">(L6-H6)/H6</f>
+      <c r="L28" s="13">
+        <f>(L6-H6)/H6</f>
         <v>0.57602996254681649</v>
       </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26" si="99">(M6-I6)/I6</f>
+      <c r="M28" s="13">
+        <f>(M6-I6)/I6</f>
         <v>0.28897772088716006</v>
       </c>
-      <c r="N26" s="13">
-        <f t="shared" ref="N26" si="100">(N6-J6)/J6</f>
+      <c r="N28" s="13">
+        <f>(N6-J6)/J6</f>
         <v>0.24135554459090097</v>
       </c>
-      <c r="O26" s="13">
-        <f t="shared" ref="O26" si="101">(O6-K6)/K6</f>
+      <c r="O28" s="13">
+        <f>(O6-K6)/K6</f>
         <v>0.2047713717693837</v>
       </c>
-      <c r="P26" s="13">
-        <f t="shared" ref="P26" si="102">(P6-L6)/L6</f>
+      <c r="P28" s="13">
+        <f>(P6-L6)/L6</f>
         <v>0.1806083650190114</v>
       </c>
-      <c r="Q26" s="13">
-        <f t="shared" ref="Q26" si="103">(Q6-M6)/M6</f>
+      <c r="Q28" s="13">
+        <f>(Q6-M6)/M6</f>
         <v>0.17787794729542303</v>
       </c>
-      <c r="R26" s="13">
-        <f t="shared" ref="R26:W26" si="104">(R6-N6)/N6</f>
+      <c r="R28" s="13">
+        <f>(R6-N6)/N6</f>
         <v>0.16614090431125131</v>
       </c>
-      <c r="S26" s="13">
-        <f t="shared" si="104"/>
+      <c r="S28" s="13">
+        <f>(S6-O6)/O6</f>
         <v>0.17821782178217821</v>
       </c>
-      <c r="T26" s="13">
-        <f t="shared" si="104"/>
+      <c r="T28" s="13">
+        <f>(T6-P6)/P6</f>
         <v>0.10628019323671498</v>
       </c>
-      <c r="U26" s="13">
-        <f t="shared" si="104"/>
+      <c r="U28" s="13">
+        <f>(U6-Q6)/Q6</f>
         <v>9.8616426258463355E-2</v>
       </c>
-      <c r="V26" s="13">
-        <f t="shared" si="104"/>
+      <c r="V28" s="13">
+        <f>(V6-R6)/R6</f>
         <v>0.11812443642921551</v>
       </c>
-      <c r="W26" s="13">
-        <f t="shared" si="104"/>
+      <c r="W28" s="26">
+        <f>(W6-S6)/S6</f>
         <v>6.069094304388422E-2</v>
       </c>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13">
+      <c r="X28" s="26">
+        <f>(X6-T6)/T6</f>
+        <v>0.12663755458515283</v>
+      </c>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13">
         <f>(AB6-AA6)/AA6</f>
         <v>0.77359711491241345</v>
       </c>
-      <c r="AC26" s="13">
-        <f t="shared" ref="AC26:AE26" si="105">(AC6-AB6)/AB6</f>
+      <c r="AC28" s="13">
+        <f>(AC6-AB6)/AB6</f>
         <v>0.40180427013714609</v>
       </c>
-      <c r="AD26" s="13">
-        <f t="shared" si="105"/>
+      <c r="AD28" s="13">
+        <f>(AD6-AC6)/AC6</f>
         <v>0.18073580188117633</v>
       </c>
-      <c r="AE26" s="13">
-        <f t="shared" si="105"/>
+      <c r="AE28" s="13">
+        <f>(AE6-AD6)/AD6</f>
         <v>0.11949178178884744</v>
       </c>
     </row>
-    <row r="27" spans="2:88">
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" ref="G27:H27" si="106">(G19-C19)/C19</f>
+    <row r="29" spans="2:579">
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6">
+        <f>(G19-C19)/C19</f>
         <v>2.4415554674769897</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="106"/>
+      <c r="H29" s="6">
+        <f>(H19-D19)/D19</f>
         <v>-0.88211880720237379</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" ref="I27" si="107">(I19-E19)/E19</f>
+      <c r="I29" s="6">
+        <f>(I19-E19)/E19</f>
         <v>2.7895270208859726</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" ref="J27" si="108">(J19-F19)/F19</f>
+      <c r="J29" s="6">
+        <f>(J19-F19)/F19</f>
         <v>-1.0140182841369179</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" ref="K27" si="109">(K19-G19)/G19</f>
+      <c r="K29" s="6">
+        <f>(K19-G19)/G19</f>
         <v>-0.98379131402111053</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" ref="L27" si="110">(L19-H19)/H19</f>
+      <c r="L29" s="6">
+        <f>(L19-H19)/H19</f>
         <v>-6.5857688169665849</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" ref="M27" si="111">(M19-I19)/I19</f>
+      <c r="M29" s="6">
+        <f>(M19-I19)/I19</f>
         <v>0.45582226976362689</v>
       </c>
-      <c r="N27" s="6">
-        <f t="shared" ref="N27" si="112">(N19-J19)/J19</f>
+      <c r="N29" s="6">
+        <f>(N19-J19)/J19</f>
         <v>4.8531036127777476</v>
       </c>
-      <c r="O27" s="6">
-        <f t="shared" ref="O27" si="113">(O19-K19)/K19</f>
+      <c r="O29" s="6">
+        <f>(O19-K19)/K19</f>
         <v>-7.1578947368421053</v>
       </c>
-      <c r="P27" s="6">
-        <f t="shared" ref="P27" si="114">(P19-L19)/L19</f>
+      <c r="P29" s="6">
+        <f>(P19-L19)/L19</f>
         <v>0.71503957783641159</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" ref="Q27" si="115">(Q19-M19)/M19</f>
+      <c r="Q29" s="6">
+        <f>(Q19-M19)/M19</f>
         <v>2.6029654036243821</v>
       </c>
-      <c r="R27" s="6">
-        <f t="shared" ref="R27:W27" si="116">(R19-N19)/N19</f>
+      <c r="R29" s="6">
+        <f>(R19-N19)/N19</f>
         <v>-2.0940438871473352</v>
       </c>
-      <c r="S27" s="6">
-        <f t="shared" si="116"/>
+      <c r="S29" s="6">
+        <f>(S19-O19)/O19</f>
         <v>1.2564102564102564</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" si="116"/>
+      <c r="T29" s="6">
+        <f>(T19-P19)/P19</f>
         <v>-0.14615384615384616</v>
       </c>
-      <c r="U27" s="6">
-        <f t="shared" si="116"/>
+      <c r="U29" s="6">
+        <f>(U19-Q19)/Q19</f>
         <v>-0.68724279835390945</v>
       </c>
-      <c r="V27" s="6">
-        <f t="shared" si="116"/>
+      <c r="V29" s="6">
+        <f>(V19-R19)/R19</f>
         <v>-2.3209169054441259</v>
       </c>
-      <c r="W27" s="6">
-        <f t="shared" si="116"/>
+      <c r="W29" s="27">
+        <f>(W19-S19)/S19</f>
         <v>-0.41666666666666669</v>
       </c>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6">
+      <c r="X29" s="27">
+        <f>(X19-T19)/T19</f>
+        <v>0.15675675675675677</v>
+      </c>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6">
         <f>(AB19-AA19)/AA19</f>
         <v>-0.92328346122768112</v>
       </c>
-      <c r="AC27" s="6">
-        <f t="shared" ref="AC27:AE27" si="117">(AC19-AB19)/AB19</f>
+      <c r="AC29" s="6">
+        <f>(AC19-AB19)/AB19</f>
         <v>-6.3829179794578979</v>
       </c>
-      <c r="AD27" s="6">
-        <f t="shared" si="117"/>
+      <c r="AD29" s="6">
+        <f>(AD19-AC19)/AC19</f>
         <v>1.5314315900686741</v>
       </c>
-      <c r="AE27" s="6">
-        <f t="shared" si="117"/>
+      <c r="AE29" s="6">
+        <f>(AE19-AD19)/AD19</f>
         <v>-0.44741235392320533</v>
       </c>
     </row>
-    <row r="28" spans="2:88">
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="AA28" s="6"/>
-    </row>
-    <row r="29" spans="2:88">
-      <c r="B29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" ref="G29:H31" si="118">(G3-C3)/C3</f>
+    <row r="30" spans="2:579" s="8" customFormat="1">
+      <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="13">
+        <f>(G26-C26)/ABS(C26)</f>
+        <v>2.0547874179052887</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" ref="H30:X30" si="45">(H26-D26)/ABS(D26)</f>
+        <v>3.9737742303306733</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.57907469005140599</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="45"/>
+        <v>2.3856880733944954</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.95969195477633962</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="45"/>
+        <v>1.6104294478527636E-2</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.83646112600536215</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.20497881355932196</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.32190635451505017</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.36600625651720542</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="45"/>
+        <v>-0.89890109890109893</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.20746363061353573</v>
+      </c>
+      <c r="T30" s="13">
+        <f t="shared" si="45"/>
+        <v>0.15888888888888889</v>
+      </c>
+      <c r="U30" s="13">
+        <f t="shared" si="45"/>
+        <v>-0.18015267175572519</v>
+      </c>
+      <c r="V30" s="13">
+        <f t="shared" si="45"/>
+        <v>8.9565217391304355</v>
+      </c>
+      <c r="W30" s="26">
+        <f t="shared" si="45"/>
+        <v>-6.7050811943425881E-2</v>
+      </c>
+      <c r="X30" s="26">
+        <f t="shared" si="45"/>
+        <v>-8.7248322147651006E-2</v>
+      </c>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13">
+        <f>(AB26-AA26)/ABS(AA26)</f>
+        <v>3.9259731971920862</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" ref="AC30:AE30" si="46">(AC26-AB26)/ABS(AB26)</f>
+        <v>0.48527808069792833</v>
+      </c>
+      <c r="AD30" s="13">
+        <f t="shared" si="46"/>
+        <v>0.12687224669603525</v>
+      </c>
+      <c r="AE30" s="13">
+        <f t="shared" si="46"/>
+        <v>0.16862131873859787</v>
+      </c>
+    </row>
+    <row r="31" spans="2:579">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="2:579">
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6">
+        <f>(G3-C3)/C3</f>
         <v>0.12784588441331005</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="118"/>
+      <c r="H32" s="6">
+        <f>(H3-D3)/D3</f>
         <v>1.9678571428571427</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" ref="I29:I31" si="119">(I3-E3)/E3</f>
+      <c r="I32" s="6">
+        <f>(I3-E3)/E3</f>
         <v>0.2928802588996765</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" ref="J29:J31" si="120">(J3-F3)/F3</f>
+      <c r="J32" s="6">
+        <f>(J3-F3)/F3</f>
         <v>0.58531317494600454</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" ref="K29:K31" si="121">(K3-G3)/G3</f>
+      <c r="K32" s="6">
+        <f>(K3-G3)/G3</f>
         <v>0.58540372670807428</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" ref="L29:L31" si="122">(L3-H3)/H3</f>
+      <c r="L32" s="6">
+        <f>(L3-H3)/H3</f>
         <v>0.24789410348977148</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" ref="M29:M31" si="123">(M3-I3)/I3</f>
+      <c r="M32" s="6">
+        <f>(M3-I3)/I3</f>
         <v>0.24780976220275339</v>
       </c>
-      <c r="N29" s="6">
-        <f t="shared" ref="N29:N31" si="124">(N3-J3)/J3</f>
+      <c r="N32" s="6">
+        <f>(N3-J3)/J3</f>
         <v>0.20163487738419614</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" ref="O29:O31" si="125">(O3-K3)/K3</f>
+      <c r="O32" s="6">
+        <f>(O3-K3)/K3</f>
         <v>0.1860920666013712</v>
       </c>
-      <c r="P29" s="6">
-        <f t="shared" ref="P29:P31" si="126">(P3-L3)/L3</f>
+      <c r="P32" s="6">
+        <f>(P3-L3)/L3</f>
         <v>0.10993249758919953</v>
       </c>
-      <c r="Q29" s="6">
-        <f t="shared" ref="Q29:Q31" si="127">(Q3-M3)/M3</f>
-        <v>0.13540621865596789</v>
-      </c>
-      <c r="R29" s="6">
-        <f t="shared" ref="R29:R31" si="128">(R3-N3)/N3</f>
+      <c r="Q32" s="6">
+        <f>(Q3-M3)/M3</f>
+        <v>0.13540621865596791</v>
+      </c>
+      <c r="R32" s="6">
+        <f>(R3-N3)/N3</f>
         <v>0.12018140589569154</v>
       </c>
-      <c r="S29" s="6">
-        <f t="shared" ref="S29:S31" si="129">(S3-O3)/O3</f>
+      <c r="S32" s="6">
+        <f>(S3-O3)/O3</f>
         <v>9.4962840627580522E-2</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" ref="T29:T31" si="130">(T3-P3)/P3</f>
+      <c r="T32" s="6">
+        <f>(T3-P3)/P3</f>
         <v>8.6880973066898348E-2</v>
       </c>
-      <c r="U29" s="6">
-        <f t="shared" ref="U29:U31" si="131">(U3-Q3)/Q3</f>
+      <c r="U32" s="6">
+        <f>(U3-Q3)/Q3</f>
         <v>0.10512367491166071</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" ref="V29:V31" si="132">(V3-R3)/R3</f>
+      <c r="V32" s="6">
+        <f>(V3-R3)/R3</f>
         <v>0.24291497975708504</v>
       </c>
-      <c r="W29" s="6">
-        <f t="shared" ref="W29" si="133">(W3-S3)/S3</f>
+      <c r="W32" s="27">
+        <f>(W3-S3)/S3</f>
         <v>-0.16289592760180993</v>
       </c>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6">
+      <c r="X32" s="27">
+        <f>(X3-T3)/T3</f>
+        <v>7.4340527577937743E-2</v>
+      </c>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6">
         <f>(AB3-AA3)/AA3</f>
         <v>0.55693581780538315</v>
       </c>
-      <c r="AC29" s="6">
-        <f t="shared" ref="AC29:AE29" si="134">(AC3-AB3)/AB3</f>
+      <c r="AC32" s="6">
+        <f>(AC3-AB3)/AB3</f>
         <v>0.30884308510638286</v>
       </c>
-      <c r="AD29" s="6">
-        <f t="shared" si="134"/>
+      <c r="AD32" s="6">
+        <f>(AD3-AC3)/AC3</f>
         <v>0.13843027686055373</v>
       </c>
-      <c r="AE29" s="6">
-        <f t="shared" si="134"/>
+      <c r="AE32" s="6">
+        <f>(AE3-AD3)/AD3</f>
         <v>0.12806782686300755</v>
       </c>
     </row>
-    <row r="30" spans="2:88" s="8" customFormat="1">
-      <c r="B30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="13">
-        <f t="shared" si="118"/>
+    <row r="33" spans="2:34" s="14" customFormat="1">
+      <c r="B33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="15">
+        <f>(G4-C4)/C4</f>
         <v>0.52069169376293234</v>
       </c>
-      <c r="H30" s="13">
-        <f t="shared" si="118"/>
+      <c r="H33" s="15">
+        <f>(H4-D4)/D4</f>
         <v>3.1875</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" si="119"/>
+      <c r="I33" s="15">
+        <f>(I4-E4)/E4</f>
         <v>0.48749999999999999</v>
       </c>
-      <c r="J30" s="13">
-        <f t="shared" si="120"/>
+      <c r="J33" s="15">
+        <f>(J4-F4)/F4</f>
         <v>0.91067796610169494</v>
       </c>
-      <c r="K30" s="13">
-        <f t="shared" si="121"/>
+      <c r="K33" s="15">
+        <f>(K4-G4)/G4</f>
         <v>0.67168821071046747</v>
       </c>
-      <c r="L30" s="13">
-        <f t="shared" si="122"/>
+      <c r="L33" s="15">
+        <f>(L4-H4)/H4</f>
         <v>0.26119402985074625</v>
       </c>
-      <c r="M30" s="13">
-        <f t="shared" si="123"/>
+      <c r="M33" s="15">
+        <f>(M4-I4)/I4</f>
         <v>0.31092436974789917</v>
       </c>
-      <c r="N30" s="13">
-        <f t="shared" si="124"/>
+      <c r="N33" s="15">
+        <f>(N4-J4)/J4</f>
         <v>0.19755167213696442</v>
       </c>
-      <c r="O30" s="13">
-        <f t="shared" si="125"/>
+      <c r="O33" s="15">
+        <f>(O4-K4)/K4</f>
         <v>0.18604651162790697</v>
       </c>
-      <c r="P30" s="13">
-        <f t="shared" si="126"/>
+      <c r="P33" s="15">
+        <f>(P4-L4)/L4</f>
         <v>0.13017751479289941</v>
       </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="127"/>
+      <c r="Q33" s="15">
+        <f>(Q4-M4)/M4</f>
         <v>0.17307692307692307</v>
       </c>
-      <c r="R30" s="13">
-        <f t="shared" si="128"/>
+      <c r="R33" s="15">
+        <f>(R4-N4)/N4</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="S30" s="13">
-        <f t="shared" si="129"/>
+      <c r="S33" s="15">
+        <f>(S4-O4)/O4</f>
         <v>0.12254901960784313</v>
       </c>
-      <c r="T30" s="13">
-        <f t="shared" si="130"/>
+      <c r="T33" s="15">
+        <f>(T4-P4)/P4</f>
         <v>0.1099476439790576</v>
       </c>
-      <c r="U30" s="13">
-        <f t="shared" si="131"/>
+      <c r="U33" s="15">
+        <f>(U4-Q4)/Q4</f>
         <v>0.15846994535519127</v>
       </c>
-      <c r="V30" s="13">
-        <f t="shared" si="132"/>
+      <c r="V33" s="15">
+        <f>(V4-R4)/R4</f>
         <v>0.29677419354838708</v>
       </c>
-      <c r="W30" s="13">
-        <f t="shared" ref="W30" si="135">(W4-S4)/S4</f>
+      <c r="W33" s="28">
+        <f>(W4-S4)/S4</f>
         <v>-0.23144104803493451</v>
       </c>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13">
+      <c r="X33" s="28">
+        <f>(X4-T4)/T4</f>
+        <v>0.10849056603773585</v>
+      </c>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15">
         <f>(AB4-AA4)/AA4</f>
         <v>0.96354646777842956</v>
       </c>
-      <c r="AC30" s="13">
-        <f t="shared" ref="AC30:AE30" si="136">(AC4-AB4)/AB4</f>
+      <c r="AC33" s="15">
+        <f>(AC4-AB4)/AB4</f>
         <v>0.34864068968460588</v>
       </c>
-      <c r="AD30" s="13">
-        <f t="shared" si="136"/>
+      <c r="AD33" s="15">
+        <f>(AD4-AC4)/AC4</f>
         <v>0.15981012658227847</v>
       </c>
-      <c r="AE30" s="13">
-        <f t="shared" si="136"/>
+      <c r="AE33" s="15">
+        <f>(AE4-AD4)/AD4</f>
         <v>0.165075034106412</v>
       </c>
     </row>
-    <row r="31" spans="2:88">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="118"/>
+    <row r="34" spans="2:34">
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6">
+        <f>(G5-C5)/C5</f>
         <v>0.34831515083638848</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="118"/>
+      <c r="H34" s="6">
+        <f>(H5-D5)/D5</f>
         <v>0.41095066185318885</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="119"/>
+      <c r="I34" s="6">
+        <f>(I5-E5)/E5</f>
         <v>0.15053191489361675</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" si="120"/>
+      <c r="J34" s="6">
+        <f>(J5-F5)/F5</f>
         <v>0.20523691867177743</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="121"/>
+      <c r="K34" s="6">
+        <f>(K5-G5)/G5</f>
         <v>5.4424297451068936E-2</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="122"/>
+      <c r="L34" s="6">
+        <f>(L5-H5)/H5</f>
         <v>1.0657896630636534E-2</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="123"/>
+      <c r="M34" s="6">
+        <f>(M5-I5)/I5</f>
         <v>5.058031236566856E-2</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" si="124"/>
+      <c r="N34" s="6">
+        <f>(N5-J5)/J5</f>
         <v>-3.3980415549525237E-3</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" si="125"/>
+      <c r="O34" s="6">
+        <f>(O5-K5)/K5</f>
         <v>-3.8407620071875675E-5</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="126"/>
+      <c r="P34" s="6">
+        <f>(P5-L5)/L5</f>
         <v>1.8239863458068408E-2</v>
       </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="127"/>
+      <c r="Q34" s="6">
+        <f>(Q5-M5)/M5</f>
         <v>3.3178173416689272E-2</v>
       </c>
-      <c r="R31" s="6">
-        <f t="shared" si="128"/>
+      <c r="R34" s="6">
+        <f>(R5-N5)/N5</f>
         <v>2.4966261808367186E-2</v>
       </c>
-      <c r="S31" s="6">
-        <f t="shared" si="129"/>
+      <c r="S34" s="6">
+        <f>(S5-O5)/O5</f>
         <v>2.5193712477449413E-2</v>
       </c>
-      <c r="T31" s="6">
-        <f t="shared" si="130"/>
+      <c r="T34" s="6">
+        <f>(T5-P5)/P5</f>
         <v>2.1222812326055458E-2</v>
       </c>
-      <c r="U31" s="6">
-        <f t="shared" si="131"/>
+      <c r="U34" s="6">
+        <f>(U5-Q5)/Q5</f>
         <v>4.8271765101580003E-2</v>
       </c>
-      <c r="V31" s="6">
-        <f t="shared" si="132"/>
+      <c r="V34" s="6">
+        <f>(V5-R5)/R5</f>
         <v>4.3332983082904314E-2</v>
       </c>
-      <c r="W31" s="6">
-        <f t="shared" ref="W31" si="137">(W5-S5)/S5</f>
+      <c r="W34" s="27">
+        <f>(W5-S5)/S5</f>
         <v>-8.1883630355246054E-2</v>
       </c>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6">
+      <c r="X34" s="27">
+        <f>(X5-T5)/T5</f>
+        <v>3.1786977762803224E-2</v>
+      </c>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6">
         <f>(AB5-AA5)/AA5</f>
         <v>0.27341184471806901</v>
       </c>
-      <c r="AC31" s="6">
-        <f t="shared" ref="AC31:AE31" si="138">(AC5-AB5)/AB5</f>
+      <c r="AC34" s="6">
+        <f>(AC5-AB5)/AB5</f>
         <v>2.794564741155459E-2</v>
       </c>
-      <c r="AD31" s="6">
-        <f t="shared" si="138"/>
+      <c r="AD34" s="6">
+        <f>(AD5-AC5)/AC5</f>
         <v>1.8688781470470681E-2</v>
       </c>
-      <c r="AE31" s="6">
-        <f t="shared" si="138"/>
+      <c r="AE34" s="6">
+        <f>(AE5-AD5)/AD5</f>
         <v>3.4256709411908226E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:37">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" ref="C33:J33" si="139">C8/C6</f>
+    <row r="36" spans="2:34">
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6">
+        <f>C8/C6</f>
         <v>0.67003789363648236</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="139"/>
+      <c r="D36" s="6">
+        <f>D8/D6</f>
         <v>0.51848709875916288</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="139"/>
+      <c r="E36" s="6">
+        <f>E8/E6</f>
         <v>0.83064907239719554</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="139"/>
+      <c r="F36" s="6">
+        <f>F8/F6</f>
         <v>0.75589923469387765</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="139"/>
+      <c r="G36" s="6">
+        <f>G8/G6</f>
         <v>0.71304017426285549</v>
       </c>
-      <c r="H33" s="6">
-        <f t="shared" si="139"/>
+      <c r="H36" s="6">
+        <f>H8/H6</f>
         <v>0.77945543071161039</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="139"/>
+      <c r="I36" s="6">
+        <f>I8/I6</f>
         <v>0.86074213652079712</v>
       </c>
-      <c r="J33" s="6">
-        <f t="shared" si="139"/>
+      <c r="J36" s="6">
+        <f>J8/J6</f>
         <v>0.80726290892287933</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" ref="K33:N33" si="140">K8/K6</f>
+      <c r="K36" s="6">
+        <f>K8/K6</f>
         <v>0.75944333996023861</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="140"/>
+      <c r="L36" s="6">
+        <f>L8/L6</f>
         <v>0.81463878326996197</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="140"/>
+      <c r="M36" s="6">
+        <f>M8/M6</f>
         <v>0.86095700416088761</v>
       </c>
-      <c r="N33" s="6">
-        <f t="shared" si="140"/>
+      <c r="N36" s="6">
+        <f>N8/N6</f>
         <v>0.81861198738170349</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" ref="O33:V33" si="141">O8/O6</f>
+      <c r="O36" s="6">
+        <f>O8/O6</f>
         <v>0.76457645764576454</v>
       </c>
-      <c r="P33" s="6">
-        <f t="shared" si="141"/>
+      <c r="P36" s="6">
+        <f>P8/P6</f>
         <v>0.82608695652173914</v>
       </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="141"/>
+      <c r="Q36" s="6">
+        <f>Q8/Q6</f>
         <v>0.8648807771563144</v>
       </c>
-      <c r="R33" s="6">
-        <f t="shared" si="141"/>
+      <c r="R36" s="6">
+        <f>R8/R6</f>
         <v>0.82687105500450853</v>
       </c>
-      <c r="S33" s="6">
-        <f t="shared" si="141"/>
+      <c r="S36" s="6">
+        <f>S8/S6</f>
         <v>0.77591036414565828</v>
       </c>
-      <c r="T33" s="6">
-        <f t="shared" si="141"/>
+      <c r="T36" s="6">
+        <f>T8/T6</f>
         <v>0.81586608442503639</v>
       </c>
-      <c r="U33" s="6">
-        <f t="shared" si="141"/>
+      <c r="U36" s="6">
+        <f>U8/U6</f>
         <v>0.87540192926045013</v>
       </c>
-      <c r="V33" s="6">
-        <f t="shared" si="141"/>
+      <c r="V36" s="6">
+        <f>V8/V6</f>
         <v>0.82782258064516134</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W36" s="27">
         <f>W8/W6</f>
         <v>0.77728873239436624</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="X36" s="27">
+        <f>X8/X6</f>
+        <v>0.82428940568475451</v>
+      </c>
+      <c r="AA36" s="6">
         <f>AA8/AA6</f>
         <v>0.74067779902841724</v>
       </c>
-      <c r="AB33" s="6">
-        <f t="shared" ref="AB33:AE33" si="142">AB8/AB6</f>
+      <c r="AB36" s="6">
+        <f>AB8/AB6</f>
         <v>0.80708993511543892</v>
       </c>
-      <c r="AC33" s="6">
-        <f t="shared" si="142"/>
+      <c r="AC36" s="6">
+        <f>AC8/AC6</f>
         <v>0.82152637218716518</v>
       </c>
-      <c r="AD33" s="6">
-        <f t="shared" si="142"/>
+      <c r="AD36" s="6">
+        <f>AD8/AD6</f>
         <v>0.82827467984269432</v>
       </c>
-      <c r="AE33" s="6">
-        <f t="shared" si="142"/>
+      <c r="AE36" s="6">
+        <f>AE8/AE6</f>
         <v>0.83084128985768335</v>
       </c>
     </row>
-    <row r="34" spans="2:37">
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="6">
-        <f t="shared" ref="C34:J34" si="143">C14/C6</f>
+    <row r="37" spans="2:34">
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="6">
+        <f>C14/C6</f>
         <v>-0.38664457194445423</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="143"/>
+      <c r="D37" s="6">
+        <f>D14/D6</f>
         <v>-1.7421155764784602</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" si="143"/>
+      <c r="E37" s="6">
+        <f>E14/E6</f>
         <v>0.31194764927577473</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="143"/>
+      <c r="F37" s="6">
+        <f>F14/F6</f>
         <v>-3.6079481975271865</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="143"/>
+      <c r="G37" s="6">
+        <f>G14/G6</f>
         <v>-0.50392023776236372</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="143"/>
+      <c r="H37" s="6">
+        <f>H14/H6</f>
         <v>-3.8136329588015008E-2</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="143"/>
+      <c r="I37" s="6">
+        <f>I14/I6</f>
         <v>0.38078162822378514</v>
       </c>
-      <c r="J34" s="6">
-        <f t="shared" si="143"/>
+      <c r="J37" s="6">
+        <f>J14/J6</f>
         <v>4.931940822192462E-2</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34:N34" si="144">K14/K6</f>
+      <c r="K37" s="6">
+        <f>K14/K6</f>
         <v>-3.3134526176275677E-3</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="144"/>
+      <c r="L37" s="6">
+        <f>L14/L6</f>
         <v>0.17538022813688212</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="144"/>
+      <c r="M37" s="6">
+        <f>M14/M6</f>
         <v>0.41712898751733701</v>
       </c>
-      <c r="N34" s="6">
-        <f t="shared" si="144"/>
+      <c r="N37" s="6">
+        <f>N14/N6</f>
         <v>0.12355415352260778</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" ref="O34:V34" si="145">O14/O6</f>
+      <c r="O37" s="6">
+        <f>O14/O6</f>
         <v>-2.7502750275027505E-3</v>
       </c>
-      <c r="P34" s="6">
-        <f t="shared" si="145"/>
+      <c r="P37" s="6">
+        <f>P14/P6</f>
         <v>0.21054750402576489</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="145"/>
+      <c r="Q37" s="6">
+        <f>Q14/Q6</f>
         <v>0.44038857815719751</v>
       </c>
-      <c r="R34" s="6">
-        <f t="shared" si="145"/>
+      <c r="R37" s="6">
+        <f>R14/R6</f>
         <v>-0.22362488728584309</v>
       </c>
-      <c r="S34" s="6">
-        <f t="shared" si="145"/>
+      <c r="S37" s="6">
+        <f>S14/S6</f>
         <v>4.7152194211017739E-2</v>
       </c>
-      <c r="T34" s="6">
-        <f t="shared" si="145"/>
+      <c r="T37" s="6">
+        <f>T14/T6</f>
         <v>0.18085880640465793</v>
       </c>
-      <c r="U34" s="6">
-        <f t="shared" si="145"/>
+      <c r="U37" s="6">
+        <f>U14/U6</f>
         <v>0.40862808145766344</v>
       </c>
-      <c r="V34" s="6">
-        <f t="shared" si="145"/>
+      <c r="V37" s="6">
+        <f>V14/V6</f>
         <v>0.17338709677419356</v>
       </c>
-      <c r="W34" s="6">
+      <c r="W37" s="27">
         <f>W14/W6</f>
         <v>1.6725352112676055E-2</v>
       </c>
-      <c r="AA34" s="6">
+      <c r="X37" s="27">
+        <f>X14/X6</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="AA37" s="6">
         <f>AA14/AA6</f>
         <v>-1.062739939239814</v>
       </c>
-      <c r="AB34" s="6">
-        <f t="shared" ref="AB34:AE34" si="146">AB14/AB6</f>
+      <c r="AB37" s="6">
+        <f>AB14/AB6</f>
         <v>7.1714664151129842E-2</v>
       </c>
-      <c r="AC34" s="6">
-        <f t="shared" si="146"/>
+      <c r="AC37" s="6">
+        <f>AC14/AC6</f>
         <v>0.21454935111322776</v>
       </c>
-      <c r="AD34" s="6">
-        <f t="shared" si="146"/>
+      <c r="AD37" s="6">
+        <f>AD14/AD6</f>
         <v>0.15307048502571341</v>
       </c>
-      <c r="AE34" s="6">
-        <f t="shared" si="146"/>
+      <c r="AE37" s="6">
+        <f>AE14/AE6</f>
         <v>0.2299585660241398</v>
       </c>
     </row>
-    <row r="35" spans="2:37">
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:J35" si="147">C19/C6</f>
+    <row r="38" spans="2:34">
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6">
+        <f>C19/C6</f>
         <v>-0.4046006913509852</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="147"/>
+      <c r="D38" s="6">
+        <f>D19/D6</f>
         <v>-1.7193330425899263</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="147"/>
+      <c r="E38" s="6">
+        <f>E19/E6</f>
         <v>0.16393274088134743</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="147"/>
+      <c r="F38" s="6">
+        <f>F19/F6</f>
         <v>-4.5246292175629383</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="147"/>
+      <c r="G38" s="6">
+        <f>G19/G6</f>
         <v>-1.3216410203216464</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" si="147"/>
+      <c r="H38" s="6">
+        <f>H19/H6</f>
         <v>-5.0824719101123628E-2</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="147"/>
+      <c r="I38" s="6">
+        <f>I19/I6</f>
         <v>0.37270093571558821</v>
       </c>
-      <c r="J35" s="6">
-        <f t="shared" si="147"/>
+      <c r="J38" s="6">
+        <f>J19/J6</f>
         <v>3.5570514477260097E-2</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" ref="K35:N35" si="148">K19/K6</f>
+      <c r="K38" s="6">
+        <f>K19/K6</f>
         <v>-1.2591119946984758E-2</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="148"/>
+      <c r="L38" s="6">
+        <f>L19/L6</f>
         <v>0.18013307984790874</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="148"/>
+      <c r="M38" s="6">
+        <f>M19/M6</f>
         <v>0.42094313453536752</v>
       </c>
-      <c r="N35" s="6">
-        <f t="shared" si="148"/>
+      <c r="N38" s="6">
+        <f>N19/N6</f>
         <v>0.16771819137749738</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" ref="O35:Q35" si="149">O19/O6</f>
+      <c r="O38" s="6">
+        <f>O19/O6</f>
         <v>6.4356435643564358E-2</v>
       </c>
-      <c r="P35" s="6">
-        <f t="shared" si="149"/>
+      <c r="P38" s="6">
+        <f>P19/P6</f>
         <v>0.26167471819645732</v>
       </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="149"/>
+      <c r="Q38" s="6">
+        <f>Q19/Q6</f>
         <v>1.2876067118045333</v>
       </c>
-      <c r="R35" s="6">
-        <f t="shared" ref="R35:W35" si="150">R19/R6</f>
+      <c r="R38" s="6">
+        <f>R19/R6</f>
         <v>-0.15734896302975654</v>
       </c>
-      <c r="S35" s="6">
-        <f t="shared" si="150"/>
+      <c r="S38" s="6">
+        <f>S19/S6</f>
         <v>0.12324929971988796</v>
       </c>
-      <c r="T35" s="6">
-        <f t="shared" si="150"/>
+      <c r="T38" s="6">
+        <f>T19/T6</f>
         <v>0.20196506550218341</v>
       </c>
-      <c r="U35" s="6">
-        <f t="shared" si="150"/>
+      <c r="U38" s="6">
+        <f>U19/U6</f>
         <v>0.36655948553054662</v>
       </c>
-      <c r="V35" s="6">
-        <f t="shared" si="150"/>
+      <c r="V38" s="6">
+        <f>V19/V6</f>
         <v>0.18588709677419354</v>
       </c>
-      <c r="W35" s="6">
-        <f t="shared" si="150"/>
+      <c r="W38" s="27">
+        <f>W19/W6</f>
         <v>6.7781690140845077E-2</v>
       </c>
-      <c r="AA35" s="6">
+      <c r="X38" s="27">
+        <f>X19/X6</f>
+        <v>0.20736434108527133</v>
+      </c>
+      <c r="AA38" s="6">
         <f>AA19/AA6</f>
         <v>-1.3569336797506601</v>
       </c>
-      <c r="AB35" s="6">
-        <f t="shared" ref="AB35:AD35" si="151">AB19/AB6</f>
+      <c r="AB38" s="6">
+        <f>AB19/AB6</f>
         <v>-5.8693856896129291E-2</v>
       </c>
-      <c r="AC35" s="6">
-        <f t="shared" si="151"/>
+      <c r="AC38" s="6">
+        <f>AC19/AC6</f>
         <v>0.22538397428265269</v>
       </c>
-      <c r="AD35" s="6">
-        <f t="shared" si="151"/>
+      <c r="AD38" s="6">
+        <f>AD19/AD6</f>
         <v>0.48321064838156702</v>
       </c>
-      <c r="AE35" s="6">
+      <c r="AE38" s="6">
         <f>AE19/AE6</f>
         <v>0.23851558277787785</v>
       </c>
     </row>
-    <row r="36" spans="2:37" s="8" customFormat="1">
-      <c r="B36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="13">
-        <f t="shared" ref="C36:J36" si="152">C6/C4</f>
+    <row r="39" spans="2:34" s="8" customFormat="1">
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="13">
+        <f>C6/C4</f>
         <v>0.1244206325746379</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="152"/>
+      <c r="D39" s="13">
+        <f>D6/D4</f>
         <v>0.104616875</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" si="152"/>
+      <c r="E39" s="13">
+        <f>E6/E4</f>
         <v>0.16779137499999999</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="152"/>
+      <c r="F39" s="13">
+        <f>F6/F4</f>
         <v>0.14563796610169491</v>
       </c>
-      <c r="G36" s="13">
-        <f t="shared" si="152"/>
+      <c r="G39" s="13">
+        <f>G6/G4</f>
         <v>8.6202352026436002E-2</v>
       </c>
-      <c r="H36" s="13">
-        <f t="shared" si="152"/>
+      <c r="H39" s="13">
+        <f>H6/H4</f>
         <v>9.9626865671641793E-2</v>
       </c>
-      <c r="I36" s="13">
-        <f t="shared" si="152"/>
+      <c r="I39" s="13">
+        <f>I6/I4</f>
         <v>0.18801949579831931</v>
       </c>
-      <c r="J36" s="13">
-        <f t="shared" si="152"/>
+      <c r="J39" s="13">
+        <f>J6/J4</f>
         <v>0.1359173245808569</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K39" s="13">
         <f>K6/K4</f>
         <v>8.7732558139534886E-2</v>
       </c>
-      <c r="L36" s="13">
-        <f t="shared" ref="L36:N36" si="153">L6/L4</f>
+      <c r="L39" s="13">
+        <f>L6/L4</f>
         <v>0.12449704142011835</v>
       </c>
-      <c r="M36" s="13">
-        <f t="shared" si="153"/>
+      <c r="M39" s="13">
+        <f>M6/M4</f>
         <v>0.18487179487179486</v>
       </c>
-      <c r="N36" s="13">
-        <f t="shared" si="153"/>
+      <c r="N39" s="13">
+        <f>N6/N4</f>
         <v>0.1408888888888889</v>
       </c>
-      <c r="O36" s="13">
-        <f t="shared" ref="O36:W36" si="154">O6/O4</f>
+      <c r="O39" s="13">
+        <f>O6/O4</f>
         <v>8.9117647058823524E-2</v>
       </c>
-      <c r="P36" s="13">
-        <f t="shared" si="154"/>
+      <c r="P39" s="13">
+        <f>P6/P4</f>
         <v>0.13005235602094239</v>
       </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="154"/>
+      <c r="Q39" s="13">
+        <f>Q6/Q4</f>
         <v>0.18562841530054644</v>
       </c>
-      <c r="R36" s="13">
-        <f t="shared" si="154"/>
+      <c r="R39" s="13">
+        <f>R6/R4</f>
         <v>0.14309677419354838</v>
       </c>
-      <c r="S36" s="13">
-        <f t="shared" si="154"/>
+      <c r="S39" s="13">
+        <f>S6/S4</f>
         <v>9.3537117903930128E-2</v>
       </c>
-      <c r="T36" s="13">
-        <f t="shared" si="154"/>
+      <c r="T39" s="13">
+        <f>T6/T4</f>
         <v>0.12962264150943395</v>
       </c>
-      <c r="U36" s="13">
-        <f t="shared" si="154"/>
+      <c r="U39" s="13">
+        <f>U6/U4</f>
         <v>0.1760377358490566</v>
       </c>
-      <c r="V36" s="13">
-        <f t="shared" si="154"/>
+      <c r="V39" s="13">
+        <f>V6/V4</f>
         <v>0.12338308457711443</v>
       </c>
-      <c r="W36" s="13">
-        <f t="shared" si="154"/>
+      <c r="W39" s="26">
+        <f>W6/W4</f>
         <v>0.12909090909090909</v>
       </c>
-      <c r="AA36" s="13">
-        <f t="shared" ref="AA36:AD36" si="155">AA6/AA4</f>
+      <c r="X39" s="26">
+        <f>X6/X4</f>
+        <v>0.13174468085106383</v>
+      </c>
+      <c r="AA39" s="13">
+        <f>AA6/AA4</f>
         <v>0.14154860470962877</v>
       </c>
-      <c r="AB36" s="13">
-        <f t="shared" si="155"/>
+      <c r="AB39" s="13">
+        <f>AB6/AB4</f>
         <v>0.12785549058939014</v>
       </c>
-      <c r="AC36" s="13">
-        <f t="shared" si="155"/>
+      <c r="AC39" s="13">
+        <f>AC6/AC4</f>
         <v>0.13289556962025317</v>
       </c>
-      <c r="AD36" s="13">
-        <f t="shared" si="155"/>
+      <c r="AD39" s="13">
+        <f>AD6/AD4</f>
         <v>0.13529331514324694</v>
       </c>
-      <c r="AE36" s="13">
+      <c r="AE39" s="13">
         <f>AE6/AE4</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="38" spans="2:37">
-      <c r="B38" s="2" t="s">
+    <row r="41" spans="2:34">
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1">
+        <f>C19/C21</f>
+        <v>-1.2974983714844057</v>
+      </c>
+      <c r="D41" s="1">
+        <f>D19/D21</f>
+        <v>-2.18425376730913</v>
+      </c>
+      <c r="E41" s="1">
+        <f>E19/E21</f>
+        <v>0.73545316604613531</v>
+      </c>
+      <c r="F41" s="1">
+        <f>F19/F21</f>
+        <v>-11.244525748000754</v>
+      </c>
+      <c r="G41" s="1">
+        <f>G19/G21</f>
+        <v>-1.950564097444089</v>
+      </c>
+      <c r="H41" s="1">
+        <f>H19/H21</f>
+        <v>-0.11091494902237725</v>
+      </c>
+      <c r="I41" s="1">
+        <f>I19/I21</f>
+        <v>1.2228676259246005</v>
+      </c>
+      <c r="J41" s="1">
+        <f>J19/J21</f>
+        <v>8.0043060907980079E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <f>K19/K21</f>
+        <v>-2.9921259842519685E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <f>L19/L21</f>
+        <v>0.55409356725146197</v>
+      </c>
+      <c r="M41" s="1">
+        <f>M19/M21</f>
+        <v>1.7774524158125915</v>
+      </c>
+      <c r="N41" s="1">
+        <f>N19/N21</f>
+        <v>0.46911764705882353</v>
+      </c>
+      <c r="O41" s="1">
+        <f>O19/O21</f>
+        <v>0.17462686567164179</v>
+      </c>
+      <c r="P41" s="1">
+        <f>P19/P21</f>
+        <v>0.97744360902255634</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>Q19/Q21</f>
+        <v>6.627272727272727</v>
+      </c>
+      <c r="R41" s="1">
+        <f>R19/R21</f>
+        <v>-0.52719033232628398</v>
+      </c>
+      <c r="S41" s="1">
+        <f>S19/S21</f>
+        <v>0.40366972477064222</v>
+      </c>
+      <c r="T41" s="1">
+        <f>T19/T21</f>
+        <v>0.85516178736517723</v>
+      </c>
+      <c r="U41" s="1">
+        <f>U19/U21</f>
+        <v>2.1308411214953269</v>
+      </c>
+      <c r="V41" s="1">
+        <f>V19/V21</f>
+        <v>0.71472868217054264</v>
+      </c>
+      <c r="W41" s="29">
+        <f>W19/W21</f>
+        <v>0.24367088607594936</v>
+      </c>
+      <c r="X41" s="29">
+        <f>X19/X21</f>
+        <v>1.0338164251207729</v>
+      </c>
+      <c r="AA41" s="1">
+        <f>AA19/AA21</f>
+        <v>-13.25791962516811</v>
+      </c>
+      <c r="AB41" s="1">
+        <f>AB19/AB21</f>
+        <v>-0.51647828743302948</v>
+      </c>
+      <c r="AC41" s="1">
+        <f>AC19/AC21</f>
+        <v>2.7838235294117646</v>
+      </c>
+      <c r="AD41" s="1">
+        <f>AD19/AD21</f>
+        <v>7.238670694864048</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>AE19/AE21</f>
+        <v>4.1054263565891471</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34">
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" ref="C38:J38" si="156">C19/C20</f>
-        <v>-1.2974983714844057</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="156"/>
-        <v>-2.18425376730913</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="156"/>
-        <v>0.73545316604613531</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="156"/>
-        <v>-11.244525748000754</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="156"/>
-        <v>-1.950564097444089</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="156"/>
-        <v>-0.11091494902237725</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="156"/>
-        <v>1.2228676259246005</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="156"/>
-        <v>8.0043060907980079E-2</v>
-      </c>
-      <c r="K38" s="1">
-        <f>K19/K20</f>
-        <v>-2.9921259842519685E-2</v>
-      </c>
-      <c r="L38" s="1">
-        <f>L19/L20</f>
-        <v>0.55409356725146197</v>
-      </c>
-      <c r="M38" s="1">
-        <f>M19/M20</f>
-        <v>1.7774524158125915</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" ref="N38" si="157">N19/N20</f>
-        <v>0.46911764705882353</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" ref="O38:Q38" si="158">O19/O20</f>
-        <v>0.17462686567164179</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="158"/>
-        <v>0.97744360902255634</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="158"/>
-        <v>6.627272727272727</v>
-      </c>
-      <c r="R38" s="1">
-        <f t="shared" ref="R38:W38" si="159">R19/R20</f>
-        <v>-0.52719033232628398</v>
-      </c>
-      <c r="S38" s="1">
-        <f t="shared" si="159"/>
-        <v>0.40366972477064222</v>
-      </c>
-      <c r="T38" s="1">
-        <f t="shared" si="159"/>
-        <v>0.85516178736517723</v>
-      </c>
-      <c r="U38" s="1">
-        <f t="shared" si="159"/>
-        <v>2.1308411214953269</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="159"/>
-        <v>0.71472868217054264</v>
-      </c>
-      <c r="W38" s="1">
-        <f t="shared" si="159"/>
-        <v>0.24367088607594936</v>
-      </c>
-      <c r="AA38" s="1">
-        <f t="shared" ref="AA38:AD38" si="160">AA19/AA20</f>
-        <v>-13.25791962516811</v>
-      </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="160"/>
-        <v>-0.51647828743302948</v>
-      </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="160"/>
-        <v>2.7838235294117646</v>
-      </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="160"/>
-        <v>7.238670694864048</v>
-      </c>
-      <c r="AE38" s="1">
-        <f>AE19/AE20</f>
-        <v>4.1054263565891471</v>
-      </c>
-    </row>
-    <row r="39" spans="2:37">
-      <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="C42" s="1">
         <f>Main!$J$5/Model!C19</f>
-        <v>-249.96227301419538</v>
-      </c>
-      <c r="D39" s="1">
+        <v>-235.19619500594536</v>
+      </c>
+      <c r="D42" s="1">
         <f>Main!$J$5/Model!D19</f>
-        <v>-147.91552290874722</v>
-      </c>
-      <c r="E39" s="1">
+        <v>-139.17767569858998</v>
+      </c>
+      <c r="E42" s="1">
         <f>Main!$J$5/Model!E19</f>
-        <v>386.90127787977389</v>
-      </c>
-      <c r="F39" s="1">
+        <v>364.04577099958198</v>
+      </c>
+      <c r="F42" s="1">
         <f>Main!$J$5/Model!F19</f>
-        <v>-21.898575845627825</v>
-      </c>
-      <c r="G39" s="1">
+        <v>-20.604956311340118</v>
+      </c>
+      <c r="G42" s="1">
         <f>Main!$J$5/Model!G19</f>
-        <v>-72.630610018162272</v>
-      </c>
-      <c r="H39" s="1">
+        <v>-68.34008553067666</v>
+      </c>
+      <c r="H42" s="1">
         <f>Main!$J$5/Model!H19</f>
-        <v>-1254.7847489351659</v>
-      </c>
-      <c r="I39" s="1">
+        <v>-1180.6605650616787</v>
+      </c>
+      <c r="I42" s="1">
         <f>Main!$J$5/Model!I19</f>
-        <v>102.09751131140327</v>
-      </c>
-      <c r="J39" s="1">
+        <v>96.066281885085985</v>
+      </c>
+      <c r="J42" s="1">
         <f>Main!$J$5/Model!J19</f>
-        <v>1562.1438138749745</v>
-      </c>
-      <c r="K39" s="1">
+        <v>1469.8629382947101</v>
+      </c>
+      <c r="K42" s="1">
         <f>Main!$J$5/Model!K19</f>
-        <v>-4480.9684210526311</v>
-      </c>
-      <c r="L39" s="1">
+        <v>-4216.2631578947367</v>
+      </c>
+      <c r="L42" s="1">
         <f>Main!$J$5/Model!L19</f>
-        <v>224.6395778364116</v>
-      </c>
-      <c r="M39" s="1">
+        <v>211.36939313984169</v>
+      </c>
+      <c r="M42" s="1">
         <f>Main!$J$5/Model!M19</f>
-        <v>70.130477759472811</v>
-      </c>
-      <c r="N39" s="1">
+        <v>65.987644151565078</v>
+      </c>
+      <c r="N42" s="1">
         <f>Main!$J$5/Model!N19</f>
-        <v>266.89153605015673</v>
-      </c>
-      <c r="O39" s="1">
+        <v>251.12539184952979</v>
+      </c>
+      <c r="O42" s="1">
         <f>Main!$J$5/Model!O19</f>
-        <v>727.67863247863238</v>
-      </c>
-      <c r="P39" s="1">
+        <v>684.69230769230774</v>
+      </c>
+      <c r="P42" s="1">
         <f>Main!$J$5/Model!P19</f>
-        <v>130.98215384615384</v>
-      </c>
-      <c r="Q39" s="1">
+        <v>123.24461538461539</v>
+      </c>
+      <c r="Q42" s="1">
         <f>Main!$J$5/Model!Q19</f>
-        <v>19.464654778235023</v>
-      </c>
-      <c r="R39" s="1">
+        <v>18.314814814814813</v>
+      </c>
+      <c r="R42" s="1">
         <f>Main!$J$5/Model!R19</f>
-        <v>-243.94957020057305</v>
-      </c>
-      <c r="S39" s="1">
+        <v>-229.53868194842406</v>
+      </c>
+      <c r="S42" s="1">
         <f>Main!$J$5/Model!S19</f>
-        <v>322.4939393939394</v>
-      </c>
-      <c r="T39" s="1">
+        <v>303.44318181818181</v>
+      </c>
+      <c r="T42" s="1">
         <f>Main!$J$5/Model!T19</f>
-        <v>153.4025225225225</v>
-      </c>
-      <c r="U39" s="1">
+        <v>144.34054054054053</v>
+      </c>
+      <c r="U42" s="1">
         <f>Main!$J$5/Model!U19</f>
-        <v>62.235672514619878</v>
-      </c>
-      <c r="V39" s="1">
+        <v>58.559210526315788</v>
+      </c>
+      <c r="V42" s="1">
         <f>Main!$J$5/Model!V19</f>
-        <v>184.68199566160519</v>
-      </c>
-      <c r="W39" s="1">
+        <v>173.77223427331887</v>
+      </c>
+      <c r="W42" s="29">
         <f>Main!$J$5/Model!W19</f>
-        <v>552.84675324675322</v>
-      </c>
-      <c r="AA39" s="1">
+        <v>520.18831168831173</v>
+      </c>
+      <c r="X42" s="29">
+        <f>Main!$J$5/Model!X19</f>
+        <v>124.78037383177571</v>
+      </c>
+      <c r="AA42" s="1">
         <f>Main!$J$5/Model!AA19</f>
-        <v>-18.572981802760562</v>
-      </c>
-      <c r="AB39" s="1">
+        <v>-17.475815839120138</v>
+      </c>
+      <c r="AB42" s="1">
         <f>Main!$J$5/Model!AB19</f>
-        <v>-242.09879772967685</v>
-      </c>
-      <c r="AC39" s="1">
+        <v>-227.79724057918264</v>
+      </c>
+      <c r="AC42" s="1">
         <f>Main!$J$5/Model!AC19</f>
-        <v>44.975382989963016</v>
-      </c>
-      <c r="AD39" s="1">
+        <v>42.318541996830426</v>
+      </c>
+      <c r="AD42" s="1">
         <f>Main!$J$5/Model!AD19</f>
-        <v>17.766777963272119</v>
-      </c>
-      <c r="AE39" s="1">
+        <v>16.717237061769616</v>
+      </c>
+      <c r="AE42" s="1">
         <f>Main!$J$5/Model!AE19</f>
-        <v>32.151963746223565</v>
-      </c>
-    </row>
-    <row r="40" spans="2:37">
-      <c r="AG40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ40" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:37">
-      <c r="AG41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH41" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="AJ41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK41" s="6">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="42" spans="2:37">
-      <c r="AG42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH42" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK42" s="6">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="2:37">
-      <c r="AG43" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH43" s="14">
-        <f>NPV(AH41, AF19:CJ19)</f>
-        <v>64408.948882616336</v>
-      </c>
-      <c r="AJ43" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK43" s="14">
-        <f>NPV(AK41, AF24:CJ24)</f>
-        <v>93362.488464213617</v>
-      </c>
-    </row>
-    <row r="44" spans="2:37">
-      <c r="AG44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH44" s="8">
-        <f>AH43/Main!J4</f>
-        <v>103.88540142357473</v>
-      </c>
-      <c r="AJ44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK44" s="8">
-        <f>AK43/Main!J4</f>
-        <v>150.58465881324776</v>
-      </c>
-    </row>
-    <row r="45" spans="2:37">
-      <c r="AG45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH45" s="2">
-        <f>Main!J3</f>
-        <v>137.32</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK45" s="2">
-        <f>Main!J3</f>
-        <v>137.32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:37">
-      <c r="AG46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH46" s="15">
-        <f>(AH44-AH45)/AH45</f>
-        <v>-0.24347945365879159</v>
-      </c>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK46" s="15">
-        <f>(AK44-AK45)/AK45</f>
-        <v>9.6596699776054201E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" s="6"/>
+        <v>30.252643504531722</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34">
+      <c r="M44" s="7"/>
+      <c r="AH44" s="6"/>
+    </row>
+    <row r="45" spans="2:34">
+      <c r="B45" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34">
+      <c r="B46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="AD46" s="2">
+        <v>20645</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>20959</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34">
+      <c r="B47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="M47" s="7"/>
+      <c r="AD47" s="2">
+        <v>12480</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>12547</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34">
+      <c r="B48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y48" s="7"/>
+      <c r="AA48" s="6"/>
+      <c r="AD48" s="2">
+        <v>8165</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35">
+      <c r="B49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD49" s="2">
+        <f>AD48/AD21</f>
+        <v>12.333836858006043</v>
+      </c>
+      <c r="AE49" s="2">
+        <f>AE48/AE21</f>
+        <v>13.041860465116279</v>
+      </c>
+      <c r="AI49" s="14"/>
+    </row>
+    <row r="52" spans="2:35">
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="2:35">
+      <c r="AH53" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5513,4 +7518,145 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DC0004-40B4-4872-AA14-5907BAA2D76E}">
+  <dimension ref="B3:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="18"/>
+    <col min="2" max="2" width="20.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="12.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="13">
+        <f>C5</f>
+        <v>0.11237200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="H4" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="15">
+        <f>C6+C7*(C8-C6)</f>
+        <v>0.11237200000000003</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="H9" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="H11" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="19"/>
+      <c r="H13" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="H14" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="H15" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="H16" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="H17" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="H18" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models/ABNB.xlsx
+++ b/Models/ABNB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1675" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F886CBE-C049-4E38-BEA6-7E508607BF9B}"/>
+  <xr:revisionPtr revIDLastSave="1681" documentId="8_{01B29E05-4074-C24F-9F5A-60F75487FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63EE0E82-45C2-9646-9A3A-894EDF08B72C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
+    <workbookView xWindow="-120" yWindow="680" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E36FCDD1-B29B-B64E-8BC8-95300EC8866E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1078,10 +1078,10 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="5" customFormat="1">
@@ -1212,7 +1212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" ht="14">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1557,25 +1557,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8C7F3-F2C1-7648-A25C-50F3C2F80138}">
   <dimension ref="A1:VG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
-    <col min="7" max="14" width="10.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="2" customWidth="1"/>
-    <col min="17" max="22" width="10.85546875" style="2"/>
-    <col min="23" max="24" width="10.85546875" style="21"/>
-    <col min="25" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="14" width="10.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="2" customWidth="1"/>
+    <col min="17" max="22" width="10.83203125" style="2"/>
+    <col min="23" max="24" width="10.83203125" style="21"/>
+    <col min="25" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -3480,27 +3480,27 @@
         <v>2648</v>
       </c>
       <c r="AF19" s="8">
-        <f>AF6*$AE$38</f>
+        <f t="shared" ref="AF19:AK19" si="28">AF6*$AE$38</f>
         <v>3045.2</v>
       </c>
       <c r="AG19" s="8">
-        <f>AG6*$AE$38</f>
+        <f t="shared" si="28"/>
         <v>3501.9799999999996</v>
       </c>
       <c r="AH19" s="8">
-        <f>AH6*$AE$38</f>
+        <f t="shared" si="28"/>
         <v>4027.2769999999996</v>
       </c>
       <c r="AI19" s="8">
-        <f>AI6*$AE$38</f>
+        <f t="shared" si="28"/>
         <v>4631.3685499999992</v>
       </c>
       <c r="AJ19" s="8">
-        <f>AJ6*$AE$38</f>
+        <f t="shared" si="28"/>
         <v>5326.0738324999984</v>
       </c>
       <c r="AK19" s="8">
-        <f>AK6*$AE$38</f>
+        <f t="shared" si="28"/>
         <v>6124.9849073749974</v>
       </c>
       <c r="AM19" s="8" t="s">
@@ -3611,79 +3611,79 @@
         <v>3.8251801591547467E-3</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" ref="E22:W22" si="28">(E21-D21)/E21</f>
+        <f t="shared" ref="E22:W22" si="29">(E21-D21)/E21</f>
         <v>0.11927902515323897</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.13463001258116289</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.42466220713525032</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.7620259620524433E-2</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.10291150229647056</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.4980261302755423E-3</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.2277165354330639E-2</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.1637426900584791E-2</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.4641288433382138E-3</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.4117647058823529E-3</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.4925373134328358E-2</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.5187969924812026E-3</v>
       </c>
       <c r="Q22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.575757575757576E-3</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.0211480362537764E-3</v>
       </c>
       <c r="S22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.2232415902140673E-2</v>
       </c>
       <c r="T22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.7041602465331279E-3</v>
       </c>
       <c r="U22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.0903426791277258E-2</v>
       </c>
       <c r="V22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.6511627906976744E-3</v>
       </c>
       <c r="W22" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0569620253164556E-2</v>
       </c>
       <c r="X22" s="25">
@@ -3855,15 +3855,15 @@
         <v>23</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AA26" si="29">SUM(C25:F25)</f>
+        <f t="shared" ref="AA25:AA26" si="30">SUM(C25:F25)</f>
         <v>37.4</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" ref="AB25:AB26" si="30">SUM(G25:J25)</f>
+        <f t="shared" ref="AB25:AB26" si="31">SUM(G25:J25)</f>
         <v>25.299999999999997</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" ref="AC25:AC26" si="31">SUM(K25:N25)</f>
+        <f t="shared" ref="AC25:AC26" si="32">SUM(K25:N25)</f>
         <v>25</v>
       </c>
       <c r="AD25" s="2">
@@ -3884,99 +3884,99 @@
         <v>-578.6</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" ref="D26:N26" si="32">D24-D25</f>
+        <f t="shared" ref="D26:N26" si="33">D24-D25</f>
         <v>-263.09999999999997</v>
       </c>
       <c r="E26" s="8">
+        <f t="shared" si="33"/>
+        <v>330.7</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="33"/>
+        <v>-272.5</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="33"/>
+        <v>610.29999999999995</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="33"/>
+        <v>782.4</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="33"/>
+        <v>522.19999999999993</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="33"/>
+        <v>377.6</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="33"/>
+        <v>1196</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="33"/>
+        <v>795</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="33"/>
+        <v>959</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="33"/>
+        <v>455</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" ref="O26:W26" si="34">O24-O25</f>
+        <v>1581</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="34"/>
+        <v>900</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="34"/>
+        <v>1310</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="34"/>
+        <v>46</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="34"/>
+        <v>1909</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="34"/>
+        <v>1043</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="34"/>
+        <v>1074</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="34"/>
+        <v>458</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" si="34"/>
+        <v>1781</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" ref="X26" si="35">X24-X25</f>
+        <v>952</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="30"/>
+        <v>-783.5</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="31"/>
+        <v>2292.4999999999995</v>
+      </c>
+      <c r="AC26" s="8">
         <f t="shared" si="32"/>
-        <v>330.7</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="32"/>
-        <v>-272.5</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="32"/>
-        <v>610.29999999999995</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="32"/>
-        <v>782.4</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="32"/>
-        <v>522.19999999999993</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="32"/>
-        <v>377.6</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="32"/>
-        <v>1196</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="32"/>
-        <v>795</v>
-      </c>
-      <c r="M26" s="8">
-        <f t="shared" si="32"/>
-        <v>959</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="32"/>
-        <v>455</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" ref="O26:W26" si="33">O24-O25</f>
-        <v>1581</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="33"/>
-        <v>900</v>
-      </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="33"/>
-        <v>1310</v>
-      </c>
-      <c r="R26" s="8">
-        <f t="shared" si="33"/>
-        <v>46</v>
-      </c>
-      <c r="S26" s="8">
-        <f t="shared" si="33"/>
-        <v>1909</v>
-      </c>
-      <c r="T26" s="8">
-        <f t="shared" si="33"/>
-        <v>1043</v>
-      </c>
-      <c r="U26" s="8">
-        <f t="shared" si="33"/>
-        <v>1074</v>
-      </c>
-      <c r="V26" s="8">
-        <f t="shared" si="33"/>
-        <v>458</v>
-      </c>
-      <c r="W26" s="24">
-        <f t="shared" si="33"/>
-        <v>1781</v>
-      </c>
-      <c r="X26" s="24">
-        <f t="shared" ref="X26" si="34">X24-X25</f>
-        <v>952</v>
-      </c>
-      <c r="AA26" s="8">
-        <f t="shared" si="29"/>
-        <v>-783.5</v>
-      </c>
-      <c r="AB26" s="8">
-        <f t="shared" si="30"/>
-        <v>2292.4999999999995</v>
-      </c>
-      <c r="AC26" s="8">
-        <f t="shared" si="31"/>
         <v>3405</v>
       </c>
       <c r="AD26" s="8">
@@ -3992,2191 +3992,2191 @@
         <v>5156.5999999999995</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" ref="AG26:AK26" si="35">AF26*1.15</f>
+        <f t="shared" ref="AG26:AK26" si="36">AF26*1.15</f>
         <v>5930.0899999999992</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6819.6034999999983</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7842.5440249999974</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9018.9256287499957</v>
       </c>
       <c r="AK26" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10371.764473062494</v>
       </c>
       <c r="AL26" s="8">
-        <f t="shared" ref="AL26:CW26" si="36">AK26*(1+$AN$15)</f>
+        <f t="shared" ref="AL26:CW26" si="37">AK26*(1+$AN$15)</f>
         <v>10579.199762523744</v>
       </c>
       <c r="AM26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10790.783757774219</v>
       </c>
       <c r="AN26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11006.599432929705</v>
       </c>
       <c r="AO26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11226.731421588298</v>
       </c>
       <c r="AP26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11451.266050020064</v>
       </c>
       <c r="AQ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11680.291371020465</v>
       </c>
       <c r="AR26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11913.897198440874</v>
       </c>
       <c r="AS26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12152.175142409693</v>
       </c>
       <c r="AT26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12395.218645257886</v>
       </c>
       <c r="AU26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12643.123018163044</v>
       </c>
       <c r="AV26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12895.985478526305</v>
       </c>
       <c r="AW26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13153.905188096831</v>
       </c>
       <c r="AX26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13416.983291858767</v>
       </c>
       <c r="AY26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13685.322957695942</v>
       </c>
       <c r="AZ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13959.02941684986</v>
       </c>
       <c r="BA26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14238.210005186858</v>
       </c>
       <c r="BB26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14522.974205290595</v>
       </c>
       <c r="BC26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14813.433689396406</v>
       </c>
       <c r="BD26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15109.702363184335</v>
       </c>
       <c r="BE26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15411.896410448022</v>
       </c>
       <c r="BF26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15720.134338656982</v>
       </c>
       <c r="BG26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16034.537025430122</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16355.227765938724</v>
       </c>
       <c r="BI26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16682.332321257498</v>
       </c>
       <c r="BJ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17015.978967682648</v>
       </c>
       <c r="BK26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17356.298547036302</v>
       </c>
       <c r="BL26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17703.42451797703</v>
       </c>
       <c r="BM26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18057.493008336569</v>
       </c>
       <c r="BN26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18418.642868503299</v>
       </c>
       <c r="BO26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18787.015725873363</v>
       </c>
       <c r="BP26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>19162.756040390832</v>
       </c>
       <c r="BQ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>19546.01116119865</v>
       </c>
       <c r="BR26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>19936.931384422624</v>
       </c>
       <c r="BS26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20335.670012111077</v>
       </c>
       <c r="BT26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20742.383412353298</v>
       </c>
       <c r="BU26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>21157.231080600362</v>
       </c>
       <c r="BV26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>21580.375702212372</v>
       </c>
       <c r="BW26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22011.98321625662</v>
       </c>
       <c r="BX26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22452.222880581754</v>
       </c>
       <c r="BY26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22901.267338193389</v>
       </c>
       <c r="BZ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23359.292684957258</v>
       </c>
       <c r="CA26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23826.478538656404</v>
       </c>
       <c r="CB26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>24303.008109429531</v>
       </c>
       <c r="CC26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>24789.068271618122</v>
       </c>
       <c r="CD26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25284.849637050484</v>
       </c>
       <c r="CE26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25790.546629791494</v>
       </c>
       <c r="CF26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>26306.357562387326</v>
       </c>
       <c r="CG26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>26832.484713635073</v>
       </c>
       <c r="CH26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>27369.134407907775</v>
       </c>
       <c r="CI26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>27916.517096065931</v>
       </c>
       <c r="CJ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>28474.84743798725</v>
       </c>
       <c r="CK26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>29044.344386746994</v>
       </c>
       <c r="CL26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>29625.231274481936</v>
       </c>
       <c r="CM26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>30217.735899971576</v>
       </c>
       <c r="CN26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>30822.090617971007</v>
       </c>
       <c r="CO26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>31438.53243033043</v>
       </c>
       <c r="CP26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32067.303078937039</v>
       </c>
       <c r="CQ26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32708.649140515779</v>
       </c>
       <c r="CR26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>33362.822123326099</v>
       </c>
       <c r="CS26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>34030.078565792624</v>
       </c>
       <c r="CT26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>34710.68013710848</v>
       </c>
       <c r="CU26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>35404.893739850653</v>
       </c>
       <c r="CV26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>36112.991614647668</v>
       </c>
       <c r="CW26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>36835.251446940623</v>
       </c>
       <c r="CX26" s="8">
-        <f t="shared" ref="CX26:FI26" si="37">CW26*(1+$AN$15)</f>
+        <f t="shared" ref="CX26:FI26" si="38">CW26*(1+$AN$15)</f>
         <v>37571.956475879437</v>
       </c>
       <c r="CY26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>38323.395605397025</v>
       </c>
       <c r="CZ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>39089.863517504964</v>
       </c>
       <c r="DA26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>39871.660787855064</v>
       </c>
       <c r="DB26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40669.094003612168</v>
       </c>
       <c r="DC26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>41482.475883684412</v>
       </c>
       <c r="DD26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>42312.125401358098</v>
       </c>
       <c r="DE26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43158.367909385262</v>
       </c>
       <c r="DF26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44021.535267572966</v>
       </c>
       <c r="DG26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44901.965972924423</v>
       </c>
       <c r="DH26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>45800.005292382913</v>
       </c>
       <c r="DI26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>46716.005398230569</v>
       </c>
       <c r="DJ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>47650.325506195179</v>
       </c>
       <c r="DK26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>48603.33201631908</v>
       </c>
       <c r="DL26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>49575.398656645462</v>
       </c>
       <c r="DM26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>50566.906629778372</v>
       </c>
       <c r="DN26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>51578.244762373943</v>
       </c>
       <c r="DO26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>52609.809657621423</v>
       </c>
       <c r="DP26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>53662.00585077385</v>
       </c>
       <c r="DQ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>54735.245967789328</v>
       </c>
       <c r="DR26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>55829.950887145118</v>
       </c>
       <c r="DS26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>56946.549904888023</v>
       </c>
       <c r="DT26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>58085.480902985786</v>
       </c>
       <c r="DU26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>59247.190521045501</v>
       </c>
       <c r="DV26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60432.134331466412</v>
       </c>
       <c r="DW26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>61640.777018095738</v>
       </c>
       <c r="DX26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>62873.592558457654</v>
       </c>
       <c r="DY26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>64131.064409626808</v>
       </c>
       <c r="DZ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>65413.685697819346</v>
       </c>
       <c r="EA26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>66721.959411775737</v>
       </c>
       <c r="EB26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>68056.398600011249</v>
       </c>
       <c r="EC26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>69417.526572011469</v>
       </c>
       <c r="ED26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>70805.877103451698</v>
       </c>
       <c r="EE26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>72221.994645520739</v>
       </c>
       <c r="EF26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>73666.43453843116</v>
       </c>
       <c r="EG26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>75139.763229199787</v>
       </c>
       <c r="EH26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>76642.558493783785</v>
       </c>
       <c r="EI26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>78175.409663659462</v>
       </c>
       <c r="EJ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>79738.917856932647</v>
       </c>
       <c r="EK26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>81333.6962140713</v>
       </c>
       <c r="EL26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>82960.370138352722</v>
       </c>
       <c r="EM26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>84619.577541119783</v>
       </c>
       <c r="EN26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>86311.969091942185</v>
       </c>
       <c r="EO26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>88038.208473781036</v>
       </c>
       <c r="EP26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>89798.972643256653</v>
       </c>
       <c r="EQ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>91594.952096121793</v>
       </c>
       <c r="ER26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>93426.851138044236</v>
       </c>
       <c r="ES26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>95295.388160805116</v>
       </c>
       <c r="ET26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>97201.295924021222</v>
       </c>
       <c r="EU26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>99145.321842501653</v>
       </c>
       <c r="EV26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>101128.22827935169</v>
       </c>
       <c r="EW26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>103150.79284493873</v>
       </c>
       <c r="EX26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>105213.80870183751</v>
       </c>
       <c r="EY26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>107318.08487587426</v>
       </c>
       <c r="EZ26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>109464.44657339175</v>
       </c>
       <c r="FA26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>111653.73550485958</v>
       </c>
       <c r="FB26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>113886.81021495677</v>
       </c>
       <c r="FC26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>116164.54641925592</v>
       </c>
       <c r="FD26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>118487.83734764103</v>
       </c>
       <c r="FE26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>120857.59409459386</v>
       </c>
       <c r="FF26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>123274.74597648575</v>
       </c>
       <c r="FG26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>125740.24089601547</v>
       </c>
       <c r="FH26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>128255.04571393579</v>
       </c>
       <c r="FI26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>130820.14662821451</v>
       </c>
       <c r="FJ26" s="8">
-        <f t="shared" ref="FJ26:HU26" si="38">FI26*(1+$AN$15)</f>
+        <f t="shared" ref="FJ26:HU26" si="39">FI26*(1+$AN$15)</f>
         <v>133436.5495607788</v>
       </c>
       <c r="FK26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>136105.28055199439</v>
       </c>
       <c r="FL26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>138827.38616303427</v>
       </c>
       <c r="FM26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>141603.93388629495</v>
       </c>
       <c r="FN26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>144436.01256402084</v>
       </c>
       <c r="FO26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>147324.73281530125</v>
       </c>
       <c r="FP26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>150271.22747160727</v>
       </c>
       <c r="FQ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>153276.65202103942</v>
       </c>
       <c r="FR26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>156342.18506146022</v>
       </c>
       <c r="FS26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>159469.02876268941</v>
       </c>
       <c r="FT26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>162658.40933794322</v>
       </c>
       <c r="FU26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>165911.57752470209</v>
       </c>
       <c r="FV26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>169229.80907519613</v>
       </c>
       <c r="FW26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>172614.40525670006</v>
       </c>
       <c r="FX26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>176066.69336183407</v>
       </c>
       <c r="FY26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>179588.02722907075</v>
       </c>
       <c r="FZ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>183179.78777365218</v>
       </c>
       <c r="GA26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>186843.38352912522</v>
       </c>
       <c r="GB26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>190580.25119970774</v>
       </c>
       <c r="GC26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>194391.85622370191</v>
       </c>
       <c r="GD26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>198279.69334817596</v>
       </c>
       <c r="GE26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>202245.28721513948</v>
       </c>
       <c r="GF26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>206290.19295944227</v>
       </c>
       <c r="GG26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>210415.99681863113</v>
       </c>
       <c r="GH26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>214624.31675500376</v>
       </c>
       <c r="GI26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>218916.80309010384</v>
       </c>
       <c r="GJ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>223295.13915190593</v>
       </c>
       <c r="GK26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>227761.04193494405</v>
       </c>
       <c r="GL26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>232316.26277364293</v>
       </c>
       <c r="GM26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>236962.58802911578</v>
       </c>
       <c r="GN26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>241701.8397896981</v>
       </c>
       <c r="GO26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>246535.87658549208</v>
       </c>
       <c r="GP26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>251466.59411720192</v>
       </c>
       <c r="GQ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>256495.92599954596</v>
       </c>
       <c r="GR26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>261625.84451953688</v>
       </c>
       <c r="GS26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>266858.3614099276</v>
       </c>
       <c r="GT26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>272195.52863812615</v>
       </c>
       <c r="GU26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>277639.4392108887</v>
       </c>
       <c r="GV26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>283192.22799510648</v>
       </c>
       <c r="GW26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>288856.07255500864</v>
       </c>
       <c r="GX26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>294633.1940061088</v>
       </c>
       <c r="GY26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>300525.85788623098</v>
       </c>
       <c r="GZ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>306536.37504395563</v>
       </c>
       <c r="HA26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>312667.10254483472</v>
       </c>
       <c r="HB26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>318920.44459573145</v>
       </c>
       <c r="HC26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>325298.85348764609</v>
       </c>
       <c r="HD26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>331804.83055739902</v>
       </c>
       <c r="HE26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>338440.927168547</v>
       </c>
       <c r="HF26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>345209.74571191793</v>
       </c>
       <c r="HG26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>352113.94062615628</v>
       </c>
       <c r="HH26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>359156.2194386794</v>
       </c>
       <c r="HI26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>366339.34382745298</v>
       </c>
       <c r="HJ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>373666.13070400205</v>
       </c>
       <c r="HK26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>381139.45331808209</v>
       </c>
       <c r="HL26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>388762.24238444376</v>
       </c>
       <c r="HM26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>396537.48723213264</v>
       </c>
       <c r="HN26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>404468.23697677528</v>
       </c>
       <c r="HO26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>412557.60171631078</v>
       </c>
       <c r="HP26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>420808.753750637</v>
       </c>
       <c r="HQ26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>429224.92882564972</v>
       </c>
       <c r="HR26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>437809.42740216275</v>
       </c>
       <c r="HS26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>446565.615950206</v>
       </c>
       <c r="HT26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>455496.92826921016</v>
       </c>
       <c r="HU26" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>464606.86683459434</v>
       </c>
       <c r="HV26" s="8">
-        <f t="shared" ref="HV26:KG26" si="39">HU26*(1+$AN$15)</f>
+        <f t="shared" ref="HV26:KG26" si="40">HU26*(1+$AN$15)</f>
         <v>473899.00417128624</v>
       </c>
       <c r="HW26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>483376.98425471201</v>
       </c>
       <c r="HX26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>493044.52393980627</v>
       </c>
       <c r="HY26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>502905.41441860242</v>
       </c>
       <c r="HZ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>512963.52270697447</v>
       </c>
       <c r="IA26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>523222.79316111398</v>
       </c>
       <c r="IB26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>533687.24902433623</v>
       </c>
       <c r="IC26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>544360.99400482292</v>
       </c>
       <c r="ID26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>555248.21388491942</v>
       </c>
       <c r="IE26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>566353.17816261784</v>
       </c>
       <c r="IF26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>577680.24172587018</v>
       </c>
       <c r="IG26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>589233.84656038764</v>
       </c>
       <c r="IH26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>601018.52349159541</v>
       </c>
       <c r="II26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>613038.89396142727</v>
       </c>
       <c r="IJ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>625299.67184065585</v>
       </c>
       <c r="IK26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>637805.66527746897</v>
       </c>
       <c r="IL26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>650561.77858301834</v>
       </c>
       <c r="IM26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>663573.01415467868</v>
       </c>
       <c r="IN26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>676844.4744377723</v>
       </c>
       <c r="IO26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>690381.36392652779</v>
       </c>
       <c r="IP26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>704188.99120505841</v>
       </c>
       <c r="IQ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>718272.77102915954</v>
       </c>
       <c r="IR26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>732638.2264497428</v>
       </c>
       <c r="IS26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>747290.99097873771</v>
       </c>
       <c r="IT26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>762236.81079831242</v>
       </c>
       <c r="IU26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>777481.54701427871</v>
       </c>
       <c r="IV26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>793031.17795456434</v>
       </c>
       <c r="IW26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>808891.80151365569</v>
       </c>
       <c r="IX26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>825069.63754392881</v>
       </c>
       <c r="IY26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>841571.03029480739</v>
       </c>
       <c r="IZ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>858402.45090070355</v>
       </c>
       <c r="JA26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>875570.49991871766</v>
       </c>
       <c r="JB26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>893081.90991709207</v>
       </c>
       <c r="JC26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>910943.54811543389</v>
       </c>
       <c r="JD26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>929162.41907774261</v>
       </c>
       <c r="JE26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>947745.66745929746</v>
       </c>
       <c r="JF26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>966700.58080848341</v>
       </c>
       <c r="JG26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>986034.59242465312</v>
       </c>
       <c r="JH26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1005755.2842731462</v>
       </c>
       <c r="JI26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1025870.3899586091</v>
       </c>
       <c r="JJ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1046387.7977577813</v>
       </c>
       <c r="JK26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1067315.553712937</v>
       </c>
       <c r="JL26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1088661.8647871958</v>
       </c>
       <c r="JM26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1110435.1020829398</v>
       </c>
       <c r="JN26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1132643.8041245986</v>
       </c>
       <c r="JO26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1155296.6802070907</v>
       </c>
       <c r="JP26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1178402.6138112326</v>
       </c>
       <c r="JQ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1201970.6660874572</v>
       </c>
       <c r="JR26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1226010.0794092063</v>
       </c>
       <c r="JS26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1250530.2809973904</v>
       </c>
       <c r="JT26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1275540.8866173383</v>
       </c>
       <c r="JU26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1301051.704349685</v>
       </c>
       <c r="JV26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1327072.7384366787</v>
       </c>
       <c r="JW26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1353614.1932054122</v>
       </c>
       <c r="JX26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1380686.4770695206</v>
       </c>
       <c r="JY26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1408300.2066109111</v>
       </c>
       <c r="JZ26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1436466.2107431293</v>
       </c>
       <c r="KA26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1465195.5349579919</v>
       </c>
       <c r="KB26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1494499.4456571518</v>
       </c>
       <c r="KC26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1524389.4345702948</v>
       </c>
       <c r="KD26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1554877.2232617007</v>
       </c>
       <c r="KE26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1585974.7677269347</v>
       </c>
       <c r="KF26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1617694.2630814735</v>
       </c>
       <c r="KG26" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1650048.148343103</v>
       </c>
       <c r="KH26" s="8">
-        <f t="shared" ref="KH26:MS26" si="40">KG26*(1+$AN$15)</f>
+        <f t="shared" ref="KH26:MS26" si="41">KG26*(1+$AN$15)</f>
         <v>1683049.1113099651</v>
       </c>
       <c r="KI26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1716710.0935361644</v>
       </c>
       <c r="KJ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1751044.2954068878</v>
       </c>
       <c r="KK26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1786065.1813150255</v>
       </c>
       <c r="KL26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1821786.4849413261</v>
       </c>
       <c r="KM26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1858222.2146401526</v>
       </c>
       <c r="KN26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1895386.6589329557</v>
       </c>
       <c r="KO26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1933294.3921116148</v>
       </c>
       <c r="KP26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1971960.2799538472</v>
       </c>
       <c r="KQ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2011399.4855529242</v>
       </c>
       <c r="KR26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2051627.4752639828</v>
       </c>
       <c r="KS26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2092660.0247692624</v>
       </c>
       <c r="KT26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2134513.2252646475</v>
       </c>
       <c r="KU26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2177203.4897699407</v>
       </c>
       <c r="KV26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2220747.5595653397</v>
       </c>
       <c r="KW26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2265162.5107566467</v>
       </c>
       <c r="KX26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2310465.7609717799</v>
       </c>
       <c r="KY26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2356675.0761912158</v>
       </c>
       <c r="KZ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2403808.5777150402</v>
       </c>
       <c r="LA26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2451884.7492693411</v>
       </c>
       <c r="LB26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2500922.444254728</v>
       </c>
       <c r="LC26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2550940.8931398224</v>
       </c>
       <c r="LD26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2601959.711002619</v>
       </c>
       <c r="LE26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2653998.9052226716</v>
       </c>
       <c r="LF26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2707078.8833271251</v>
       </c>
       <c r="LG26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2761220.4609936676</v>
       </c>
       <c r="LH26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2816444.8702135412</v>
       </c>
       <c r="LI26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2872773.7676178119</v>
       </c>
       <c r="LJ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2930229.2429701681</v>
       </c>
       <c r="LK26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2988833.8278295714</v>
       </c>
       <c r="LL26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3048610.5043861629</v>
       </c>
       <c r="LM26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3109582.7144738859</v>
       </c>
       <c r="LN26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3171774.3687633639</v>
       </c>
       <c r="LO26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3235209.8561386312</v>
       </c>
       <c r="LP26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3299914.0532614039</v>
       </c>
       <c r="LQ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3365912.3343266319</v>
       </c>
       <c r="LR26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3433230.5810131645</v>
       </c>
       <c r="LS26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3501895.1926334277</v>
       </c>
       <c r="LT26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3571933.0964860963</v>
       </c>
       <c r="LU26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3643371.7584158182</v>
       </c>
       <c r="LV26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3716239.1935841348</v>
       </c>
       <c r="LW26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3790563.9774558176</v>
       </c>
       <c r="LX26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3866375.2570049339</v>
       </c>
       <c r="LY26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3943702.7621450326</v>
       </c>
       <c r="LZ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4022576.8173879334</v>
       </c>
       <c r="MA26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4103028.3537356923</v>
       </c>
       <c r="MB26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4185088.9208104061</v>
       </c>
       <c r="MC26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4268790.6992266141</v>
       </c>
       <c r="MD26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4354166.513211146</v>
       </c>
       <c r="ME26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4441249.8434753688</v>
       </c>
       <c r="MF26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4530074.8403448761</v>
       </c>
       <c r="MG26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4620676.3371517733</v>
       </c>
       <c r="MH26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4713089.863894809</v>
       </c>
       <c r="MI26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4807351.6611727057</v>
       </c>
       <c r="MJ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4903498.6943961596</v>
       </c>
       <c r="MK26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5001568.6682840828</v>
       </c>
       <c r="ML26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5101600.0416497644</v>
       </c>
       <c r="MM26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5203632.0424827598</v>
       </c>
       <c r="MN26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5307704.6833324153</v>
       </c>
       <c r="MO26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5413858.7769990638</v>
       </c>
       <c r="MP26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5522135.9525390454</v>
       </c>
       <c r="MQ26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5632578.6715898262</v>
       </c>
       <c r="MR26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5745230.2450216226</v>
       </c>
       <c r="MS26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5860134.8499220554</v>
       </c>
       <c r="MT26" s="8">
-        <f t="shared" ref="MT26:PE26" si="41">MS26*(1+$AN$15)</f>
+        <f t="shared" ref="MT26:PE26" si="42">MS26*(1+$AN$15)</f>
         <v>5977337.546920497</v>
       </c>
       <c r="MU26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6096884.2978589069</v>
       </c>
       <c r="MV26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6218821.9838160854</v>
       </c>
       <c r="MW26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6343198.4234924074</v>
       </c>
       <c r="MX26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6470062.3919622554</v>
       </c>
       <c r="MY26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6599463.6398015004</v>
       </c>
       <c r="MZ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6731452.9125975305</v>
       </c>
       <c r="NA26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6866081.9708494814</v>
       </c>
       <c r="NB26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7003403.6102664713</v>
       </c>
       <c r="NC26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7143471.6824718006</v>
       </c>
       <c r="ND26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7286341.1161212372</v>
       </c>
       <c r="NE26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7432067.9384436617</v>
       </c>
       <c r="NF26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7580709.2972125346</v>
       </c>
       <c r="NG26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7732323.4831567854</v>
       </c>
       <c r="NH26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7886969.9528199211</v>
       </c>
       <c r="NI26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8044709.3518763194</v>
       </c>
       <c r="NJ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8205603.538913846</v>
       </c>
       <c r="NK26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8369715.6096921228</v>
       </c>
       <c r="NL26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8537109.9218859654</v>
       </c>
       <c r="NM26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8707852.1203236841</v>
       </c>
       <c r="NN26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8882009.1627301574</v>
       </c>
       <c r="NO26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9059649.3459847607</v>
       </c>
       <c r="NP26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9240842.3329044562</v>
       </c>
       <c r="NQ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9425659.1795625463</v>
       </c>
       <c r="NR26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9614172.3631537966</v>
       </c>
       <c r="NS26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9806455.8104168735</v>
       </c>
       <c r="NT26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10002584.926625211</v>
       </c>
       <c r="NU26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10202636.625157716</v>
       </c>
       <c r="NV26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10406689.357660871</v>
       </c>
       <c r="NW26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10614823.144814089</v>
       </c>
       <c r="NX26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10827119.607710371</v>
       </c>
       <c r="NY26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11043661.999864578</v>
       </c>
       <c r="NZ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11264535.23986187</v>
       </c>
       <c r="OA26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11489825.944659108</v>
       </c>
       <c r="OB26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11719622.463552291</v>
       </c>
       <c r="OC26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11954014.912823336</v>
       </c>
       <c r="OD26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12193095.211079802</v>
       </c>
       <c r="OE26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12436957.115301399</v>
       </c>
       <c r="OF26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12685696.257607426</v>
       </c>
       <c r="OG26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12939410.182759576</v>
       </c>
       <c r="OH26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13198198.386414768</v>
       </c>
       <c r="OI26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13462162.354143064</v>
       </c>
       <c r="OJ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13731405.601225926</v>
       </c>
       <c r="OK26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14006033.713250445</v>
       </c>
       <c r="OL26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14286154.387515454</v>
       </c>
       <c r="OM26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14571877.475265764</v>
       </c>
       <c r="ON26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14863315.024771079</v>
       </c>
       <c r="OO26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15160581.325266501</v>
       </c>
       <c r="OP26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15463792.951771831</v>
       </c>
       <c r="OQ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15773068.810807267</v>
       </c>
       <c r="OR26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16088530.187023412</v>
       </c>
       <c r="OS26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16410300.790763881</v>
       </c>
       <c r="OT26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16738506.80657916</v>
       </c>
       <c r="OU26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17073276.942710742</v>
       </c>
       <c r="OV26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17414742.481564958</v>
       </c>
       <c r="OW26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17763037.331196256</v>
       </c>
       <c r="OX26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18118298.077820182</v>
       </c>
       <c r="OY26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18480664.039376587</v>
       </c>
       <c r="OZ26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18850277.320164118</v>
       </c>
       <c r="PA26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19227282.866567399</v>
       </c>
       <c r="PB26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19611828.523898747</v>
       </c>
       <c r="PC26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20004065.09437672</v>
       </c>
       <c r="PD26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20404146.396264255</v>
       </c>
       <c r="PE26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20812229.32418954</v>
       </c>
       <c r="PF26" s="8">
-        <f t="shared" ref="PF26:RQ26" si="42">PE26*(1+$AN$15)</f>
+        <f t="shared" ref="PF26:RQ26" si="43">PE26*(1+$AN$15)</f>
         <v>21228473.910673331</v>
       </c>
       <c r="PG26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>21653043.388886798</v>
       </c>
       <c r="PH26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22086104.256664533</v>
       </c>
       <c r="PI26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22527826.341797825</v>
       </c>
       <c r="PJ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22978382.868633781</v>
       </c>
       <c r="PK26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>23437950.526006456</v>
       </c>
       <c r="PL26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>23906709.536526587</v>
       </c>
       <c r="PM26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>24384843.727257118</v>
       </c>
       <c r="PN26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>24872540.60180226</v>
       </c>
       <c r="PO26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25369991.413838305</v>
       </c>
       <c r="PP26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25877391.242115073</v>
       </c>
       <c r="PQ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>26394939.066957373</v>
       </c>
       <c r="PR26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>26922837.848296519</v>
       </c>
       <c r="PS26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>27461294.605262451</v>
       </c>
       <c r="PT26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28010520.497367699</v>
       </c>
       <c r="PU26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28570730.907315053</v>
       </c>
       <c r="PV26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>29142145.525461353</v>
       </c>
       <c r="PW26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>29724988.435970582</v>
       </c>
       <c r="PX26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>30319488.204689994</v>
       </c>
       <c r="PY26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>30925877.968783796</v>
       </c>
       <c r="PZ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>31544395.528159473</v>
       </c>
       <c r="QA26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32175283.438722663</v>
       </c>
       <c r="QB26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32818789.107497115</v>
       </c>
       <c r="QC26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33475164.889647059</v>
       </c>
       <c r="QD26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>34144668.18744</v>
       </c>
       <c r="QE26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>34827561.551188804</v>
       </c>
       <c r="QF26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>35524112.782212578</v>
       </c>
       <c r="QG26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>36234595.037856832</v>
       </c>
       <c r="QH26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>36959286.938613966</v>
       </c>
       <c r="QI26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>37698472.677386247</v>
       </c>
       <c r="QJ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>38452442.13093397</v>
       </c>
       <c r="QK26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>39221490.973552652</v>
       </c>
       <c r="QL26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>40005920.793023705</v>
       </c>
       <c r="QM26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>40806039.20888418</v>
       </c>
       <c r="QN26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41622159.993061863</v>
       </c>
       <c r="QO26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>42454603.192923099</v>
       </c>
       <c r="QP26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>43303695.256781563</v>
       </c>
       <c r="QQ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>44169769.161917195</v>
       </c>
       <c r="QR26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45053164.54515554</v>
       </c>
       <c r="QS26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45954227.836058654</v>
       </c>
       <c r="QT26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>46873312.392779827</v>
       </c>
       <c r="QU26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>47810778.640635423</v>
       </c>
       <c r="QV26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>48766994.21344813</v>
       </c>
       <c r="QW26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>49742334.097717091</v>
       </c>
       <c r="QX26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>50737180.779671431</v>
       </c>
       <c r="QY26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>51751924.395264857</v>
       </c>
       <c r="QZ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>52786962.883170158</v>
       </c>
       <c r="RA26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>53842702.140833564</v>
       </c>
       <c r="RB26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>54919556.183650233</v>
       </c>
       <c r="RC26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>56017947.30732324</v>
       </c>
       <c r="RD26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>57138306.253469706</v>
       </c>
       <c r="RE26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>58281072.3785391</v>
       </c>
       <c r="RF26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>59446693.826109886</v>
       </c>
       <c r="RG26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>60635627.702632084</v>
       </c>
       <c r="RH26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>61848340.256684728</v>
       </c>
       <c r="RI26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>63085307.061818421</v>
       </c>
       <c r="RJ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>64347013.203054793</v>
       </c>
       <c r="RK26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>65633953.467115887</v>
       </c>
       <c r="RL26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>66946632.536458202</v>
       </c>
       <c r="RM26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>68285565.187187374</v>
       </c>
       <c r="RN26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>69651276.490931123</v>
       </c>
       <c r="RO26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>71044302.020749748</v>
       </c>
       <c r="RP26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>72465188.061164737</v>
       </c>
       <c r="RQ26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>73914491.822388038</v>
       </c>
       <c r="RR26" s="8">
-        <f t="shared" ref="RR26:UC26" si="43">RQ26*(1+$AN$15)</f>
+        <f t="shared" ref="RR26:UC26" si="44">RQ26*(1+$AN$15)</f>
         <v>75392781.658835799</v>
       </c>
       <c r="RS26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>76900637.292012513</v>
       </c>
       <c r="RT26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>78438650.037852764</v>
       </c>
       <c r="RU26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>80007423.038609818</v>
       </c>
       <c r="RV26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>81607571.499382019</v>
       </c>
       <c r="RW26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>83239722.929369658</v>
       </c>
       <c r="RX26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>84904517.387957051</v>
       </c>
       <c r="RY26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>86602607.735716194</v>
       </c>
       <c r="RZ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>88334659.890430525</v>
       </c>
       <c r="SA26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>90101353.088239133</v>
       </c>
       <c r="SB26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>91903380.150003925</v>
       </c>
       <c r="SC26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93741447.753004</v>
       </c>
       <c r="SD26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>95616276.708064079</v>
       </c>
       <c r="SE26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>97528602.242225364</v>
       </c>
       <c r="SF26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>99479174.287069872</v>
       </c>
       <c r="SG26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>101468757.77281126</v>
       </c>
       <c r="SH26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>103498132.92826749</v>
       </c>
       <c r="SI26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>105568095.58683285</v>
       </c>
       <c r="SJ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>107679457.4985695</v>
       </c>
       <c r="SK26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>109833046.6485409</v>
       </c>
       <c r="SL26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>112029707.58151172</v>
       </c>
       <c r="SM26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>114270301.73314196</v>
       </c>
       <c r="SN26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>116555707.7678048</v>
       </c>
       <c r="SO26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>118886821.9231609</v>
       </c>
       <c r="SP26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>121264558.36162412</v>
       </c>
       <c r="SQ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>123689849.52885661</v>
       </c>
       <c r="SR26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>126163646.51943374</v>
       </c>
       <c r="SS26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>128686919.44982241</v>
       </c>
       <c r="ST26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>131260657.83881886</v>
       </c>
       <c r="SU26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>133885870.99559525</v>
       </c>
       <c r="SV26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>136563588.41550717</v>
       </c>
       <c r="SW26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>139294860.18381733</v>
       </c>
       <c r="SX26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>142080757.38749367</v>
       </c>
       <c r="SY26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>144922372.53524354</v>
       </c>
       <c r="SZ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>147820819.98594841</v>
       </c>
       <c r="TA26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>150777236.38566738</v>
       </c>
       <c r="TB26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>153792781.11338073</v>
       </c>
       <c r="TC26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>156868636.73564833</v>
       </c>
       <c r="TD26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>160006009.47036129</v>
       </c>
       <c r="TE26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>163206129.65976852</v>
       </c>
       <c r="TF26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>166470252.2529639</v>
       </c>
       <c r="TG26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>169799657.29802319</v>
       </c>
       <c r="TH26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>173195650.44398367</v>
       </c>
       <c r="TI26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>176659563.45286337</v>
       </c>
       <c r="TJ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>180192754.72192064</v>
       </c>
       <c r="TK26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>183796609.81635904</v>
       </c>
       <c r="TL26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>187472542.01268622</v>
       </c>
       <c r="TM26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>191221992.85293996</v>
       </c>
       <c r="TN26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>195046432.70999876</v>
       </c>
       <c r="TO26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>198947361.36419874</v>
       </c>
       <c r="TP26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>202926308.59148273</v>
       </c>
       <c r="TQ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>206984834.7633124</v>
       </c>
       <c r="TR26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>211124531.45857865</v>
       </c>
       <c r="TS26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>215347022.08775023</v>
       </c>
       <c r="TT26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>219653962.52950522</v>
       </c>
       <c r="TU26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>224047041.78009534</v>
       </c>
       <c r="TV26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>228527982.61569723</v>
       </c>
       <c r="TW26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>233098542.26801118</v>
       </c>
       <c r="TX26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>237760513.1133714</v>
       </c>
       <c r="TY26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>242515723.37563884</v>
       </c>
       <c r="TZ26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>247366037.84315163</v>
       </c>
       <c r="UA26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>252313358.60001466</v>
       </c>
       <c r="UB26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>257359625.77201495</v>
       </c>
       <c r="UC26" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>262506818.28745526</v>
       </c>
       <c r="UD26" s="8">
-        <f t="shared" ref="UD26:VG26" si="44">UC26*(1+$AN$15)</f>
+        <f t="shared" ref="UD26:VG26" si="45">UC26*(1+$AN$15)</f>
         <v>267756954.65320438</v>
       </c>
       <c r="UE26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>273112093.74626845</v>
       </c>
       <c r="UF26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>278574335.62119383</v>
       </c>
       <c r="UG26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>284145822.33361769</v>
       </c>
       <c r="UH26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>289828738.78029007</v>
       </c>
       <c r="UI26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>295625313.55589586</v>
       </c>
       <c r="UJ26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>301537819.82701379</v>
       </c>
       <c r="UK26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>307568576.22355407</v>
       </c>
       <c r="UL26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>313719947.74802518</v>
       </c>
       <c r="UM26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>319994346.7029857</v>
       </c>
       <c r="UN26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>326394233.63704544</v>
       </c>
       <c r="UO26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>332922118.30978638</v>
       </c>
       <c r="UP26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>339580560.67598212</v>
       </c>
       <c r="UQ26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>346372171.88950175</v>
       </c>
       <c r="UR26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>353299615.32729179</v>
       </c>
       <c r="US26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>360365607.63383764</v>
       </c>
       <c r="UT26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>367572919.7865144</v>
       </c>
       <c r="UU26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>374924378.18224472</v>
       </c>
       <c r="UV26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>382422865.7458896</v>
       </c>
       <c r="UW26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>390071323.06080741</v>
       </c>
       <c r="UX26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>397872749.52202356</v>
       </c>
       <c r="UY26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>405830204.51246405</v>
       </c>
       <c r="UZ26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>413946808.60271335</v>
       </c>
       <c r="VA26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>422225744.77476764</v>
       </c>
       <c r="VB26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>430670259.67026299</v>
       </c>
       <c r="VC26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>439283664.86366826</v>
       </c>
       <c r="VD26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>448069338.16094166</v>
       </c>
       <c r="VE26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>457030724.92416048</v>
       </c>
       <c r="VF26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>466171339.42264372</v>
       </c>
       <c r="VG26" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>475494766.21109658</v>
       </c>
     </row>
@@ -6185,75 +6185,75 @@
         <v>65</v>
       </c>
       <c r="G28" s="13">
-        <f>(G6-C6)/C6</f>
+        <f t="shared" ref="G28:X28" si="46">(G6-C6)/C6</f>
         <v>5.358088925317462E-2</v>
       </c>
       <c r="H28" s="13">
-        <f>(H6-D6)/D6</f>
+        <f t="shared" si="46"/>
         <v>2.9877648801878283</v>
       </c>
       <c r="I28" s="13">
-        <f>(I6-E6)/E6</f>
+        <f t="shared" si="46"/>
         <v>0.66682584250829335</v>
       </c>
       <c r="J28" s="13">
-        <f>(J6-F6)/F6</f>
+        <f t="shared" si="46"/>
         <v>0.78314929986593163</v>
       </c>
       <c r="K28" s="13">
-        <f>(K6-G6)/G6</f>
+        <f t="shared" si="46"/>
         <v>0.70136289427873033</v>
       </c>
       <c r="L28" s="13">
-        <f>(L6-H6)/H6</f>
+        <f t="shared" si="46"/>
         <v>0.57602996254681649</v>
       </c>
       <c r="M28" s="13">
-        <f>(M6-I6)/I6</f>
+        <f t="shared" si="46"/>
         <v>0.28897772088716006</v>
       </c>
       <c r="N28" s="13">
-        <f>(N6-J6)/J6</f>
+        <f t="shared" si="46"/>
         <v>0.24135554459090097</v>
       </c>
       <c r="O28" s="13">
-        <f>(O6-K6)/K6</f>
+        <f t="shared" si="46"/>
         <v>0.2047713717693837</v>
       </c>
       <c r="P28" s="13">
-        <f>(P6-L6)/L6</f>
+        <f t="shared" si="46"/>
         <v>0.1806083650190114</v>
       </c>
       <c r="Q28" s="13">
-        <f>(Q6-M6)/M6</f>
+        <f t="shared" si="46"/>
         <v>0.17787794729542303</v>
       </c>
       <c r="R28" s="13">
-        <f>(R6-N6)/N6</f>
+        <f t="shared" si="46"/>
         <v>0.16614090431125131</v>
       </c>
       <c r="S28" s="13">
-        <f>(S6-O6)/O6</f>
+        <f t="shared" si="46"/>
         <v>0.17821782178217821</v>
       </c>
       <c r="T28" s="13">
-        <f>(T6-P6)/P6</f>
+        <f t="shared" si="46"/>
         <v>0.10628019323671498</v>
       </c>
       <c r="U28" s="13">
-        <f>(U6-Q6)/Q6</f>
+        <f t="shared" si="46"/>
         <v>9.8616426258463355E-2</v>
       </c>
       <c r="V28" s="13">
-        <f>(V6-R6)/R6</f>
+        <f t="shared" si="46"/>
         <v>0.11812443642921551</v>
       </c>
       <c r="W28" s="26">
-        <f>(W6-S6)/S6</f>
+        <f t="shared" si="46"/>
         <v>6.069094304388422E-2</v>
       </c>
       <c r="X28" s="26">
-        <f>(X6-T6)/T6</f>
+        <f t="shared" si="46"/>
         <v>0.12663755458515283</v>
       </c>
       <c r="AA28" s="13"/>
@@ -6279,75 +6279,75 @@
         <v>66</v>
       </c>
       <c r="G29" s="6">
-        <f>(G19-C19)/C19</f>
+        <f t="shared" ref="G29:X29" si="47">(G19-C19)/C19</f>
         <v>2.4415554674769897</v>
       </c>
       <c r="H29" s="6">
-        <f>(H19-D19)/D19</f>
+        <f t="shared" si="47"/>
         <v>-0.88211880720237379</v>
       </c>
       <c r="I29" s="6">
-        <f>(I19-E19)/E19</f>
+        <f t="shared" si="47"/>
         <v>2.7895270208859726</v>
       </c>
       <c r="J29" s="6">
-        <f>(J19-F19)/F19</f>
+        <f t="shared" si="47"/>
         <v>-1.0140182841369179</v>
       </c>
       <c r="K29" s="6">
-        <f>(K19-G19)/G19</f>
+        <f t="shared" si="47"/>
         <v>-0.98379131402111053</v>
       </c>
       <c r="L29" s="6">
-        <f>(L19-H19)/H19</f>
+        <f t="shared" si="47"/>
         <v>-6.5857688169665849</v>
       </c>
       <c r="M29" s="6">
-        <f>(M19-I19)/I19</f>
+        <f t="shared" si="47"/>
         <v>0.45582226976362689</v>
       </c>
       <c r="N29" s="6">
-        <f>(N19-J19)/J19</f>
+        <f t="shared" si="47"/>
         <v>4.8531036127777476</v>
       </c>
       <c r="O29" s="6">
-        <f>(O19-K19)/K19</f>
+        <f t="shared" si="47"/>
         <v>-7.1578947368421053</v>
       </c>
       <c r="P29" s="6">
-        <f>(P19-L19)/L19</f>
+        <f t="shared" si="47"/>
         <v>0.71503957783641159</v>
       </c>
       <c r="Q29" s="6">
-        <f>(Q19-M19)/M19</f>
+        <f t="shared" si="47"/>
         <v>2.6029654036243821</v>
       </c>
       <c r="R29" s="6">
-        <f>(R19-N19)/N19</f>
+        <f t="shared" si="47"/>
         <v>-2.0940438871473352</v>
       </c>
       <c r="S29" s="6">
-        <f>(S19-O19)/O19</f>
+        <f t="shared" si="47"/>
         <v>1.2564102564102564</v>
       </c>
       <c r="T29" s="6">
-        <f>(T19-P19)/P19</f>
+        <f t="shared" si="47"/>
         <v>-0.14615384615384616</v>
       </c>
       <c r="U29" s="6">
-        <f>(U19-Q19)/Q19</f>
+        <f t="shared" si="47"/>
         <v>-0.68724279835390945</v>
       </c>
       <c r="V29" s="6">
-        <f>(V19-R19)/R19</f>
+        <f t="shared" si="47"/>
         <v>-2.3209169054441259</v>
       </c>
       <c r="W29" s="27">
-        <f>(W19-S19)/S19</f>
+        <f t="shared" si="47"/>
         <v>-0.41666666666666669</v>
       </c>
       <c r="X29" s="27">
-        <f>(X19-T19)/T19</f>
+        <f t="shared" si="47"/>
         <v>0.15675675675675677</v>
       </c>
       <c r="AA29" s="6"/>
@@ -6377,71 +6377,71 @@
         <v>2.0547874179052887</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" ref="H30:X30" si="45">(H26-D26)/ABS(D26)</f>
+        <f t="shared" ref="H30:X30" si="48">(H26-D26)/ABS(D26)</f>
         <v>3.9737742303306733</v>
       </c>
       <c r="I30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.57907469005140599</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2.3856880733944954</v>
       </c>
       <c r="K30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.95969195477633962</v>
       </c>
       <c r="L30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.6104294478527636E-2</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.83646112600536215</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.20497881355932196</v>
       </c>
       <c r="O30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.32190635451505017</v>
       </c>
       <c r="P30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.13207547169811321</v>
       </c>
       <c r="Q30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.36600625651720542</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.89890109890109893</v>
       </c>
       <c r="S30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.20746363061353573</v>
       </c>
       <c r="T30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.15888888888888889</v>
       </c>
       <c r="U30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.18015267175572519</v>
       </c>
       <c r="V30" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>8.9565217391304355</v>
       </c>
       <c r="W30" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-6.7050811943425881E-2</v>
       </c>
       <c r="X30" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-8.7248322147651006E-2</v>
       </c>
       <c r="AA30" s="13"/>
@@ -6450,15 +6450,15 @@
         <v>3.9259731971920862</v>
       </c>
       <c r="AC30" s="13">
-        <f t="shared" ref="AC30:AE30" si="46">(AC26-AB26)/ABS(AB26)</f>
+        <f t="shared" ref="AC30:AE30" si="49">(AC26-AB26)/ABS(AB26)</f>
         <v>0.48527808069792833</v>
       </c>
       <c r="AD30" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.12687224669603525</v>
       </c>
       <c r="AE30" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.16862131873859787</v>
       </c>
     </row>
@@ -6488,92 +6488,92 @@
         <v>70</v>
       </c>
       <c r="G32" s="6">
-        <f>(G3-C3)/C3</f>
+        <f t="shared" ref="G32:P34" si="50">(G3-C3)/C3</f>
         <v>0.12784588441331005</v>
       </c>
       <c r="H32" s="6">
-        <f>(H3-D3)/D3</f>
+        <f t="shared" si="50"/>
         <v>1.9678571428571427</v>
       </c>
       <c r="I32" s="6">
-        <f>(I3-E3)/E3</f>
+        <f t="shared" si="50"/>
         <v>0.2928802588996765</v>
       </c>
       <c r="J32" s="6">
-        <f>(J3-F3)/F3</f>
+        <f t="shared" si="50"/>
         <v>0.58531317494600454</v>
       </c>
       <c r="K32" s="6">
-        <f>(K3-G3)/G3</f>
+        <f t="shared" si="50"/>
         <v>0.58540372670807428</v>
       </c>
       <c r="L32" s="6">
-        <f>(L3-H3)/H3</f>
+        <f t="shared" si="50"/>
         <v>0.24789410348977148</v>
       </c>
       <c r="M32" s="6">
-        <f>(M3-I3)/I3</f>
+        <f t="shared" si="50"/>
         <v>0.24780976220275339</v>
       </c>
       <c r="N32" s="6">
-        <f>(N3-J3)/J3</f>
+        <f t="shared" si="50"/>
         <v>0.20163487738419614</v>
       </c>
       <c r="O32" s="6">
-        <f>(O3-K3)/K3</f>
+        <f t="shared" si="50"/>
         <v>0.1860920666013712</v>
       </c>
       <c r="P32" s="6">
-        <f>(P3-L3)/L3</f>
+        <f t="shared" si="50"/>
         <v>0.10993249758919953</v>
       </c>
       <c r="Q32" s="6">
-        <f>(Q3-M3)/M3</f>
+        <f t="shared" ref="Q32:Z34" si="51">(Q3-M3)/M3</f>
         <v>0.13540621865596791</v>
       </c>
       <c r="R32" s="6">
-        <f>(R3-N3)/N3</f>
+        <f t="shared" si="51"/>
         <v>0.12018140589569154</v>
       </c>
       <c r="S32" s="6">
-        <f>(S3-O3)/O3</f>
+        <f t="shared" si="51"/>
         <v>9.4962840627580522E-2</v>
       </c>
       <c r="T32" s="6">
-        <f>(T3-P3)/P3</f>
+        <f t="shared" si="51"/>
         <v>8.6880973066898348E-2</v>
       </c>
       <c r="U32" s="6">
-        <f>(U3-Q3)/Q3</f>
+        <f t="shared" si="51"/>
         <v>0.10512367491166071</v>
       </c>
       <c r="V32" s="6">
-        <f>(V3-R3)/R3</f>
+        <f t="shared" si="51"/>
         <v>0.24291497975708504</v>
       </c>
       <c r="W32" s="27">
-        <f>(W3-S3)/S3</f>
+        <f t="shared" si="51"/>
         <v>-0.16289592760180993</v>
       </c>
       <c r="X32" s="27">
-        <f>(X3-T3)/T3</f>
+        <f t="shared" si="51"/>
         <v>7.4340527577937743E-2</v>
       </c>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6">
-        <f>(AB3-AA3)/AA3</f>
+        <f t="shared" ref="AB32:AE34" si="52">(AB3-AA3)/AA3</f>
         <v>0.55693581780538315</v>
       </c>
       <c r="AC32" s="6">
-        <f>(AC3-AB3)/AB3</f>
+        <f t="shared" si="52"/>
         <v>0.30884308510638286</v>
       </c>
       <c r="AD32" s="6">
-        <f>(AD3-AC3)/AC3</f>
+        <f t="shared" si="52"/>
         <v>0.13843027686055373</v>
       </c>
       <c r="AE32" s="6">
-        <f>(AE3-AD3)/AD3</f>
+        <f t="shared" si="52"/>
         <v>0.12806782686300755</v>
       </c>
     </row>
@@ -6582,92 +6582,92 @@
         <v>71</v>
       </c>
       <c r="G33" s="15">
-        <f>(G4-C4)/C4</f>
+        <f t="shared" si="50"/>
         <v>0.52069169376293234</v>
       </c>
       <c r="H33" s="15">
-        <f>(H4-D4)/D4</f>
+        <f t="shared" si="50"/>
         <v>3.1875</v>
       </c>
       <c r="I33" s="15">
-        <f>(I4-E4)/E4</f>
+        <f t="shared" si="50"/>
         <v>0.48749999999999999</v>
       </c>
       <c r="J33" s="15">
-        <f>(J4-F4)/F4</f>
+        <f t="shared" si="50"/>
         <v>0.91067796610169494</v>
       </c>
       <c r="K33" s="15">
-        <f>(K4-G4)/G4</f>
+        <f t="shared" si="50"/>
         <v>0.67168821071046747</v>
       </c>
       <c r="L33" s="15">
-        <f>(L4-H4)/H4</f>
+        <f t="shared" si="50"/>
         <v>0.26119402985074625</v>
       </c>
       <c r="M33" s="15">
-        <f>(M4-I4)/I4</f>
+        <f t="shared" si="50"/>
         <v>0.31092436974789917</v>
       </c>
       <c r="N33" s="15">
-        <f>(N4-J4)/J4</f>
+        <f t="shared" si="50"/>
         <v>0.19755167213696442</v>
       </c>
       <c r="O33" s="15">
-        <f>(O4-K4)/K4</f>
+        <f t="shared" si="50"/>
         <v>0.18604651162790697</v>
       </c>
       <c r="P33" s="15">
-        <f>(P4-L4)/L4</f>
+        <f t="shared" si="50"/>
         <v>0.13017751479289941</v>
       </c>
       <c r="Q33" s="15">
-        <f>(Q4-M4)/M4</f>
+        <f t="shared" si="51"/>
         <v>0.17307692307692307</v>
       </c>
       <c r="R33" s="15">
-        <f>(R4-N4)/N4</f>
+        <f t="shared" si="51"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="S33" s="15">
-        <f>(S4-O4)/O4</f>
+        <f t="shared" si="51"/>
         <v>0.12254901960784313</v>
       </c>
       <c r="T33" s="15">
-        <f>(T4-P4)/P4</f>
+        <f t="shared" si="51"/>
         <v>0.1099476439790576</v>
       </c>
       <c r="U33" s="15">
-        <f>(U4-Q4)/Q4</f>
+        <f t="shared" si="51"/>
         <v>0.15846994535519127</v>
       </c>
       <c r="V33" s="15">
-        <f>(V4-R4)/R4</f>
+        <f t="shared" si="51"/>
         <v>0.29677419354838708</v>
       </c>
       <c r="W33" s="28">
-        <f>(W4-S4)/S4</f>
+        <f t="shared" si="51"/>
         <v>-0.23144104803493451</v>
       </c>
       <c r="X33" s="28">
-        <f>(X4-T4)/T4</f>
+        <f t="shared" si="51"/>
         <v>0.10849056603773585</v>
       </c>
       <c r="AA33" s="15"/>
       <c r="AB33" s="15">
-        <f>(AB4-AA4)/AA4</f>
+        <f t="shared" si="52"/>
         <v>0.96354646777842956</v>
       </c>
       <c r="AC33" s="15">
-        <f>(AC4-AB4)/AB4</f>
+        <f t="shared" si="52"/>
         <v>0.34864068968460588</v>
       </c>
       <c r="AD33" s="15">
-        <f>(AD4-AC4)/AC4</f>
+        <f t="shared" si="52"/>
         <v>0.15981012658227847</v>
       </c>
       <c r="AE33" s="15">
-        <f>(AE4-AD4)/AD4</f>
+        <f t="shared" si="52"/>
         <v>0.165075034106412</v>
       </c>
     </row>
@@ -6676,92 +6676,92 @@
         <v>72</v>
       </c>
       <c r="G34" s="6">
-        <f>(G5-C5)/C5</f>
+        <f t="shared" si="50"/>
         <v>0.34831515083638848</v>
       </c>
       <c r="H34" s="6">
-        <f>(H5-D5)/D5</f>
+        <f t="shared" si="50"/>
         <v>0.41095066185318885</v>
       </c>
       <c r="I34" s="6">
-        <f>(I5-E5)/E5</f>
+        <f t="shared" si="50"/>
         <v>0.15053191489361675</v>
       </c>
       <c r="J34" s="6">
-        <f>(J5-F5)/F5</f>
+        <f t="shared" si="50"/>
         <v>0.20523691867177743</v>
       </c>
       <c r="K34" s="6">
-        <f>(K5-G5)/G5</f>
+        <f t="shared" si="50"/>
         <v>5.4424297451068936E-2</v>
       </c>
       <c r="L34" s="6">
-        <f>(L5-H5)/H5</f>
+        <f t="shared" si="50"/>
         <v>1.0657896630636534E-2</v>
       </c>
       <c r="M34" s="6">
-        <f>(M5-I5)/I5</f>
+        <f t="shared" si="50"/>
         <v>5.058031236566856E-2</v>
       </c>
       <c r="N34" s="6">
-        <f>(N5-J5)/J5</f>
+        <f t="shared" si="50"/>
         <v>-3.3980415549525237E-3</v>
       </c>
       <c r="O34" s="6">
-        <f>(O5-K5)/K5</f>
+        <f t="shared" si="50"/>
         <v>-3.8407620071875675E-5</v>
       </c>
       <c r="P34" s="6">
-        <f>(P5-L5)/L5</f>
+        <f t="shared" si="50"/>
         <v>1.8239863458068408E-2</v>
       </c>
       <c r="Q34" s="6">
-        <f>(Q5-M5)/M5</f>
+        <f t="shared" si="51"/>
         <v>3.3178173416689272E-2</v>
       </c>
       <c r="R34" s="6">
-        <f>(R5-N5)/N5</f>
+        <f t="shared" si="51"/>
         <v>2.4966261808367186E-2</v>
       </c>
       <c r="S34" s="6">
-        <f>(S5-O5)/O5</f>
+        <f t="shared" si="51"/>
         <v>2.5193712477449413E-2</v>
       </c>
       <c r="T34" s="6">
-        <f>(T5-P5)/P5</f>
+        <f t="shared" si="51"/>
         <v>2.1222812326055458E-2</v>
       </c>
       <c r="U34" s="6">
-        <f>(U5-Q5)/Q5</f>
+        <f t="shared" si="51"/>
         <v>4.8271765101580003E-2</v>
       </c>
       <c r="V34" s="6">
-        <f>(V5-R5)/R5</f>
+        <f t="shared" si="51"/>
         <v>4.3332983082904314E-2</v>
       </c>
       <c r="W34" s="27">
-        <f>(W5-S5)/S5</f>
+        <f t="shared" si="51"/>
         <v>-8.1883630355246054E-2</v>
       </c>
       <c r="X34" s="27">
-        <f>(X5-T5)/T5</f>
+        <f t="shared" si="51"/>
         <v>3.1786977762803224E-2</v>
       </c>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6">
-        <f>(AB5-AA5)/AA5</f>
+        <f t="shared" si="52"/>
         <v>0.27341184471806901</v>
       </c>
       <c r="AC34" s="6">
-        <f>(AC5-AB5)/AB5</f>
+        <f t="shared" si="52"/>
         <v>2.794564741155459E-2</v>
       </c>
       <c r="AD34" s="6">
-        <f>(AD5-AC5)/AC5</f>
+        <f t="shared" si="52"/>
         <v>1.8688781470470681E-2</v>
       </c>
       <c r="AE34" s="6">
-        <f>(AE5-AD5)/AD5</f>
+        <f t="shared" si="52"/>
         <v>3.4256709411908226E-2</v>
       </c>
     </row>
@@ -6770,91 +6770,91 @@
         <v>49</v>
       </c>
       <c r="C36" s="6">
-        <f>C8/C6</f>
+        <f t="shared" ref="C36:X36" si="53">C8/C6</f>
         <v>0.67003789363648236</v>
       </c>
       <c r="D36" s="6">
-        <f>D8/D6</f>
+        <f t="shared" si="53"/>
         <v>0.51848709875916288</v>
       </c>
       <c r="E36" s="6">
-        <f>E8/E6</f>
+        <f t="shared" si="53"/>
         <v>0.83064907239719554</v>
       </c>
       <c r="F36" s="6">
-        <f>F8/F6</f>
+        <f t="shared" si="53"/>
         <v>0.75589923469387765</v>
       </c>
       <c r="G36" s="6">
-        <f>G8/G6</f>
+        <f t="shared" si="53"/>
         <v>0.71304017426285549</v>
       </c>
       <c r="H36" s="6">
-        <f>H8/H6</f>
+        <f t="shared" si="53"/>
         <v>0.77945543071161039</v>
       </c>
       <c r="I36" s="6">
-        <f>I8/I6</f>
+        <f t="shared" si="53"/>
         <v>0.86074213652079712</v>
       </c>
       <c r="J36" s="6">
-        <f>J8/J6</f>
+        <f t="shared" si="53"/>
         <v>0.80726290892287933</v>
       </c>
       <c r="K36" s="6">
-        <f>K8/K6</f>
+        <f t="shared" si="53"/>
         <v>0.75944333996023861</v>
       </c>
       <c r="L36" s="6">
-        <f>L8/L6</f>
+        <f t="shared" si="53"/>
         <v>0.81463878326996197</v>
       </c>
       <c r="M36" s="6">
-        <f>M8/M6</f>
+        <f t="shared" si="53"/>
         <v>0.86095700416088761</v>
       </c>
       <c r="N36" s="6">
-        <f>N8/N6</f>
+        <f t="shared" si="53"/>
         <v>0.81861198738170349</v>
       </c>
       <c r="O36" s="6">
-        <f>O8/O6</f>
+        <f t="shared" si="53"/>
         <v>0.76457645764576454</v>
       </c>
       <c r="P36" s="6">
-        <f>P8/P6</f>
+        <f t="shared" si="53"/>
         <v>0.82608695652173914</v>
       </c>
       <c r="Q36" s="6">
-        <f>Q8/Q6</f>
+        <f t="shared" si="53"/>
         <v>0.8648807771563144</v>
       </c>
       <c r="R36" s="6">
-        <f>R8/R6</f>
+        <f t="shared" si="53"/>
         <v>0.82687105500450853</v>
       </c>
       <c r="S36" s="6">
-        <f>S8/S6</f>
+        <f t="shared" si="53"/>
         <v>0.77591036414565828</v>
       </c>
       <c r="T36" s="6">
-        <f>T8/T6</f>
+        <f t="shared" si="53"/>
         <v>0.81586608442503639</v>
       </c>
       <c r="U36" s="6">
-        <f>U8/U6</f>
+        <f t="shared" si="53"/>
         <v>0.87540192926045013</v>
       </c>
       <c r="V36" s="6">
-        <f>V8/V6</f>
+        <f t="shared" si="53"/>
         <v>0.82782258064516134</v>
       </c>
       <c r="W36" s="27">
-        <f>W8/W6</f>
+        <f t="shared" si="53"/>
         <v>0.77728873239436624</v>
       </c>
       <c r="X36" s="27">
-        <f>X8/X6</f>
+        <f t="shared" si="53"/>
         <v>0.82428940568475451</v>
       </c>
       <c r="AA36" s="6">
@@ -6883,91 +6883,91 @@
         <v>50</v>
       </c>
       <c r="C37" s="6">
-        <f>C14/C6</f>
+        <f t="shared" ref="C37:X37" si="54">C14/C6</f>
         <v>-0.38664457194445423</v>
       </c>
       <c r="D37" s="6">
-        <f>D14/D6</f>
+        <f t="shared" si="54"/>
         <v>-1.7421155764784602</v>
       </c>
       <c r="E37" s="6">
-        <f>E14/E6</f>
+        <f t="shared" si="54"/>
         <v>0.31194764927577473</v>
       </c>
       <c r="F37" s="6">
-        <f>F14/F6</f>
+        <f t="shared" si="54"/>
         <v>-3.6079481975271865</v>
       </c>
       <c r="G37" s="6">
-        <f>G14/G6</f>
+        <f t="shared" si="54"/>
         <v>-0.50392023776236372</v>
       </c>
       <c r="H37" s="6">
-        <f>H14/H6</f>
+        <f t="shared" si="54"/>
         <v>-3.8136329588015008E-2</v>
       </c>
       <c r="I37" s="6">
-        <f>I14/I6</f>
+        <f t="shared" si="54"/>
         <v>0.38078162822378514</v>
       </c>
       <c r="J37" s="6">
-        <f>J14/J6</f>
+        <f t="shared" si="54"/>
         <v>4.931940822192462E-2</v>
       </c>
       <c r="K37" s="6">
-        <f>K14/K6</f>
+        <f t="shared" si="54"/>
         <v>-3.3134526176275677E-3</v>
       </c>
       <c r="L37" s="6">
-        <f>L14/L6</f>
+        <f t="shared" si="54"/>
         <v>0.17538022813688212</v>
       </c>
       <c r="M37" s="6">
-        <f>M14/M6</f>
+        <f t="shared" si="54"/>
         <v>0.41712898751733701</v>
       </c>
       <c r="N37" s="6">
-        <f>N14/N6</f>
+        <f t="shared" si="54"/>
         <v>0.12355415352260778</v>
       </c>
       <c r="O37" s="6">
-        <f>O14/O6</f>
+        <f t="shared" si="54"/>
         <v>-2.7502750275027505E-3</v>
       </c>
       <c r="P37" s="6">
-        <f>P14/P6</f>
+        <f t="shared" si="54"/>
         <v>0.21054750402576489</v>
       </c>
       <c r="Q37" s="6">
-        <f>Q14/Q6</f>
+        <f t="shared" si="54"/>
         <v>0.44038857815719751</v>
       </c>
       <c r="R37" s="6">
-        <f>R14/R6</f>
+        <f t="shared" si="54"/>
         <v>-0.22362488728584309</v>
       </c>
       <c r="S37" s="6">
-        <f>S14/S6</f>
+        <f t="shared" si="54"/>
         <v>4.7152194211017739E-2</v>
       </c>
       <c r="T37" s="6">
-        <f>T14/T6</f>
+        <f t="shared" si="54"/>
         <v>0.18085880640465793</v>
       </c>
       <c r="U37" s="6">
-        <f>U14/U6</f>
+        <f t="shared" si="54"/>
         <v>0.40862808145766344</v>
       </c>
       <c r="V37" s="6">
-        <f>V14/V6</f>
+        <f t="shared" si="54"/>
         <v>0.17338709677419356</v>
       </c>
       <c r="W37" s="27">
-        <f>W14/W6</f>
+        <f t="shared" si="54"/>
         <v>1.6725352112676055E-2</v>
       </c>
       <c r="X37" s="27">
-        <f>X14/X6</f>
+        <f t="shared" si="54"/>
         <v>0.19767441860465115</v>
       </c>
       <c r="AA37" s="6">
@@ -6996,91 +6996,91 @@
         <v>51</v>
       </c>
       <c r="C38" s="6">
-        <f>C19/C6</f>
+        <f t="shared" ref="C38:X38" si="55">C19/C6</f>
         <v>-0.4046006913509852</v>
       </c>
       <c r="D38" s="6">
-        <f>D19/D6</f>
+        <f t="shared" si="55"/>
         <v>-1.7193330425899263</v>
       </c>
       <c r="E38" s="6">
-        <f>E19/E6</f>
+        <f t="shared" si="55"/>
         <v>0.16393274088134743</v>
       </c>
       <c r="F38" s="6">
-        <f>F19/F6</f>
+        <f t="shared" si="55"/>
         <v>-4.5246292175629383</v>
       </c>
       <c r="G38" s="6">
-        <f>G19/G6</f>
+        <f t="shared" si="55"/>
         <v>-1.3216410203216464</v>
       </c>
       <c r="H38" s="6">
-        <f>H19/H6</f>
+        <f t="shared" si="55"/>
         <v>-5.0824719101123628E-2</v>
       </c>
       <c r="I38" s="6">
-        <f>I19/I6</f>
+        <f t="shared" si="55"/>
         <v>0.37270093571558821</v>
       </c>
       <c r="J38" s="6">
-        <f>J19/J6</f>
+        <f t="shared" si="55"/>
         <v>3.5570514477260097E-2</v>
       </c>
       <c r="K38" s="6">
-        <f>K19/K6</f>
+        <f t="shared" si="55"/>
         <v>-1.2591119946984758E-2</v>
       </c>
       <c r="L38" s="6">
-        <f>L19/L6</f>
+        <f t="shared" si="55"/>
         <v>0.18013307984790874</v>
       </c>
       <c r="M38" s="6">
-        <f>M19/M6</f>
+        <f t="shared" si="55"/>
         <v>0.42094313453536752</v>
       </c>
       <c r="N38" s="6">
-        <f>N19/N6</f>
+        <f t="shared" si="55"/>
         <v>0.16771819137749738</v>
       </c>
       <c r="O38" s="6">
-        <f>O19/O6</f>
+        <f t="shared" si="55"/>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="P38" s="6">
-        <f>P19/P6</f>
+        <f t="shared" si="55"/>
         <v>0.26167471819645732</v>
       </c>
       <c r="Q38" s="6">
-        <f>Q19/Q6</f>
+        <f t="shared" si="55"/>
         <v>1.2876067118045333</v>
       </c>
       <c r="R38" s="6">
-        <f>R19/R6</f>
+        <f t="shared" si="55"/>
         <v>-0.15734896302975654</v>
       </c>
       <c r="S38" s="6">
-        <f>S19/S6</f>
+        <f t="shared" si="55"/>
         <v>0.12324929971988796</v>
       </c>
       <c r="T38" s="6">
-        <f>T19/T6</f>
+        <f t="shared" si="55"/>
         <v>0.20196506550218341</v>
       </c>
       <c r="U38" s="6">
-        <f>U19/U6</f>
+        <f t="shared" si="55"/>
         <v>0.36655948553054662</v>
       </c>
       <c r="V38" s="6">
-        <f>V19/V6</f>
+        <f t="shared" si="55"/>
         <v>0.18588709677419354</v>
       </c>
       <c r="W38" s="27">
-        <f>W19/W6</f>
+        <f t="shared" si="55"/>
         <v>6.7781690140845077E-2</v>
       </c>
       <c r="X38" s="27">
-        <f>X19/X6</f>
+        <f t="shared" si="55"/>
         <v>0.20736434108527133</v>
       </c>
       <c r="AA38" s="6">
@@ -7109,91 +7109,91 @@
         <v>76</v>
       </c>
       <c r="C39" s="13">
-        <f>C6/C4</f>
+        <f t="shared" ref="C39:X39" si="56">C6/C4</f>
         <v>0.1244206325746379</v>
       </c>
       <c r="D39" s="13">
-        <f>D6/D4</f>
+        <f t="shared" si="56"/>
         <v>0.104616875</v>
       </c>
       <c r="E39" s="13">
-        <f>E6/E4</f>
+        <f t="shared" si="56"/>
         <v>0.16779137499999999</v>
       </c>
       <c r="F39" s="13">
-        <f>F6/F4</f>
+        <f t="shared" si="56"/>
         <v>0.14563796610169491</v>
       </c>
       <c r="G39" s="13">
-        <f>G6/G4</f>
+        <f t="shared" si="56"/>
         <v>8.6202352026436002E-2</v>
       </c>
       <c r="H39" s="13">
-        <f>H6/H4</f>
+        <f t="shared" si="56"/>
         <v>9.9626865671641793E-2</v>
       </c>
       <c r="I39" s="13">
-        <f>I6/I4</f>
+        <f t="shared" si="56"/>
         <v>0.18801949579831931</v>
       </c>
       <c r="J39" s="13">
-        <f>J6/J4</f>
+        <f t="shared" si="56"/>
         <v>0.1359173245808569</v>
       </c>
       <c r="K39" s="13">
-        <f>K6/K4</f>
+        <f t="shared" si="56"/>
         <v>8.7732558139534886E-2</v>
       </c>
       <c r="L39" s="13">
-        <f>L6/L4</f>
+        <f t="shared" si="56"/>
         <v>0.12449704142011835</v>
       </c>
       <c r="M39" s="13">
-        <f>M6/M4</f>
+        <f t="shared" si="56"/>
         <v>0.18487179487179486</v>
       </c>
       <c r="N39" s="13">
-        <f>N6/N4</f>
+        <f t="shared" si="56"/>
         <v>0.1408888888888889</v>
       </c>
       <c r="O39" s="13">
-        <f>O6/O4</f>
+        <f t="shared" si="56"/>
         <v>8.9117647058823524E-2</v>
       </c>
       <c r="P39" s="13">
-        <f>P6/P4</f>
+        <f t="shared" si="56"/>
         <v>0.13005235602094239</v>
       </c>
       <c r="Q39" s="13">
-        <f>Q6/Q4</f>
+        <f t="shared" si="56"/>
         <v>0.18562841530054644</v>
       </c>
       <c r="R39" s="13">
-        <f>R6/R4</f>
+        <f t="shared" si="56"/>
         <v>0.14309677419354838</v>
       </c>
       <c r="S39" s="13">
-        <f>S6/S4</f>
+        <f t="shared" si="56"/>
         <v>9.3537117903930128E-2</v>
       </c>
       <c r="T39" s="13">
-        <f>T6/T4</f>
+        <f t="shared" si="56"/>
         <v>0.12962264150943395</v>
       </c>
       <c r="U39" s="13">
-        <f>U6/U4</f>
+        <f t="shared" si="56"/>
         <v>0.1760377358490566</v>
       </c>
       <c r="V39" s="13">
-        <f>V6/V4</f>
+        <f t="shared" si="56"/>
         <v>0.12338308457711443</v>
       </c>
       <c r="W39" s="26">
-        <f>W6/W4</f>
+        <f t="shared" si="56"/>
         <v>0.12909090909090909</v>
       </c>
       <c r="X39" s="26">
-        <f>X6/X4</f>
+        <f t="shared" si="56"/>
         <v>0.13174468085106383</v>
       </c>
       <c r="AA39" s="13">
@@ -7222,91 +7222,91 @@
         <v>52</v>
       </c>
       <c r="C41" s="1">
-        <f>C19/C21</f>
+        <f t="shared" ref="C41:X41" si="57">C19/C21</f>
         <v>-1.2974983714844057</v>
       </c>
       <c r="D41" s="1">
-        <f>D19/D21</f>
+        <f t="shared" si="57"/>
         <v>-2.18425376730913</v>
       </c>
       <c r="E41" s="1">
-        <f>E19/E21</f>
+        <f t="shared" si="57"/>
         <v>0.73545316604613531</v>
       </c>
       <c r="F41" s="1">
-        <f>F19/F21</f>
+        <f t="shared" si="57"/>
         <v>-11.244525748000754</v>
       </c>
       <c r="G41" s="1">
-        <f>G19/G21</f>
+        <f t="shared" si="57"/>
         <v>-1.950564097444089</v>
       </c>
       <c r="H41" s="1">
-        <f>H19/H21</f>
+        <f t="shared" si="57"/>
         <v>-0.11091494902237725</v>
       </c>
       <c r="I41" s="1">
-        <f>I19/I21</f>
+        <f t="shared" si="57"/>
         <v>1.2228676259246005</v>
       </c>
       <c r="J41" s="1">
-        <f>J19/J21</f>
+        <f t="shared" si="57"/>
         <v>8.0043060907980079E-2</v>
       </c>
       <c r="K41" s="1">
-        <f>K19/K21</f>
+        <f t="shared" si="57"/>
         <v>-2.9921259842519685E-2</v>
       </c>
       <c r="L41" s="1">
-        <f>L19/L21</f>
+        <f t="shared" si="57"/>
         <v>0.55409356725146197</v>
       </c>
       <c r="M41" s="1">
-        <f>M19/M21</f>
+        <f t="shared" si="57"/>
         <v>1.7774524158125915</v>
       </c>
       <c r="N41" s="1">
-        <f>N19/N21</f>
+        <f t="shared" si="57"/>
         <v>0.46911764705882353</v>
       </c>
       <c r="O41" s="1">
-        <f>O19/O21</f>
+        <f t="shared" si="57"/>
         <v>0.17462686567164179</v>
       </c>
       <c r="P41" s="1">
-        <f>P19/P21</f>
+        <f t="shared" si="57"/>
         <v>0.97744360902255634</v>
       </c>
       <c r="Q41" s="1">
-        <f>Q19/Q21</f>
+        <f t="shared" si="57"/>
         <v>6.627272727272727</v>
       </c>
       <c r="R41" s="1">
-        <f>R19/R21</f>
+        <f t="shared" si="57"/>
         <v>-0.52719033232628398</v>
       </c>
       <c r="S41" s="1">
-        <f>S19/S21</f>
+        <f t="shared" si="57"/>
         <v>0.40366972477064222</v>
       </c>
       <c r="T41" s="1">
-        <f>T19/T21</f>
+        <f t="shared" si="57"/>
         <v>0.85516178736517723</v>
       </c>
       <c r="U41" s="1">
-        <f>U19/U21</f>
+        <f t="shared" si="57"/>
         <v>2.1308411214953269</v>
       </c>
       <c r="V41" s="1">
-        <f>V19/V21</f>
+        <f t="shared" si="57"/>
         <v>0.71472868217054264</v>
       </c>
       <c r="W41" s="29">
-        <f>W19/W21</f>
+        <f t="shared" si="57"/>
         <v>0.24367088607594936</v>
       </c>
       <c r="X41" s="29">
-        <f>X19/X21</f>
+        <f t="shared" si="57"/>
         <v>1.0338164251207729</v>
       </c>
       <c r="AA41" s="1">
@@ -7524,16 +7524,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DC0004-40B4-4872-AA14-5907BAA2D76E}">
   <dimension ref="B3:H18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="18"/>
-    <col min="2" max="2" width="20.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="12.140625" style="18"/>
+    <col min="1" max="1" width="12.1640625" style="18"/>
+    <col min="2" max="2" width="20.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="12.1640625" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
